--- a/empty_book.xlsx
+++ b/empty_book.xlsx
@@ -404,7 +404,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG36"/>
+  <dimension ref="A1:AG204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,6 +447,11 @@
   <sheetData>
     <row customHeight="1" ht="11" r="1">
       <c r="A1" s="1" t="n"/>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>ПТ-2.КЦ</t>
+        </is>
+      </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
           <t>A1</t>
@@ -464,6 +469,26 @@
     <row customHeight="1" ht="73" r="2">
       <c r="A2" s="1" t="n"/>
       <c r="C2" s="3" t="n"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>R500 ST 02 011</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>R500 PP 00 011</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>R500 CU 00 051</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>R500 ST 02 021</t>
+        </is>
+      </c>
       <c r="AD2" s="3" t="n"/>
       <c r="AE2" s="1" t="n"/>
       <c r="AF2" s="1" t="n"/>
@@ -471,6 +496,11 @@
     </row>
     <row customHeight="1" ht="9" r="3">
       <c r="A3" s="1" t="n"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Начальный адрес</t>
+        </is>
+      </c>
       <c r="C3" s="3" t="n"/>
       <c r="AD3" s="3" t="n"/>
       <c r="AE3" s="1" t="n"/>
@@ -479,6 +509,11 @@
     </row>
     <row customHeight="1" ht="12" r="4">
       <c r="A4" s="1" t="n"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Конечный адрес</t>
+        </is>
+      </c>
       <c r="C4" s="4" t="n"/>
       <c r="AD4" s="3" t="n"/>
       <c r="AE4" s="1" t="n"/>
@@ -557,6 +592,11 @@
     </row>
     <row customHeight="1" ht="11" r="7">
       <c r="A7" s="1" t="n"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ПТ-2.КЦ</t>
+        </is>
+      </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
           <t>A2</t>
@@ -570,6 +610,26 @@
     <row customHeight="1" ht="73" r="8">
       <c r="A8" s="1" t="n"/>
       <c r="C8" s="3" t="n"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>R500 ST 02 011</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>R500 PP 00 011</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>R500 CU 00 051</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>R500 ST 02 021</t>
+        </is>
+      </c>
       <c r="AD8" s="3" t="n"/>
       <c r="AE8" s="1" t="n"/>
       <c r="AF8" s="1" t="n"/>
@@ -577,6 +637,11 @@
     </row>
     <row customHeight="1" ht="9" r="9">
       <c r="A9" s="1" t="n"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Начальный адрес</t>
+        </is>
+      </c>
       <c r="C9" s="3" t="n"/>
       <c r="AD9" s="3" t="n"/>
       <c r="AE9" s="1" t="n"/>
@@ -585,6 +650,11 @@
     </row>
     <row customHeight="1" ht="12" r="10">
       <c r="A10" s="1" t="n"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Конечный адрес</t>
+        </is>
+      </c>
       <c r="C10" s="4" t="n"/>
       <c r="AD10" s="4" t="n"/>
       <c r="AE10" s="1" t="n"/>
@@ -663,6 +733,11 @@
     </row>
     <row customHeight="1" ht="11" r="13">
       <c r="A13" s="1" t="n"/>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ПТ-2.КЦ</t>
+        </is>
+      </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
           <t>A3</t>
@@ -680,6 +755,36 @@
     <row customHeight="1" ht="73" r="14">
       <c r="A14" s="1" t="n"/>
       <c r="C14" s="3" t="n"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>R500 ST 02 011</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>R500 PP 00 011</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>R500 AI 08 051</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>R500 DI 32 011</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>R500 CP 04 011</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>R500 ST 02 021</t>
+        </is>
+      </c>
       <c r="AD14" s="3" t="n"/>
       <c r="AE14" s="1" t="n"/>
       <c r="AF14" s="1" t="n"/>
@@ -687,6 +792,11 @@
     </row>
     <row customHeight="1" ht="9" r="15">
       <c r="A15" s="1" t="n"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Начальный адрес</t>
+        </is>
+      </c>
       <c r="C15" s="3" t="n"/>
       <c r="AD15" s="3" t="n"/>
       <c r="AE15" s="1" t="n"/>
@@ -695,6 +805,11 @@
     </row>
     <row customHeight="1" ht="12" r="16">
       <c r="A16" s="1" t="n"/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Конечный адрес</t>
+        </is>
+      </c>
       <c r="C16" s="4" t="n"/>
       <c r="AD16" s="3" t="n"/>
       <c r="AE16" s="1" t="n"/>
@@ -773,6 +888,11 @@
     </row>
     <row customHeight="1" ht="11" r="19">
       <c r="A19" s="1" t="n"/>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ПТ-2.КЦ</t>
+        </is>
+      </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
           <t>A4</t>
@@ -786,6 +906,31 @@
     <row customHeight="1" ht="73" r="20">
       <c r="A20" s="1" t="n"/>
       <c r="C20" s="3" t="n"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>R500 ST 02 011</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>R500 PP 00 011</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>R500 DI 32 011</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>R500 CP 04 011</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>R500 ST 02 021</t>
+        </is>
+      </c>
       <c r="AD20" s="3" t="n"/>
       <c r="AE20" s="1" t="n"/>
       <c r="AF20" s="1" t="n"/>
@@ -793,6 +938,11 @@
     </row>
     <row customHeight="1" ht="9" r="21">
       <c r="A21" s="1" t="n"/>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Начальный адрес</t>
+        </is>
+      </c>
       <c r="C21" s="3" t="n"/>
       <c r="AD21" s="3" t="n"/>
       <c r="AE21" s="1" t="n"/>
@@ -801,6 +951,11 @@
     </row>
     <row customHeight="1" ht="12" r="22">
       <c r="A22" s="1" t="n"/>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Конечный адрес</t>
+        </is>
+      </c>
       <c r="C22" s="4" t="n"/>
       <c r="AD22" s="4" t="n"/>
       <c r="AE22" s="1" t="n"/>
@@ -1093,8 +1248,2831 @@
       <c r="AF36" s="1" t="n"/>
       <c r="AG36" s="1" t="n"/>
     </row>
+    <row customHeight="1" ht="11" r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>ПТ-2.УСО.1</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="AE37" s="1" t="n"/>
+      <c r="AF37" s="1" t="n"/>
+      <c r="AG37" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="73" r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="C38" s="3" t="n"/>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>R500 ST 02 011</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>R500 PP 00 011</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>R500 AI 08 051</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>R500 AI 08 051</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>R500 AI 08 051</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>R500 AI 08 051</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>R500 AI 08 051</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>R500 DI 32 011</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>R500 DI 32 011</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>R500 DO 32 011</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>R500 DO 32 011</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>R500 DO 32 011</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>R500 CP 04 011</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>R500 CP 04 011</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>R500 PP 00 011</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>R500 ST 02 021</t>
+        </is>
+      </c>
+      <c r="AE38" s="1" t="n"/>
+      <c r="AF38" s="1" t="n"/>
+      <c r="AG38" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="9" r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Начальный адрес</t>
+        </is>
+      </c>
+      <c r="C39" s="3" t="n"/>
+      <c r="AE39" s="1" t="n"/>
+      <c r="AF39" s="1" t="n"/>
+      <c r="AG39" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="12" r="40">
+      <c r="A40" s="1" t="n"/>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Конечный адрес</t>
+        </is>
+      </c>
+      <c r="C40" s="4" t="n"/>
+      <c r="AE40" s="1" t="n"/>
+      <c r="AF40" s="1" t="n"/>
+      <c r="AG40" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="12" r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="1" t="n"/>
+      <c r="C41" s="1" t="n"/>
+      <c r="D41" s="1" t="n"/>
+      <c r="E41" s="1" t="n"/>
+      <c r="F41" s="1" t="n"/>
+      <c r="G41" s="1" t="n"/>
+      <c r="H41" s="1" t="n"/>
+      <c r="I41" s="1" t="n"/>
+      <c r="J41" s="1" t="n"/>
+      <c r="K41" s="1" t="n"/>
+      <c r="L41" s="1" t="n"/>
+      <c r="M41" s="1" t="n"/>
+      <c r="N41" s="1" t="n"/>
+      <c r="O41" s="1" t="n"/>
+      <c r="P41" s="1" t="n"/>
+      <c r="Q41" s="1" t="n"/>
+      <c r="R41" s="1" t="n"/>
+      <c r="S41" s="1" t="n"/>
+      <c r="T41" s="1" t="n"/>
+      <c r="U41" s="1" t="n"/>
+      <c r="V41" s="1" t="n"/>
+      <c r="W41" s="1" t="n"/>
+      <c r="X41" s="1" t="n"/>
+      <c r="Y41" s="1" t="n"/>
+      <c r="Z41" s="1" t="n"/>
+      <c r="AA41" s="1" t="n"/>
+      <c r="AB41" s="1" t="n"/>
+      <c r="AC41" s="1" t="n"/>
+      <c r="AD41" s="1" t="n"/>
+      <c r="AE41" s="1" t="n"/>
+      <c r="AF41" s="1" t="n"/>
+      <c r="AG41" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="12" r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="1" t="n"/>
+      <c r="C42" s="1" t="n"/>
+      <c r="D42" s="1" t="n"/>
+      <c r="E42" s="1" t="n"/>
+      <c r="F42" s="1" t="n"/>
+      <c r="G42" s="1" t="n"/>
+      <c r="H42" s="1" t="n"/>
+      <c r="I42" s="1" t="n"/>
+      <c r="J42" s="1" t="n"/>
+      <c r="K42" s="1" t="n"/>
+      <c r="L42" s="1" t="n"/>
+      <c r="M42" s="1" t="n"/>
+      <c r="N42" s="1" t="n"/>
+      <c r="O42" s="1" t="n"/>
+      <c r="P42" s="1" t="n"/>
+      <c r="Q42" s="1" t="n"/>
+      <c r="R42" s="1" t="n"/>
+      <c r="S42" s="1" t="n"/>
+      <c r="T42" s="1" t="n"/>
+      <c r="U42" s="1" t="n"/>
+      <c r="V42" s="1" t="n"/>
+      <c r="W42" s="1" t="n"/>
+      <c r="X42" s="1" t="n"/>
+      <c r="Y42" s="1" t="n"/>
+      <c r="Z42" s="1" t="n"/>
+      <c r="AA42" s="1" t="n"/>
+      <c r="AB42" s="1" t="n"/>
+      <c r="AC42" s="1" t="n"/>
+      <c r="AD42" s="1" t="n"/>
+      <c r="AE42" s="1" t="n"/>
+      <c r="AF42" s="1" t="n"/>
+      <c r="AG42" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="11" r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>ПТ-2.УСО.1</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="AE43" s="1" t="n"/>
+      <c r="AF43" s="1" t="n"/>
+      <c r="AG43" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="73" r="44">
+      <c r="A44" s="1" t="n"/>
+      <c r="C44" s="3" t="n"/>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>R500 ST 02 011</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>R500 PP 00 011</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>R500 AI 08 051</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>R500 AI 08 051</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>R500 AI 08 051</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>R500 AI 08 051</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>R500 AI 08 051</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>R500 DI 32 011</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>R500 DI 32 011</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>R500 DO 32 011</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>R500 CP 04 011</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>R500 PP 00 011</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>R500 ST 02 021</t>
+        </is>
+      </c>
+      <c r="AE44" s="1" t="n"/>
+      <c r="AF44" s="1" t="n"/>
+      <c r="AG44" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="9" r="45">
+      <c r="A45" s="1" t="n"/>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Начальный адрес</t>
+        </is>
+      </c>
+      <c r="C45" s="3" t="n"/>
+      <c r="AE45" s="1" t="n"/>
+      <c r="AF45" s="1" t="n"/>
+      <c r="AG45" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="12" r="46">
+      <c r="A46" s="1" t="n"/>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Конечный адрес</t>
+        </is>
+      </c>
+      <c r="C46" s="4" t="n"/>
+      <c r="AE46" s="1" t="n"/>
+      <c r="AF46" s="1" t="n"/>
+      <c r="AG46" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="12" r="47">
+      <c r="A47" s="1" t="n"/>
+      <c r="B47" s="1" t="n"/>
+      <c r="C47" s="1" t="n"/>
+      <c r="D47" s="1" t="n"/>
+      <c r="E47" s="1" t="n"/>
+      <c r="F47" s="1" t="n"/>
+      <c r="G47" s="1" t="n"/>
+      <c r="H47" s="1" t="n"/>
+      <c r="I47" s="1" t="n"/>
+      <c r="J47" s="1" t="n"/>
+      <c r="K47" s="1" t="n"/>
+      <c r="L47" s="1" t="n"/>
+      <c r="M47" s="1" t="n"/>
+      <c r="N47" s="1" t="n"/>
+      <c r="O47" s="1" t="n"/>
+      <c r="P47" s="1" t="n"/>
+      <c r="Q47" s="1" t="n"/>
+      <c r="R47" s="1" t="n"/>
+      <c r="S47" s="1" t="n"/>
+      <c r="T47" s="1" t="n"/>
+      <c r="U47" s="1" t="n"/>
+      <c r="V47" s="1" t="n"/>
+      <c r="W47" s="1" t="n"/>
+      <c r="X47" s="1" t="n"/>
+      <c r="Y47" s="1" t="n"/>
+      <c r="Z47" s="1" t="n"/>
+      <c r="AA47" s="1" t="n"/>
+      <c r="AB47" s="1" t="n"/>
+      <c r="AC47" s="1" t="n"/>
+      <c r="AD47" s="1" t="n"/>
+      <c r="AE47" s="1" t="n"/>
+      <c r="AF47" s="1" t="n"/>
+      <c r="AG47" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="12" r="48">
+      <c r="A48" s="1" t="n"/>
+      <c r="B48" s="1" t="n"/>
+      <c r="C48" s="1" t="n"/>
+      <c r="D48" s="1" t="n"/>
+      <c r="E48" s="1" t="n"/>
+      <c r="F48" s="1" t="n"/>
+      <c r="G48" s="1" t="n"/>
+      <c r="H48" s="1" t="n"/>
+      <c r="I48" s="1" t="n"/>
+      <c r="J48" s="1" t="n"/>
+      <c r="K48" s="1" t="n"/>
+      <c r="L48" s="1" t="n"/>
+      <c r="M48" s="1" t="n"/>
+      <c r="N48" s="1" t="n"/>
+      <c r="O48" s="1" t="n"/>
+      <c r="P48" s="1" t="n"/>
+      <c r="Q48" s="1" t="n"/>
+      <c r="R48" s="1" t="n"/>
+      <c r="S48" s="1" t="n"/>
+      <c r="T48" s="1" t="n"/>
+      <c r="U48" s="1" t="n"/>
+      <c r="V48" s="1" t="n"/>
+      <c r="W48" s="1" t="n"/>
+      <c r="X48" s="1" t="n"/>
+      <c r="Y48" s="1" t="n"/>
+      <c r="Z48" s="1" t="n"/>
+      <c r="AA48" s="1" t="n"/>
+      <c r="AB48" s="1" t="n"/>
+      <c r="AC48" s="1" t="n"/>
+      <c r="AD48" s="1" t="n"/>
+      <c r="AE48" s="1" t="n"/>
+      <c r="AF48" s="1" t="n"/>
+      <c r="AG48" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="11" r="49">
+      <c r="A49" s="1" t="n"/>
+      <c r="AE49" s="1" t="n"/>
+      <c r="AF49" s="1" t="n"/>
+      <c r="AG49" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="73" r="50">
+      <c r="A50" s="1" t="n"/>
+      <c r="AE50" s="1" t="n"/>
+      <c r="AF50" s="1" t="n"/>
+      <c r="AG50" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="9" r="51">
+      <c r="A51" s="1" t="n"/>
+      <c r="AE51" s="1" t="n"/>
+      <c r="AF51" s="1" t="n"/>
+      <c r="AG51" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="12" r="52">
+      <c r="A52" s="1" t="n"/>
+      <c r="AE52" s="1" t="n"/>
+      <c r="AF52" s="1" t="n"/>
+      <c r="AG52" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="12" r="53">
+      <c r="A53" s="1" t="n"/>
+      <c r="B53" s="1" t="n"/>
+      <c r="C53" s="1" t="n"/>
+      <c r="D53" s="1" t="n"/>
+      <c r="E53" s="1" t="n"/>
+      <c r="F53" s="1" t="n"/>
+      <c r="G53" s="1" t="n"/>
+      <c r="H53" s="1" t="n"/>
+      <c r="I53" s="1" t="n"/>
+      <c r="J53" s="1" t="n"/>
+      <c r="K53" s="1" t="n"/>
+      <c r="L53" s="1" t="n"/>
+      <c r="M53" s="1" t="n"/>
+      <c r="N53" s="1" t="n"/>
+      <c r="O53" s="1" t="n"/>
+      <c r="P53" s="1" t="n"/>
+      <c r="Q53" s="1" t="n"/>
+      <c r="R53" s="1" t="n"/>
+      <c r="S53" s="1" t="n"/>
+      <c r="T53" s="1" t="n"/>
+      <c r="U53" s="1" t="n"/>
+      <c r="V53" s="1" t="n"/>
+      <c r="W53" s="1" t="n"/>
+      <c r="X53" s="1" t="n"/>
+      <c r="Y53" s="1" t="n"/>
+      <c r="Z53" s="1" t="n"/>
+      <c r="AA53" s="1" t="n"/>
+      <c r="AB53" s="1" t="n"/>
+      <c r="AC53" s="1" t="n"/>
+      <c r="AD53" s="1" t="n"/>
+      <c r="AE53" s="1" t="n"/>
+      <c r="AF53" s="1" t="n"/>
+      <c r="AG53" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="12" r="54">
+      <c r="A54" s="1" t="n"/>
+      <c r="B54" s="1" t="n"/>
+      <c r="C54" s="1" t="n"/>
+      <c r="D54" s="1" t="n"/>
+      <c r="E54" s="1" t="n"/>
+      <c r="F54" s="1" t="n"/>
+      <c r="G54" s="1" t="n"/>
+      <c r="H54" s="1" t="n"/>
+      <c r="I54" s="1" t="n"/>
+      <c r="J54" s="1" t="n"/>
+      <c r="K54" s="1" t="n"/>
+      <c r="L54" s="1" t="n"/>
+      <c r="M54" s="1" t="n"/>
+      <c r="N54" s="1" t="n"/>
+      <c r="O54" s="1" t="n"/>
+      <c r="P54" s="1" t="n"/>
+      <c r="Q54" s="1" t="n"/>
+      <c r="R54" s="1" t="n"/>
+      <c r="S54" s="1" t="n"/>
+      <c r="T54" s="1" t="n"/>
+      <c r="U54" s="1" t="n"/>
+      <c r="V54" s="1" t="n"/>
+      <c r="W54" s="1" t="n"/>
+      <c r="X54" s="1" t="n"/>
+      <c r="Y54" s="1" t="n"/>
+      <c r="Z54" s="1" t="n"/>
+      <c r="AA54" s="1" t="n"/>
+      <c r="AB54" s="1" t="n"/>
+      <c r="AC54" s="1" t="n"/>
+      <c r="AD54" s="1" t="n"/>
+      <c r="AE54" s="1" t="n"/>
+      <c r="AF54" s="1" t="n"/>
+      <c r="AG54" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="11" r="55">
+      <c r="A55" s="1" t="n"/>
+      <c r="AE55" s="1" t="n"/>
+      <c r="AF55" s="1" t="n"/>
+      <c r="AG55" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="73" r="56">
+      <c r="A56" s="1" t="n"/>
+      <c r="AE56" s="1" t="n"/>
+      <c r="AF56" s="1" t="n"/>
+      <c r="AG56" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="9" r="57">
+      <c r="A57" s="1" t="n"/>
+      <c r="AE57" s="1" t="n"/>
+      <c r="AF57" s="1" t="n"/>
+      <c r="AG57" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="12" r="58">
+      <c r="A58" s="1" t="n"/>
+      <c r="AE58" s="1" t="n"/>
+      <c r="AF58" s="1" t="n"/>
+      <c r="AG58" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="12" r="59">
+      <c r="A59" s="1" t="n"/>
+      <c r="B59" s="1" t="n"/>
+      <c r="C59" s="1" t="n"/>
+      <c r="D59" s="1" t="n"/>
+      <c r="E59" s="1" t="n"/>
+      <c r="F59" s="1" t="n"/>
+      <c r="G59" s="1" t="n"/>
+      <c r="H59" s="1" t="n"/>
+      <c r="I59" s="1" t="n"/>
+      <c r="J59" s="1" t="n"/>
+      <c r="K59" s="1" t="n"/>
+      <c r="L59" s="1" t="n"/>
+      <c r="M59" s="1" t="n"/>
+      <c r="N59" s="1" t="n"/>
+      <c r="O59" s="1" t="n"/>
+      <c r="P59" s="1" t="n"/>
+      <c r="Q59" s="1" t="n"/>
+      <c r="R59" s="1" t="n"/>
+      <c r="S59" s="1" t="n"/>
+      <c r="T59" s="1" t="n"/>
+      <c r="U59" s="1" t="n"/>
+      <c r="V59" s="1" t="n"/>
+      <c r="W59" s="1" t="n"/>
+      <c r="X59" s="1" t="n"/>
+      <c r="Y59" s="1" t="n"/>
+      <c r="Z59" s="1" t="n"/>
+      <c r="AA59" s="1" t="n"/>
+      <c r="AB59" s="1" t="n"/>
+      <c r="AC59" s="1" t="n"/>
+      <c r="AD59" s="1" t="n"/>
+      <c r="AE59" s="1" t="n"/>
+      <c r="AF59" s="1" t="n"/>
+      <c r="AG59" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="12" r="60">
+      <c r="A60" s="1" t="n"/>
+      <c r="B60" s="1" t="n"/>
+      <c r="C60" s="1" t="n"/>
+      <c r="D60" s="1" t="n"/>
+      <c r="E60" s="1" t="n"/>
+      <c r="F60" s="1" t="n"/>
+      <c r="G60" s="1" t="n"/>
+      <c r="H60" s="1" t="n"/>
+      <c r="I60" s="1" t="n"/>
+      <c r="J60" s="1" t="n"/>
+      <c r="K60" s="1" t="n"/>
+      <c r="L60" s="1" t="n"/>
+      <c r="M60" s="1" t="n"/>
+      <c r="N60" s="1" t="n"/>
+      <c r="O60" s="1" t="n"/>
+      <c r="P60" s="1" t="n"/>
+      <c r="Q60" s="1" t="n"/>
+      <c r="R60" s="1" t="n"/>
+      <c r="S60" s="1" t="n"/>
+      <c r="T60" s="1" t="n"/>
+      <c r="U60" s="1" t="n"/>
+      <c r="V60" s="1" t="n"/>
+      <c r="W60" s="1" t="n"/>
+      <c r="X60" s="1" t="n"/>
+      <c r="Y60" s="1" t="n"/>
+      <c r="Z60" s="1" t="n"/>
+      <c r="AA60" s="1" t="n"/>
+      <c r="AB60" s="1" t="n"/>
+      <c r="AC60" s="1" t="n"/>
+      <c r="AD60" s="1" t="n"/>
+      <c r="AE60" s="1" t="n"/>
+      <c r="AF60" s="1" t="n"/>
+      <c r="AG60" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="11" r="61">
+      <c r="A61" s="1" t="n"/>
+      <c r="AE61" s="1" t="n"/>
+      <c r="AF61" s="1" t="n"/>
+      <c r="AG61" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="73" r="62">
+      <c r="A62" s="1" t="n"/>
+      <c r="AE62" s="1" t="n"/>
+      <c r="AF62" s="1" t="n"/>
+      <c r="AG62" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="9" r="63">
+      <c r="A63" s="1" t="n"/>
+      <c r="AE63" s="1" t="n"/>
+      <c r="AF63" s="1" t="n"/>
+      <c r="AG63" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="12" r="64">
+      <c r="A64" s="1" t="n"/>
+      <c r="AE64" s="1" t="n"/>
+      <c r="AF64" s="1" t="n"/>
+      <c r="AG64" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="12" r="65">
+      <c r="A65" s="1" t="n"/>
+      <c r="B65" s="1" t="n"/>
+      <c r="C65" s="1" t="n"/>
+      <c r="D65" s="1" t="n"/>
+      <c r="E65" s="1" t="n"/>
+      <c r="F65" s="1" t="n"/>
+      <c r="G65" s="1" t="n"/>
+      <c r="H65" s="1" t="n"/>
+      <c r="I65" s="1" t="n"/>
+      <c r="J65" s="1" t="n"/>
+      <c r="K65" s="1" t="n"/>
+      <c r="L65" s="1" t="n"/>
+      <c r="M65" s="1" t="n"/>
+      <c r="N65" s="1" t="n"/>
+      <c r="O65" s="1" t="n"/>
+      <c r="P65" s="1" t="n"/>
+      <c r="Q65" s="1" t="n"/>
+      <c r="R65" s="1" t="n"/>
+      <c r="S65" s="1" t="n"/>
+      <c r="T65" s="1" t="n"/>
+      <c r="U65" s="1" t="n"/>
+      <c r="V65" s="1" t="n"/>
+      <c r="W65" s="1" t="n"/>
+      <c r="X65" s="1" t="n"/>
+      <c r="Y65" s="1" t="n"/>
+      <c r="Z65" s="1" t="n"/>
+      <c r="AA65" s="1" t="n"/>
+      <c r="AB65" s="1" t="n"/>
+      <c r="AC65" s="1" t="n"/>
+      <c r="AD65" s="1" t="n"/>
+      <c r="AE65" s="1" t="n"/>
+      <c r="AF65" s="1" t="n"/>
+      <c r="AG65" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="12" r="66">
+      <c r="A66" s="1" t="n"/>
+      <c r="B66" s="1" t="n"/>
+      <c r="C66" s="1" t="n"/>
+      <c r="D66" s="1" t="n"/>
+      <c r="E66" s="1" t="n"/>
+      <c r="F66" s="1" t="n"/>
+      <c r="G66" s="1" t="n"/>
+      <c r="H66" s="1" t="n"/>
+      <c r="I66" s="1" t="n"/>
+      <c r="J66" s="1" t="n"/>
+      <c r="K66" s="1" t="n"/>
+      <c r="L66" s="1" t="n"/>
+      <c r="M66" s="1" t="n"/>
+      <c r="N66" s="1" t="n"/>
+      <c r="O66" s="1" t="n"/>
+      <c r="P66" s="1" t="n"/>
+      <c r="Q66" s="1" t="n"/>
+      <c r="R66" s="1" t="n"/>
+      <c r="S66" s="1" t="n"/>
+      <c r="T66" s="1" t="n"/>
+      <c r="U66" s="1" t="n"/>
+      <c r="V66" s="1" t="n"/>
+      <c r="W66" s="1" t="n"/>
+      <c r="X66" s="1" t="n"/>
+      <c r="Y66" s="1" t="n"/>
+      <c r="Z66" s="1" t="n"/>
+      <c r="AA66" s="1" t="n"/>
+      <c r="AB66" s="1" t="n"/>
+      <c r="AC66" s="1" t="n"/>
+      <c r="AD66" s="1" t="n"/>
+      <c r="AE66" s="1" t="n"/>
+      <c r="AF66" s="1" t="n"/>
+      <c r="AG66" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="11" r="67">
+      <c r="A67" s="1" t="n"/>
+      <c r="AE67" s="1" t="n"/>
+      <c r="AF67" s="1" t="n"/>
+      <c r="AG67" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="73" r="68">
+      <c r="A68" s="1" t="n"/>
+      <c r="AE68" s="1" t="n"/>
+      <c r="AF68" s="1" t="n"/>
+      <c r="AG68" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="9" r="69">
+      <c r="A69" s="1" t="n"/>
+      <c r="AE69" s="1" t="n"/>
+      <c r="AF69" s="1" t="n"/>
+      <c r="AG69" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="12" r="70">
+      <c r="A70" s="1" t="n"/>
+      <c r="AE70" s="1" t="n"/>
+      <c r="AF70" s="1" t="n"/>
+      <c r="AG70" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="12" r="71">
+      <c r="A71" s="1" t="n"/>
+      <c r="B71" s="1" t="n"/>
+      <c r="C71" s="1" t="n"/>
+      <c r="D71" s="1" t="n"/>
+      <c r="E71" s="1" t="n"/>
+      <c r="F71" s="1" t="n"/>
+      <c r="G71" s="1" t="n"/>
+      <c r="H71" s="1" t="n"/>
+      <c r="I71" s="1" t="n"/>
+      <c r="J71" s="1" t="n"/>
+      <c r="K71" s="1" t="n"/>
+      <c r="L71" s="1" t="n"/>
+      <c r="M71" s="1" t="n"/>
+      <c r="N71" s="1" t="n"/>
+      <c r="O71" s="1" t="n"/>
+      <c r="P71" s="1" t="n"/>
+      <c r="Q71" s="1" t="n"/>
+      <c r="R71" s="1" t="n"/>
+      <c r="S71" s="1" t="n"/>
+      <c r="T71" s="1" t="n"/>
+      <c r="U71" s="1" t="n"/>
+      <c r="V71" s="1" t="n"/>
+      <c r="W71" s="1" t="n"/>
+      <c r="X71" s="1" t="n"/>
+      <c r="Y71" s="1" t="n"/>
+      <c r="Z71" s="1" t="n"/>
+      <c r="AA71" s="1" t="n"/>
+      <c r="AB71" s="1" t="n"/>
+      <c r="AC71" s="1" t="n"/>
+      <c r="AD71" s="1" t="n"/>
+      <c r="AE71" s="1" t="n"/>
+      <c r="AF71" s="1" t="n"/>
+      <c r="AG71" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="12" r="72">
+      <c r="A72" s="1" t="n"/>
+      <c r="B72" s="1" t="n"/>
+      <c r="C72" s="1" t="n"/>
+      <c r="D72" s="1" t="n"/>
+      <c r="E72" s="1" t="n"/>
+      <c r="F72" s="1" t="n"/>
+      <c r="G72" s="1" t="n"/>
+      <c r="H72" s="1" t="n"/>
+      <c r="I72" s="1" t="n"/>
+      <c r="J72" s="1" t="n"/>
+      <c r="K72" s="1" t="n"/>
+      <c r="L72" s="1" t="n"/>
+      <c r="M72" s="1" t="n"/>
+      <c r="N72" s="1" t="n"/>
+      <c r="O72" s="1" t="n"/>
+      <c r="P72" s="1" t="n"/>
+      <c r="Q72" s="1" t="n"/>
+      <c r="R72" s="1" t="n"/>
+      <c r="S72" s="1" t="n"/>
+      <c r="T72" s="1" t="n"/>
+      <c r="U72" s="1" t="n"/>
+      <c r="V72" s="1" t="n"/>
+      <c r="W72" s="1" t="n"/>
+      <c r="X72" s="1" t="n"/>
+      <c r="Y72" s="1" t="n"/>
+      <c r="Z72" s="1" t="n"/>
+      <c r="AA72" s="1" t="n"/>
+      <c r="AB72" s="1" t="n"/>
+      <c r="AC72" s="1" t="n"/>
+      <c r="AD72" s="1" t="n"/>
+      <c r="AE72" s="1" t="n"/>
+      <c r="AF72" s="1" t="n"/>
+      <c r="AG72" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="11" r="73">
+      <c r="A73" s="1" t="n"/>
+      <c r="AE73" s="1" t="n"/>
+      <c r="AF73" s="1" t="n"/>
+      <c r="AG73" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="73" r="74">
+      <c r="A74" s="1" t="n"/>
+      <c r="AE74" s="1" t="n"/>
+      <c r="AF74" s="1" t="n"/>
+      <c r="AG74" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="9" r="75">
+      <c r="A75" s="1" t="n"/>
+      <c r="AE75" s="1" t="n"/>
+      <c r="AF75" s="1" t="n"/>
+      <c r="AG75" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="12" r="76">
+      <c r="A76" s="1" t="n"/>
+      <c r="AE76" s="1" t="n"/>
+      <c r="AF76" s="1" t="n"/>
+      <c r="AG76" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="12" r="77">
+      <c r="A77" s="1" t="n"/>
+      <c r="B77" s="1" t="n"/>
+      <c r="C77" s="1" t="n"/>
+      <c r="D77" s="1" t="n"/>
+      <c r="E77" s="1" t="n"/>
+      <c r="F77" s="1" t="n"/>
+      <c r="G77" s="1" t="n"/>
+      <c r="H77" s="1" t="n"/>
+      <c r="I77" s="1" t="n"/>
+      <c r="J77" s="1" t="n"/>
+      <c r="K77" s="1" t="n"/>
+      <c r="L77" s="1" t="n"/>
+      <c r="M77" s="1" t="n"/>
+      <c r="N77" s="1" t="n"/>
+      <c r="O77" s="1" t="n"/>
+      <c r="P77" s="1" t="n"/>
+      <c r="Q77" s="1" t="n"/>
+      <c r="R77" s="1" t="n"/>
+      <c r="S77" s="1" t="n"/>
+      <c r="T77" s="1" t="n"/>
+      <c r="U77" s="1" t="n"/>
+      <c r="V77" s="1" t="n"/>
+      <c r="W77" s="1" t="n"/>
+      <c r="X77" s="1" t="n"/>
+      <c r="Y77" s="1" t="n"/>
+      <c r="Z77" s="1" t="n"/>
+      <c r="AA77" s="1" t="n"/>
+      <c r="AB77" s="1" t="n"/>
+      <c r="AC77" s="1" t="n"/>
+      <c r="AD77" s="1" t="n"/>
+      <c r="AE77" s="1" t="n"/>
+      <c r="AF77" s="1" t="n"/>
+      <c r="AG77" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="12" r="78">
+      <c r="A78" s="1" t="n"/>
+      <c r="B78" s="1" t="n"/>
+      <c r="C78" s="1" t="n"/>
+      <c r="D78" s="1" t="n"/>
+      <c r="E78" s="1" t="n"/>
+      <c r="F78" s="1" t="n"/>
+      <c r="G78" s="1" t="n"/>
+      <c r="H78" s="1" t="n"/>
+      <c r="I78" s="1" t="n"/>
+      <c r="J78" s="1" t="n"/>
+      <c r="K78" s="1" t="n"/>
+      <c r="L78" s="1" t="n"/>
+      <c r="M78" s="1" t="n"/>
+      <c r="N78" s="1" t="n"/>
+      <c r="O78" s="1" t="n"/>
+      <c r="P78" s="1" t="n"/>
+      <c r="Q78" s="1" t="n"/>
+      <c r="R78" s="1" t="n"/>
+      <c r="S78" s="1" t="n"/>
+      <c r="T78" s="1" t="n"/>
+      <c r="U78" s="1" t="n"/>
+      <c r="V78" s="1" t="n"/>
+      <c r="W78" s="1" t="n"/>
+      <c r="X78" s="1" t="n"/>
+      <c r="Y78" s="1" t="n"/>
+      <c r="Z78" s="1" t="n"/>
+      <c r="AA78" s="1" t="n"/>
+      <c r="AB78" s="1" t="n"/>
+      <c r="AC78" s="1" t="n"/>
+      <c r="AD78" s="1" t="n"/>
+      <c r="AE78" s="1" t="n"/>
+      <c r="AF78" s="1" t="n"/>
+      <c r="AG78" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="11" r="79">
+      <c r="A79" s="1" t="n"/>
+      <c r="AE79" s="1" t="n"/>
+      <c r="AF79" s="1" t="n"/>
+      <c r="AG79" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="73" r="80">
+      <c r="A80" s="1" t="n"/>
+      <c r="AE80" s="1" t="n"/>
+      <c r="AF80" s="1" t="n"/>
+      <c r="AG80" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="9" r="81">
+      <c r="A81" s="1" t="n"/>
+      <c r="AE81" s="1" t="n"/>
+      <c r="AF81" s="1" t="n"/>
+      <c r="AG81" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="12" r="82">
+      <c r="A82" s="1" t="n"/>
+      <c r="AE82" s="1" t="n"/>
+      <c r="AF82" s="1" t="n"/>
+      <c r="AG82" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="12" r="83">
+      <c r="A83" s="1" t="n"/>
+      <c r="B83" s="1" t="n"/>
+      <c r="C83" s="1" t="n"/>
+      <c r="D83" s="1" t="n"/>
+      <c r="E83" s="1" t="n"/>
+      <c r="F83" s="1" t="n"/>
+      <c r="G83" s="1" t="n"/>
+      <c r="H83" s="1" t="n"/>
+      <c r="I83" s="1" t="n"/>
+      <c r="J83" s="1" t="n"/>
+      <c r="K83" s="1" t="n"/>
+      <c r="L83" s="1" t="n"/>
+      <c r="M83" s="1" t="n"/>
+      <c r="N83" s="1" t="n"/>
+      <c r="O83" s="1" t="n"/>
+      <c r="P83" s="1" t="n"/>
+      <c r="Q83" s="1" t="n"/>
+      <c r="R83" s="1" t="n"/>
+      <c r="S83" s="1" t="n"/>
+      <c r="T83" s="1" t="n"/>
+      <c r="U83" s="1" t="n"/>
+      <c r="V83" s="1" t="n"/>
+      <c r="W83" s="1" t="n"/>
+      <c r="X83" s="1" t="n"/>
+      <c r="Y83" s="1" t="n"/>
+      <c r="Z83" s="1" t="n"/>
+      <c r="AA83" s="1" t="n"/>
+      <c r="AB83" s="1" t="n"/>
+      <c r="AC83" s="1" t="n"/>
+      <c r="AD83" s="1" t="n"/>
+      <c r="AE83" s="1" t="n"/>
+      <c r="AF83" s="1" t="n"/>
+      <c r="AG83" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="12" r="84">
+      <c r="A84" s="1" t="n"/>
+      <c r="B84" s="1" t="n"/>
+      <c r="C84" s="1" t="n"/>
+      <c r="D84" s="1" t="n"/>
+      <c r="E84" s="1" t="n"/>
+      <c r="F84" s="1" t="n"/>
+      <c r="G84" s="1" t="n"/>
+      <c r="H84" s="1" t="n"/>
+      <c r="I84" s="1" t="n"/>
+      <c r="J84" s="1" t="n"/>
+      <c r="K84" s="1" t="n"/>
+      <c r="L84" s="1" t="n"/>
+      <c r="M84" s="1" t="n"/>
+      <c r="N84" s="1" t="n"/>
+      <c r="O84" s="1" t="n"/>
+      <c r="P84" s="1" t="n"/>
+      <c r="Q84" s="1" t="n"/>
+      <c r="R84" s="1" t="n"/>
+      <c r="S84" s="1" t="n"/>
+      <c r="T84" s="1" t="n"/>
+      <c r="U84" s="1" t="n"/>
+      <c r="V84" s="1" t="n"/>
+      <c r="W84" s="1" t="n"/>
+      <c r="X84" s="1" t="n"/>
+      <c r="Y84" s="1" t="n"/>
+      <c r="Z84" s="1" t="n"/>
+      <c r="AA84" s="1" t="n"/>
+      <c r="AB84" s="1" t="n"/>
+      <c r="AC84" s="1" t="n"/>
+      <c r="AD84" s="1" t="n"/>
+      <c r="AE84" s="1" t="n"/>
+      <c r="AF84" s="1" t="n"/>
+      <c r="AG84" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="11" r="85">
+      <c r="A85" s="1" t="n"/>
+      <c r="AE85" s="1" t="n"/>
+      <c r="AF85" s="1" t="n"/>
+      <c r="AG85" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="73" r="86">
+      <c r="A86" s="1" t="n"/>
+      <c r="AE86" s="1" t="n"/>
+      <c r="AF86" s="1" t="n"/>
+      <c r="AG86" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="9" r="87">
+      <c r="A87" s="1" t="n"/>
+      <c r="AE87" s="1" t="n"/>
+      <c r="AF87" s="1" t="n"/>
+      <c r="AG87" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="12" r="88">
+      <c r="A88" s="1" t="n"/>
+      <c r="AE88" s="1" t="n"/>
+      <c r="AF88" s="1" t="n"/>
+      <c r="AG88" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="12" r="89">
+      <c r="A89" s="1" t="n"/>
+      <c r="B89" s="1" t="n"/>
+      <c r="C89" s="1" t="n"/>
+      <c r="D89" s="1" t="n"/>
+      <c r="E89" s="1" t="n"/>
+      <c r="F89" s="1" t="n"/>
+      <c r="G89" s="1" t="n"/>
+      <c r="H89" s="1" t="n"/>
+      <c r="I89" s="1" t="n"/>
+      <c r="J89" s="1" t="n"/>
+      <c r="K89" s="1" t="n"/>
+      <c r="L89" s="1" t="n"/>
+      <c r="M89" s="1" t="n"/>
+      <c r="N89" s="1" t="n"/>
+      <c r="O89" s="1" t="n"/>
+      <c r="P89" s="1" t="n"/>
+      <c r="Q89" s="1" t="n"/>
+      <c r="R89" s="1" t="n"/>
+      <c r="S89" s="1" t="n"/>
+      <c r="T89" s="1" t="n"/>
+      <c r="U89" s="1" t="n"/>
+      <c r="V89" s="1" t="n"/>
+      <c r="W89" s="1" t="n"/>
+      <c r="X89" s="1" t="n"/>
+      <c r="Y89" s="1" t="n"/>
+      <c r="Z89" s="1" t="n"/>
+      <c r="AA89" s="1" t="n"/>
+      <c r="AB89" s="1" t="n"/>
+      <c r="AC89" s="1" t="n"/>
+      <c r="AD89" s="1" t="n"/>
+      <c r="AE89" s="1" t="n"/>
+      <c r="AF89" s="1" t="n"/>
+      <c r="AG89" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="12" r="90">
+      <c r="A90" s="1" t="n"/>
+      <c r="B90" s="1" t="n"/>
+      <c r="C90" s="1" t="n"/>
+      <c r="D90" s="1" t="n"/>
+      <c r="E90" s="1" t="n"/>
+      <c r="F90" s="1" t="n"/>
+      <c r="G90" s="1" t="n"/>
+      <c r="H90" s="1" t="n"/>
+      <c r="I90" s="1" t="n"/>
+      <c r="J90" s="1" t="n"/>
+      <c r="K90" s="1" t="n"/>
+      <c r="L90" s="1" t="n"/>
+      <c r="M90" s="1" t="n"/>
+      <c r="N90" s="1" t="n"/>
+      <c r="O90" s="1" t="n"/>
+      <c r="P90" s="1" t="n"/>
+      <c r="Q90" s="1" t="n"/>
+      <c r="R90" s="1" t="n"/>
+      <c r="S90" s="1" t="n"/>
+      <c r="T90" s="1" t="n"/>
+      <c r="U90" s="1" t="n"/>
+      <c r="V90" s="1" t="n"/>
+      <c r="W90" s="1" t="n"/>
+      <c r="X90" s="1" t="n"/>
+      <c r="Y90" s="1" t="n"/>
+      <c r="Z90" s="1" t="n"/>
+      <c r="AA90" s="1" t="n"/>
+      <c r="AB90" s="1" t="n"/>
+      <c r="AC90" s="1" t="n"/>
+      <c r="AD90" s="1" t="n"/>
+      <c r="AE90" s="1" t="n"/>
+      <c r="AF90" s="1" t="n"/>
+      <c r="AG90" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="11" r="91">
+      <c r="A91" s="1" t="n"/>
+      <c r="AE91" s="1" t="n"/>
+      <c r="AF91" s="1" t="n"/>
+      <c r="AG91" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="73" r="92">
+      <c r="A92" s="1" t="n"/>
+      <c r="AE92" s="1" t="n"/>
+      <c r="AF92" s="1" t="n"/>
+      <c r="AG92" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="9" r="93">
+      <c r="A93" s="1" t="n"/>
+      <c r="AE93" s="1" t="n"/>
+      <c r="AF93" s="1" t="n"/>
+      <c r="AG93" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="12" r="94">
+      <c r="A94" s="1" t="n"/>
+      <c r="AE94" s="1" t="n"/>
+      <c r="AF94" s="1" t="n"/>
+      <c r="AG94" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="12" r="95">
+      <c r="A95" s="1" t="n"/>
+      <c r="B95" s="1" t="n"/>
+      <c r="C95" s="1" t="n"/>
+      <c r="D95" s="1" t="n"/>
+      <c r="E95" s="1" t="n"/>
+      <c r="F95" s="1" t="n"/>
+      <c r="G95" s="1" t="n"/>
+      <c r="H95" s="1" t="n"/>
+      <c r="I95" s="1" t="n"/>
+      <c r="J95" s="1" t="n"/>
+      <c r="K95" s="1" t="n"/>
+      <c r="L95" s="1" t="n"/>
+      <c r="M95" s="1" t="n"/>
+      <c r="N95" s="1" t="n"/>
+      <c r="O95" s="1" t="n"/>
+      <c r="P95" s="1" t="n"/>
+      <c r="Q95" s="1" t="n"/>
+      <c r="R95" s="1" t="n"/>
+      <c r="S95" s="1" t="n"/>
+      <c r="T95" s="1" t="n"/>
+      <c r="U95" s="1" t="n"/>
+      <c r="V95" s="1" t="n"/>
+      <c r="W95" s="1" t="n"/>
+      <c r="X95" s="1" t="n"/>
+      <c r="Y95" s="1" t="n"/>
+      <c r="Z95" s="1" t="n"/>
+      <c r="AA95" s="1" t="n"/>
+      <c r="AB95" s="1" t="n"/>
+      <c r="AC95" s="1" t="n"/>
+      <c r="AD95" s="1" t="n"/>
+      <c r="AE95" s="1" t="n"/>
+      <c r="AF95" s="1" t="n"/>
+      <c r="AG95" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="12" r="96">
+      <c r="A96" s="1" t="n"/>
+      <c r="B96" s="1" t="n"/>
+      <c r="C96" s="1" t="n"/>
+      <c r="D96" s="1" t="n"/>
+      <c r="E96" s="1" t="n"/>
+      <c r="F96" s="1" t="n"/>
+      <c r="G96" s="1" t="n"/>
+      <c r="H96" s="1" t="n"/>
+      <c r="I96" s="1" t="n"/>
+      <c r="J96" s="1" t="n"/>
+      <c r="K96" s="1" t="n"/>
+      <c r="L96" s="1" t="n"/>
+      <c r="M96" s="1" t="n"/>
+      <c r="N96" s="1" t="n"/>
+      <c r="O96" s="1" t="n"/>
+      <c r="P96" s="1" t="n"/>
+      <c r="Q96" s="1" t="n"/>
+      <c r="R96" s="1" t="n"/>
+      <c r="S96" s="1" t="n"/>
+      <c r="T96" s="1" t="n"/>
+      <c r="U96" s="1" t="n"/>
+      <c r="V96" s="1" t="n"/>
+      <c r="W96" s="1" t="n"/>
+      <c r="X96" s="1" t="n"/>
+      <c r="Y96" s="1" t="n"/>
+      <c r="Z96" s="1" t="n"/>
+      <c r="AA96" s="1" t="n"/>
+      <c r="AB96" s="1" t="n"/>
+      <c r="AC96" s="1" t="n"/>
+      <c r="AD96" s="1" t="n"/>
+      <c r="AE96" s="1" t="n"/>
+      <c r="AF96" s="1" t="n"/>
+      <c r="AG96" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="11" r="97">
+      <c r="A97" s="1" t="n"/>
+      <c r="AE97" s="1" t="n"/>
+      <c r="AF97" s="1" t="n"/>
+      <c r="AG97" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="73" r="98">
+      <c r="A98" s="1" t="n"/>
+      <c r="AE98" s="1" t="n"/>
+      <c r="AF98" s="1" t="n"/>
+      <c r="AG98" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="9" r="99">
+      <c r="A99" s="1" t="n"/>
+      <c r="AE99" s="1" t="n"/>
+      <c r="AF99" s="1" t="n"/>
+      <c r="AG99" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="12" r="100">
+      <c r="A100" s="1" t="n"/>
+      <c r="AE100" s="1" t="n"/>
+      <c r="AF100" s="1" t="n"/>
+      <c r="AG100" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="12" r="101">
+      <c r="A101" s="1" t="n"/>
+      <c r="B101" s="1" t="n"/>
+      <c r="C101" s="1" t="n"/>
+      <c r="D101" s="1" t="n"/>
+      <c r="E101" s="1" t="n"/>
+      <c r="F101" s="1" t="n"/>
+      <c r="G101" s="1" t="n"/>
+      <c r="H101" s="1" t="n"/>
+      <c r="I101" s="1" t="n"/>
+      <c r="J101" s="1" t="n"/>
+      <c r="K101" s="1" t="n"/>
+      <c r="L101" s="1" t="n"/>
+      <c r="M101" s="1" t="n"/>
+      <c r="N101" s="1" t="n"/>
+      <c r="O101" s="1" t="n"/>
+      <c r="P101" s="1" t="n"/>
+      <c r="Q101" s="1" t="n"/>
+      <c r="R101" s="1" t="n"/>
+      <c r="S101" s="1" t="n"/>
+      <c r="T101" s="1" t="n"/>
+      <c r="U101" s="1" t="n"/>
+      <c r="V101" s="1" t="n"/>
+      <c r="W101" s="1" t="n"/>
+      <c r="X101" s="1" t="n"/>
+      <c r="Y101" s="1" t="n"/>
+      <c r="Z101" s="1" t="n"/>
+      <c r="AA101" s="1" t="n"/>
+      <c r="AB101" s="1" t="n"/>
+      <c r="AC101" s="1" t="n"/>
+      <c r="AD101" s="1" t="n"/>
+      <c r="AE101" s="1" t="n"/>
+      <c r="AF101" s="1" t="n"/>
+      <c r="AG101" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="12" r="102">
+      <c r="A102" s="1" t="n"/>
+      <c r="B102" s="1" t="n"/>
+      <c r="C102" s="1" t="n"/>
+      <c r="D102" s="1" t="n"/>
+      <c r="E102" s="1" t="n"/>
+      <c r="F102" s="1" t="n"/>
+      <c r="G102" s="1" t="n"/>
+      <c r="H102" s="1" t="n"/>
+      <c r="I102" s="1" t="n"/>
+      <c r="J102" s="1" t="n"/>
+      <c r="K102" s="1" t="n"/>
+      <c r="L102" s="1" t="n"/>
+      <c r="M102" s="1" t="n"/>
+      <c r="N102" s="1" t="n"/>
+      <c r="O102" s="1" t="n"/>
+      <c r="P102" s="1" t="n"/>
+      <c r="Q102" s="1" t="n"/>
+      <c r="R102" s="1" t="n"/>
+      <c r="S102" s="1" t="n"/>
+      <c r="T102" s="1" t="n"/>
+      <c r="U102" s="1" t="n"/>
+      <c r="V102" s="1" t="n"/>
+      <c r="W102" s="1" t="n"/>
+      <c r="X102" s="1" t="n"/>
+      <c r="Y102" s="1" t="n"/>
+      <c r="Z102" s="1" t="n"/>
+      <c r="AA102" s="1" t="n"/>
+      <c r="AB102" s="1" t="n"/>
+      <c r="AC102" s="1" t="n"/>
+      <c r="AD102" s="1" t="n"/>
+      <c r="AE102" s="1" t="n"/>
+      <c r="AF102" s="1" t="n"/>
+      <c r="AG102" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="11" r="103">
+      <c r="A103" s="1" t="n"/>
+      <c r="AE103" s="1" t="n"/>
+      <c r="AF103" s="1" t="n"/>
+      <c r="AG103" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="73" r="104">
+      <c r="A104" s="1" t="n"/>
+      <c r="AE104" s="1" t="n"/>
+      <c r="AF104" s="1" t="n"/>
+      <c r="AG104" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="9" r="105">
+      <c r="A105" s="1" t="n"/>
+      <c r="AE105" s="1" t="n"/>
+      <c r="AF105" s="1" t="n"/>
+      <c r="AG105" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="12" r="106">
+      <c r="A106" s="1" t="n"/>
+      <c r="AE106" s="1" t="n"/>
+      <c r="AF106" s="1" t="n"/>
+      <c r="AG106" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="12" r="107">
+      <c r="A107" s="1" t="n"/>
+      <c r="B107" s="1" t="n"/>
+      <c r="C107" s="1" t="n"/>
+      <c r="D107" s="1" t="n"/>
+      <c r="E107" s="1" t="n"/>
+      <c r="F107" s="1" t="n"/>
+      <c r="G107" s="1" t="n"/>
+      <c r="H107" s="1" t="n"/>
+      <c r="I107" s="1" t="n"/>
+      <c r="J107" s="1" t="n"/>
+      <c r="K107" s="1" t="n"/>
+      <c r="L107" s="1" t="n"/>
+      <c r="M107" s="1" t="n"/>
+      <c r="N107" s="1" t="n"/>
+      <c r="O107" s="1" t="n"/>
+      <c r="P107" s="1" t="n"/>
+      <c r="Q107" s="1" t="n"/>
+      <c r="R107" s="1" t="n"/>
+      <c r="S107" s="1" t="n"/>
+      <c r="T107" s="1" t="n"/>
+      <c r="U107" s="1" t="n"/>
+      <c r="V107" s="1" t="n"/>
+      <c r="W107" s="1" t="n"/>
+      <c r="X107" s="1" t="n"/>
+      <c r="Y107" s="1" t="n"/>
+      <c r="Z107" s="1" t="n"/>
+      <c r="AA107" s="1" t="n"/>
+      <c r="AB107" s="1" t="n"/>
+      <c r="AC107" s="1" t="n"/>
+      <c r="AD107" s="1" t="n"/>
+      <c r="AE107" s="1" t="n"/>
+      <c r="AF107" s="1" t="n"/>
+      <c r="AG107" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="12" r="108">
+      <c r="A108" s="1" t="n"/>
+      <c r="B108" s="1" t="n"/>
+      <c r="C108" s="1" t="n"/>
+      <c r="D108" s="1" t="n"/>
+      <c r="E108" s="1" t="n"/>
+      <c r="F108" s="1" t="n"/>
+      <c r="G108" s="1" t="n"/>
+      <c r="H108" s="1" t="n"/>
+      <c r="I108" s="1" t="n"/>
+      <c r="J108" s="1" t="n"/>
+      <c r="K108" s="1" t="n"/>
+      <c r="L108" s="1" t="n"/>
+      <c r="M108" s="1" t="n"/>
+      <c r="N108" s="1" t="n"/>
+      <c r="O108" s="1" t="n"/>
+      <c r="P108" s="1" t="n"/>
+      <c r="Q108" s="1" t="n"/>
+      <c r="R108" s="1" t="n"/>
+      <c r="S108" s="1" t="n"/>
+      <c r="T108" s="1" t="n"/>
+      <c r="U108" s="1" t="n"/>
+      <c r="V108" s="1" t="n"/>
+      <c r="W108" s="1" t="n"/>
+      <c r="X108" s="1" t="n"/>
+      <c r="Y108" s="1" t="n"/>
+      <c r="Z108" s="1" t="n"/>
+      <c r="AA108" s="1" t="n"/>
+      <c r="AB108" s="1" t="n"/>
+      <c r="AC108" s="1" t="n"/>
+      <c r="AD108" s="1" t="n"/>
+      <c r="AE108" s="1" t="n"/>
+      <c r="AF108" s="1" t="n"/>
+      <c r="AG108" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="11" r="109">
+      <c r="A109" s="1" t="n"/>
+      <c r="AE109" s="1" t="n"/>
+      <c r="AF109" s="1" t="n"/>
+      <c r="AG109" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="73" r="110">
+      <c r="A110" s="1" t="n"/>
+      <c r="AE110" s="1" t="n"/>
+      <c r="AF110" s="1" t="n"/>
+      <c r="AG110" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="9" r="111">
+      <c r="A111" s="1" t="n"/>
+      <c r="AE111" s="1" t="n"/>
+      <c r="AF111" s="1" t="n"/>
+      <c r="AG111" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="12" r="112">
+      <c r="A112" s="1" t="n"/>
+      <c r="AE112" s="1" t="n"/>
+      <c r="AF112" s="1" t="n"/>
+      <c r="AG112" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="12" r="113">
+      <c r="A113" s="1" t="n"/>
+      <c r="B113" s="1" t="n"/>
+      <c r="C113" s="1" t="n"/>
+      <c r="D113" s="1" t="n"/>
+      <c r="E113" s="1" t="n"/>
+      <c r="F113" s="1" t="n"/>
+      <c r="G113" s="1" t="n"/>
+      <c r="H113" s="1" t="n"/>
+      <c r="I113" s="1" t="n"/>
+      <c r="J113" s="1" t="n"/>
+      <c r="K113" s="1" t="n"/>
+      <c r="L113" s="1" t="n"/>
+      <c r="M113" s="1" t="n"/>
+      <c r="N113" s="1" t="n"/>
+      <c r="O113" s="1" t="n"/>
+      <c r="P113" s="1" t="n"/>
+      <c r="Q113" s="1" t="n"/>
+      <c r="R113" s="1" t="n"/>
+      <c r="S113" s="1" t="n"/>
+      <c r="T113" s="1" t="n"/>
+      <c r="U113" s="1" t="n"/>
+      <c r="V113" s="1" t="n"/>
+      <c r="W113" s="1" t="n"/>
+      <c r="X113" s="1" t="n"/>
+      <c r="Y113" s="1" t="n"/>
+      <c r="Z113" s="1" t="n"/>
+      <c r="AA113" s="1" t="n"/>
+      <c r="AB113" s="1" t="n"/>
+      <c r="AC113" s="1" t="n"/>
+      <c r="AD113" s="1" t="n"/>
+      <c r="AE113" s="1" t="n"/>
+      <c r="AF113" s="1" t="n"/>
+      <c r="AG113" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="12" r="114">
+      <c r="A114" s="1" t="n"/>
+      <c r="B114" s="1" t="n"/>
+      <c r="C114" s="1" t="n"/>
+      <c r="D114" s="1" t="n"/>
+      <c r="E114" s="1" t="n"/>
+      <c r="F114" s="1" t="n"/>
+      <c r="G114" s="1" t="n"/>
+      <c r="H114" s="1" t="n"/>
+      <c r="I114" s="1" t="n"/>
+      <c r="J114" s="1" t="n"/>
+      <c r="K114" s="1" t="n"/>
+      <c r="L114" s="1" t="n"/>
+      <c r="M114" s="1" t="n"/>
+      <c r="N114" s="1" t="n"/>
+      <c r="O114" s="1" t="n"/>
+      <c r="P114" s="1" t="n"/>
+      <c r="Q114" s="1" t="n"/>
+      <c r="R114" s="1" t="n"/>
+      <c r="S114" s="1" t="n"/>
+      <c r="T114" s="1" t="n"/>
+      <c r="U114" s="1" t="n"/>
+      <c r="V114" s="1" t="n"/>
+      <c r="W114" s="1" t="n"/>
+      <c r="X114" s="1" t="n"/>
+      <c r="Y114" s="1" t="n"/>
+      <c r="Z114" s="1" t="n"/>
+      <c r="AA114" s="1" t="n"/>
+      <c r="AB114" s="1" t="n"/>
+      <c r="AC114" s="1" t="n"/>
+      <c r="AD114" s="1" t="n"/>
+      <c r="AE114" s="1" t="n"/>
+      <c r="AF114" s="1" t="n"/>
+      <c r="AG114" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="11" r="115">
+      <c r="A115" s="1" t="n"/>
+      <c r="AE115" s="1" t="n"/>
+      <c r="AF115" s="1" t="n"/>
+      <c r="AG115" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="73" r="116">
+      <c r="A116" s="1" t="n"/>
+      <c r="AE116" s="1" t="n"/>
+      <c r="AF116" s="1" t="n"/>
+      <c r="AG116" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="9" r="117">
+      <c r="A117" s="1" t="n"/>
+      <c r="AE117" s="1" t="n"/>
+      <c r="AF117" s="1" t="n"/>
+      <c r="AG117" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="12" r="118">
+      <c r="A118" s="1" t="n"/>
+      <c r="AE118" s="1" t="n"/>
+      <c r="AF118" s="1" t="n"/>
+      <c r="AG118" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="12" r="119">
+      <c r="A119" s="1" t="n"/>
+      <c r="B119" s="1" t="n"/>
+      <c r="C119" s="1" t="n"/>
+      <c r="D119" s="1" t="n"/>
+      <c r="E119" s="1" t="n"/>
+      <c r="F119" s="1" t="n"/>
+      <c r="G119" s="1" t="n"/>
+      <c r="H119" s="1" t="n"/>
+      <c r="I119" s="1" t="n"/>
+      <c r="J119" s="1" t="n"/>
+      <c r="K119" s="1" t="n"/>
+      <c r="L119" s="1" t="n"/>
+      <c r="M119" s="1" t="n"/>
+      <c r="N119" s="1" t="n"/>
+      <c r="O119" s="1" t="n"/>
+      <c r="P119" s="1" t="n"/>
+      <c r="Q119" s="1" t="n"/>
+      <c r="R119" s="1" t="n"/>
+      <c r="S119" s="1" t="n"/>
+      <c r="T119" s="1" t="n"/>
+      <c r="U119" s="1" t="n"/>
+      <c r="V119" s="1" t="n"/>
+      <c r="W119" s="1" t="n"/>
+      <c r="X119" s="1" t="n"/>
+      <c r="Y119" s="1" t="n"/>
+      <c r="Z119" s="1" t="n"/>
+      <c r="AA119" s="1" t="n"/>
+      <c r="AB119" s="1" t="n"/>
+      <c r="AC119" s="1" t="n"/>
+      <c r="AD119" s="1" t="n"/>
+      <c r="AE119" s="1" t="n"/>
+      <c r="AF119" s="1" t="n"/>
+      <c r="AG119" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="12" r="120">
+      <c r="A120" s="1" t="n"/>
+      <c r="B120" s="1" t="n"/>
+      <c r="C120" s="1" t="n"/>
+      <c r="D120" s="1" t="n"/>
+      <c r="E120" s="1" t="n"/>
+      <c r="F120" s="1" t="n"/>
+      <c r="G120" s="1" t="n"/>
+      <c r="H120" s="1" t="n"/>
+      <c r="I120" s="1" t="n"/>
+      <c r="J120" s="1" t="n"/>
+      <c r="K120" s="1" t="n"/>
+      <c r="L120" s="1" t="n"/>
+      <c r="M120" s="1" t="n"/>
+      <c r="N120" s="1" t="n"/>
+      <c r="O120" s="1" t="n"/>
+      <c r="P120" s="1" t="n"/>
+      <c r="Q120" s="1" t="n"/>
+      <c r="R120" s="1" t="n"/>
+      <c r="S120" s="1" t="n"/>
+      <c r="T120" s="1" t="n"/>
+      <c r="U120" s="1" t="n"/>
+      <c r="V120" s="1" t="n"/>
+      <c r="W120" s="1" t="n"/>
+      <c r="X120" s="1" t="n"/>
+      <c r="Y120" s="1" t="n"/>
+      <c r="Z120" s="1" t="n"/>
+      <c r="AA120" s="1" t="n"/>
+      <c r="AB120" s="1" t="n"/>
+      <c r="AC120" s="1" t="n"/>
+      <c r="AD120" s="1" t="n"/>
+      <c r="AE120" s="1" t="n"/>
+      <c r="AF120" s="1" t="n"/>
+      <c r="AG120" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="11" r="121">
+      <c r="A121" s="1" t="n"/>
+      <c r="AE121" s="1" t="n"/>
+      <c r="AF121" s="1" t="n"/>
+      <c r="AG121" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="73" r="122">
+      <c r="A122" s="1" t="n"/>
+      <c r="AE122" s="1" t="n"/>
+      <c r="AF122" s="1" t="n"/>
+      <c r="AG122" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="9" r="123">
+      <c r="A123" s="1" t="n"/>
+      <c r="AE123" s="1" t="n"/>
+      <c r="AF123" s="1" t="n"/>
+      <c r="AG123" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="12" r="124">
+      <c r="A124" s="1" t="n"/>
+      <c r="AE124" s="1" t="n"/>
+      <c r="AF124" s="1" t="n"/>
+      <c r="AG124" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="12" r="125">
+      <c r="A125" s="1" t="n"/>
+      <c r="B125" s="1" t="n"/>
+      <c r="C125" s="1" t="n"/>
+      <c r="D125" s="1" t="n"/>
+      <c r="E125" s="1" t="n"/>
+      <c r="F125" s="1" t="n"/>
+      <c r="G125" s="1" t="n"/>
+      <c r="H125" s="1" t="n"/>
+      <c r="I125" s="1" t="n"/>
+      <c r="J125" s="1" t="n"/>
+      <c r="K125" s="1" t="n"/>
+      <c r="L125" s="1" t="n"/>
+      <c r="M125" s="1" t="n"/>
+      <c r="N125" s="1" t="n"/>
+      <c r="O125" s="1" t="n"/>
+      <c r="P125" s="1" t="n"/>
+      <c r="Q125" s="1" t="n"/>
+      <c r="R125" s="1" t="n"/>
+      <c r="S125" s="1" t="n"/>
+      <c r="T125" s="1" t="n"/>
+      <c r="U125" s="1" t="n"/>
+      <c r="V125" s="1" t="n"/>
+      <c r="W125" s="1" t="n"/>
+      <c r="X125" s="1" t="n"/>
+      <c r="Y125" s="1" t="n"/>
+      <c r="Z125" s="1" t="n"/>
+      <c r="AA125" s="1" t="n"/>
+      <c r="AB125" s="1" t="n"/>
+      <c r="AC125" s="1" t="n"/>
+      <c r="AD125" s="1" t="n"/>
+      <c r="AE125" s="1" t="n"/>
+      <c r="AF125" s="1" t="n"/>
+      <c r="AG125" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="12" r="126">
+      <c r="A126" s="1" t="n"/>
+      <c r="B126" s="1" t="n"/>
+      <c r="C126" s="1" t="n"/>
+      <c r="D126" s="1" t="n"/>
+      <c r="E126" s="1" t="n"/>
+      <c r="F126" s="1" t="n"/>
+      <c r="G126" s="1" t="n"/>
+      <c r="H126" s="1" t="n"/>
+      <c r="I126" s="1" t="n"/>
+      <c r="J126" s="1" t="n"/>
+      <c r="K126" s="1" t="n"/>
+      <c r="L126" s="1" t="n"/>
+      <c r="M126" s="1" t="n"/>
+      <c r="N126" s="1" t="n"/>
+      <c r="O126" s="1" t="n"/>
+      <c r="P126" s="1" t="n"/>
+      <c r="Q126" s="1" t="n"/>
+      <c r="R126" s="1" t="n"/>
+      <c r="S126" s="1" t="n"/>
+      <c r="T126" s="1" t="n"/>
+      <c r="U126" s="1" t="n"/>
+      <c r="V126" s="1" t="n"/>
+      <c r="W126" s="1" t="n"/>
+      <c r="X126" s="1" t="n"/>
+      <c r="Y126" s="1" t="n"/>
+      <c r="Z126" s="1" t="n"/>
+      <c r="AA126" s="1" t="n"/>
+      <c r="AB126" s="1" t="n"/>
+      <c r="AC126" s="1" t="n"/>
+      <c r="AD126" s="1" t="n"/>
+      <c r="AE126" s="1" t="n"/>
+      <c r="AF126" s="1" t="n"/>
+      <c r="AG126" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="11" r="127">
+      <c r="A127" s="1" t="n"/>
+      <c r="AE127" s="1" t="n"/>
+      <c r="AF127" s="1" t="n"/>
+      <c r="AG127" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="73" r="128">
+      <c r="A128" s="1" t="n"/>
+      <c r="AE128" s="1" t="n"/>
+      <c r="AF128" s="1" t="n"/>
+      <c r="AG128" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="9" r="129">
+      <c r="A129" s="1" t="n"/>
+      <c r="AE129" s="1" t="n"/>
+      <c r="AF129" s="1" t="n"/>
+      <c r="AG129" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="12" r="130">
+      <c r="A130" s="1" t="n"/>
+      <c r="AE130" s="1" t="n"/>
+      <c r="AF130" s="1" t="n"/>
+      <c r="AG130" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="12" r="131">
+      <c r="A131" s="1" t="n"/>
+      <c r="B131" s="1" t="n"/>
+      <c r="C131" s="1" t="n"/>
+      <c r="D131" s="1" t="n"/>
+      <c r="E131" s="1" t="n"/>
+      <c r="F131" s="1" t="n"/>
+      <c r="G131" s="1" t="n"/>
+      <c r="H131" s="1" t="n"/>
+      <c r="I131" s="1" t="n"/>
+      <c r="J131" s="1" t="n"/>
+      <c r="K131" s="1" t="n"/>
+      <c r="L131" s="1" t="n"/>
+      <c r="M131" s="1" t="n"/>
+      <c r="N131" s="1" t="n"/>
+      <c r="O131" s="1" t="n"/>
+      <c r="P131" s="1" t="n"/>
+      <c r="Q131" s="1" t="n"/>
+      <c r="R131" s="1" t="n"/>
+      <c r="S131" s="1" t="n"/>
+      <c r="T131" s="1" t="n"/>
+      <c r="U131" s="1" t="n"/>
+      <c r="V131" s="1" t="n"/>
+      <c r="W131" s="1" t="n"/>
+      <c r="X131" s="1" t="n"/>
+      <c r="Y131" s="1" t="n"/>
+      <c r="Z131" s="1" t="n"/>
+      <c r="AA131" s="1" t="n"/>
+      <c r="AB131" s="1" t="n"/>
+      <c r="AC131" s="1" t="n"/>
+      <c r="AD131" s="1" t="n"/>
+      <c r="AE131" s="1" t="n"/>
+      <c r="AF131" s="1" t="n"/>
+      <c r="AG131" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="12" r="132">
+      <c r="A132" s="1" t="n"/>
+      <c r="B132" s="1" t="n"/>
+      <c r="C132" s="1" t="n"/>
+      <c r="D132" s="1" t="n"/>
+      <c r="E132" s="1" t="n"/>
+      <c r="F132" s="1" t="n"/>
+      <c r="G132" s="1" t="n"/>
+      <c r="H132" s="1" t="n"/>
+      <c r="I132" s="1" t="n"/>
+      <c r="J132" s="1" t="n"/>
+      <c r="K132" s="1" t="n"/>
+      <c r="L132" s="1" t="n"/>
+      <c r="M132" s="1" t="n"/>
+      <c r="N132" s="1" t="n"/>
+      <c r="O132" s="1" t="n"/>
+      <c r="P132" s="1" t="n"/>
+      <c r="Q132" s="1" t="n"/>
+      <c r="R132" s="1" t="n"/>
+      <c r="S132" s="1" t="n"/>
+      <c r="T132" s="1" t="n"/>
+      <c r="U132" s="1" t="n"/>
+      <c r="V132" s="1" t="n"/>
+      <c r="W132" s="1" t="n"/>
+      <c r="X132" s="1" t="n"/>
+      <c r="Y132" s="1" t="n"/>
+      <c r="Z132" s="1" t="n"/>
+      <c r="AA132" s="1" t="n"/>
+      <c r="AB132" s="1" t="n"/>
+      <c r="AC132" s="1" t="n"/>
+      <c r="AD132" s="1" t="n"/>
+      <c r="AE132" s="1" t="n"/>
+      <c r="AF132" s="1" t="n"/>
+      <c r="AG132" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="11" r="133">
+      <c r="A133" s="1" t="n"/>
+      <c r="AE133" s="1" t="n"/>
+      <c r="AF133" s="1" t="n"/>
+      <c r="AG133" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="73" r="134">
+      <c r="A134" s="1" t="n"/>
+      <c r="AE134" s="1" t="n"/>
+      <c r="AF134" s="1" t="n"/>
+      <c r="AG134" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="9" r="135">
+      <c r="A135" s="1" t="n"/>
+      <c r="AE135" s="1" t="n"/>
+      <c r="AF135" s="1" t="n"/>
+      <c r="AG135" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="12" r="136">
+      <c r="A136" s="1" t="n"/>
+      <c r="AE136" s="1" t="n"/>
+      <c r="AF136" s="1" t="n"/>
+      <c r="AG136" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="12" r="137">
+      <c r="A137" s="1" t="n"/>
+      <c r="B137" s="1" t="n"/>
+      <c r="C137" s="1" t="n"/>
+      <c r="D137" s="1" t="n"/>
+      <c r="E137" s="1" t="n"/>
+      <c r="F137" s="1" t="n"/>
+      <c r="G137" s="1" t="n"/>
+      <c r="H137" s="1" t="n"/>
+      <c r="I137" s="1" t="n"/>
+      <c r="J137" s="1" t="n"/>
+      <c r="K137" s="1" t="n"/>
+      <c r="L137" s="1" t="n"/>
+      <c r="M137" s="1" t="n"/>
+      <c r="N137" s="1" t="n"/>
+      <c r="O137" s="1" t="n"/>
+      <c r="P137" s="1" t="n"/>
+      <c r="Q137" s="1" t="n"/>
+      <c r="R137" s="1" t="n"/>
+      <c r="S137" s="1" t="n"/>
+      <c r="T137" s="1" t="n"/>
+      <c r="U137" s="1" t="n"/>
+      <c r="V137" s="1" t="n"/>
+      <c r="W137" s="1" t="n"/>
+      <c r="X137" s="1" t="n"/>
+      <c r="Y137" s="1" t="n"/>
+      <c r="Z137" s="1" t="n"/>
+      <c r="AA137" s="1" t="n"/>
+      <c r="AB137" s="1" t="n"/>
+      <c r="AC137" s="1" t="n"/>
+      <c r="AD137" s="1" t="n"/>
+      <c r="AE137" s="1" t="n"/>
+      <c r="AF137" s="1" t="n"/>
+      <c r="AG137" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="12" r="138">
+      <c r="A138" s="1" t="n"/>
+      <c r="B138" s="1" t="n"/>
+      <c r="C138" s="1" t="n"/>
+      <c r="D138" s="1" t="n"/>
+      <c r="E138" s="1" t="n"/>
+      <c r="F138" s="1" t="n"/>
+      <c r="G138" s="1" t="n"/>
+      <c r="H138" s="1" t="n"/>
+      <c r="I138" s="1" t="n"/>
+      <c r="J138" s="1" t="n"/>
+      <c r="K138" s="1" t="n"/>
+      <c r="L138" s="1" t="n"/>
+      <c r="M138" s="1" t="n"/>
+      <c r="N138" s="1" t="n"/>
+      <c r="O138" s="1" t="n"/>
+      <c r="P138" s="1" t="n"/>
+      <c r="Q138" s="1" t="n"/>
+      <c r="R138" s="1" t="n"/>
+      <c r="S138" s="1" t="n"/>
+      <c r="T138" s="1" t="n"/>
+      <c r="U138" s="1" t="n"/>
+      <c r="V138" s="1" t="n"/>
+      <c r="W138" s="1" t="n"/>
+      <c r="X138" s="1" t="n"/>
+      <c r="Y138" s="1" t="n"/>
+      <c r="Z138" s="1" t="n"/>
+      <c r="AA138" s="1" t="n"/>
+      <c r="AB138" s="1" t="n"/>
+      <c r="AC138" s="1" t="n"/>
+      <c r="AD138" s="1" t="n"/>
+      <c r="AE138" s="1" t="n"/>
+      <c r="AF138" s="1" t="n"/>
+      <c r="AG138" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="11" r="139">
+      <c r="A139" s="1" t="n"/>
+      <c r="AE139" s="1" t="n"/>
+      <c r="AF139" s="1" t="n"/>
+      <c r="AG139" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="73" r="140">
+      <c r="A140" s="1" t="n"/>
+      <c r="AE140" s="1" t="n"/>
+      <c r="AF140" s="1" t="n"/>
+      <c r="AG140" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="9" r="141">
+      <c r="A141" s="1" t="n"/>
+      <c r="AE141" s="1" t="n"/>
+      <c r="AF141" s="1" t="n"/>
+      <c r="AG141" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="12" r="142">
+      <c r="A142" s="1" t="n"/>
+      <c r="AE142" s="1" t="n"/>
+      <c r="AF142" s="1" t="n"/>
+      <c r="AG142" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="12" r="143">
+      <c r="A143" s="1" t="n"/>
+      <c r="B143" s="1" t="n"/>
+      <c r="C143" s="1" t="n"/>
+      <c r="D143" s="1" t="n"/>
+      <c r="E143" s="1" t="n"/>
+      <c r="F143" s="1" t="n"/>
+      <c r="G143" s="1" t="n"/>
+      <c r="H143" s="1" t="n"/>
+      <c r="I143" s="1" t="n"/>
+      <c r="J143" s="1" t="n"/>
+      <c r="K143" s="1" t="n"/>
+      <c r="L143" s="1" t="n"/>
+      <c r="M143" s="1" t="n"/>
+      <c r="N143" s="1" t="n"/>
+      <c r="O143" s="1" t="n"/>
+      <c r="P143" s="1" t="n"/>
+      <c r="Q143" s="1" t="n"/>
+      <c r="R143" s="1" t="n"/>
+      <c r="S143" s="1" t="n"/>
+      <c r="T143" s="1" t="n"/>
+      <c r="U143" s="1" t="n"/>
+      <c r="V143" s="1" t="n"/>
+      <c r="W143" s="1" t="n"/>
+      <c r="X143" s="1" t="n"/>
+      <c r="Y143" s="1" t="n"/>
+      <c r="Z143" s="1" t="n"/>
+      <c r="AA143" s="1" t="n"/>
+      <c r="AB143" s="1" t="n"/>
+      <c r="AC143" s="1" t="n"/>
+      <c r="AD143" s="1" t="n"/>
+      <c r="AE143" s="1" t="n"/>
+      <c r="AF143" s="1" t="n"/>
+      <c r="AG143" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="12" r="144">
+      <c r="A144" s="1" t="n"/>
+      <c r="B144" s="1" t="n"/>
+      <c r="C144" s="1" t="n"/>
+      <c r="D144" s="1" t="n"/>
+      <c r="E144" s="1" t="n"/>
+      <c r="F144" s="1" t="n"/>
+      <c r="G144" s="1" t="n"/>
+      <c r="H144" s="1" t="n"/>
+      <c r="I144" s="1" t="n"/>
+      <c r="J144" s="1" t="n"/>
+      <c r="K144" s="1" t="n"/>
+      <c r="L144" s="1" t="n"/>
+      <c r="M144" s="1" t="n"/>
+      <c r="N144" s="1" t="n"/>
+      <c r="O144" s="1" t="n"/>
+      <c r="P144" s="1" t="n"/>
+      <c r="Q144" s="1" t="n"/>
+      <c r="R144" s="1" t="n"/>
+      <c r="S144" s="1" t="n"/>
+      <c r="T144" s="1" t="n"/>
+      <c r="U144" s="1" t="n"/>
+      <c r="V144" s="1" t="n"/>
+      <c r="W144" s="1" t="n"/>
+      <c r="X144" s="1" t="n"/>
+      <c r="Y144" s="1" t="n"/>
+      <c r="Z144" s="1" t="n"/>
+      <c r="AA144" s="1" t="n"/>
+      <c r="AB144" s="1" t="n"/>
+      <c r="AC144" s="1" t="n"/>
+      <c r="AD144" s="1" t="n"/>
+      <c r="AE144" s="1" t="n"/>
+      <c r="AF144" s="1" t="n"/>
+      <c r="AG144" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="11" r="145">
+      <c r="A145" s="1" t="n"/>
+      <c r="AE145" s="1" t="n"/>
+      <c r="AF145" s="1" t="n"/>
+      <c r="AG145" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="73" r="146">
+      <c r="A146" s="1" t="n"/>
+      <c r="AE146" s="1" t="n"/>
+      <c r="AF146" s="1" t="n"/>
+      <c r="AG146" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="9" r="147">
+      <c r="A147" s="1" t="n"/>
+      <c r="AE147" s="1" t="n"/>
+      <c r="AF147" s="1" t="n"/>
+      <c r="AG147" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="12" r="148">
+      <c r="A148" s="1" t="n"/>
+      <c r="AE148" s="1" t="n"/>
+      <c r="AF148" s="1" t="n"/>
+      <c r="AG148" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="12" r="149">
+      <c r="A149" s="1" t="n"/>
+      <c r="B149" s="1" t="n"/>
+      <c r="C149" s="1" t="n"/>
+      <c r="D149" s="1" t="n"/>
+      <c r="E149" s="1" t="n"/>
+      <c r="F149" s="1" t="n"/>
+      <c r="G149" s="1" t="n"/>
+      <c r="H149" s="1" t="n"/>
+      <c r="I149" s="1" t="n"/>
+      <c r="J149" s="1" t="n"/>
+      <c r="K149" s="1" t="n"/>
+      <c r="L149" s="1" t="n"/>
+      <c r="M149" s="1" t="n"/>
+      <c r="N149" s="1" t="n"/>
+      <c r="O149" s="1" t="n"/>
+      <c r="P149" s="1" t="n"/>
+      <c r="Q149" s="1" t="n"/>
+      <c r="R149" s="1" t="n"/>
+      <c r="S149" s="1" t="n"/>
+      <c r="T149" s="1" t="n"/>
+      <c r="U149" s="1" t="n"/>
+      <c r="V149" s="1" t="n"/>
+      <c r="W149" s="1" t="n"/>
+      <c r="X149" s="1" t="n"/>
+      <c r="Y149" s="1" t="n"/>
+      <c r="Z149" s="1" t="n"/>
+      <c r="AA149" s="1" t="n"/>
+      <c r="AB149" s="1" t="n"/>
+      <c r="AC149" s="1" t="n"/>
+      <c r="AD149" s="1" t="n"/>
+      <c r="AE149" s="1" t="n"/>
+      <c r="AF149" s="1" t="n"/>
+      <c r="AG149" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="12" r="150">
+      <c r="A150" s="1" t="n"/>
+      <c r="B150" s="1" t="n"/>
+      <c r="C150" s="1" t="n"/>
+      <c r="D150" s="1" t="n"/>
+      <c r="E150" s="1" t="n"/>
+      <c r="F150" s="1" t="n"/>
+      <c r="G150" s="1" t="n"/>
+      <c r="H150" s="1" t="n"/>
+      <c r="I150" s="1" t="n"/>
+      <c r="J150" s="1" t="n"/>
+      <c r="K150" s="1" t="n"/>
+      <c r="L150" s="1" t="n"/>
+      <c r="M150" s="1" t="n"/>
+      <c r="N150" s="1" t="n"/>
+      <c r="O150" s="1" t="n"/>
+      <c r="P150" s="1" t="n"/>
+      <c r="Q150" s="1" t="n"/>
+      <c r="R150" s="1" t="n"/>
+      <c r="S150" s="1" t="n"/>
+      <c r="T150" s="1" t="n"/>
+      <c r="U150" s="1" t="n"/>
+      <c r="V150" s="1" t="n"/>
+      <c r="W150" s="1" t="n"/>
+      <c r="X150" s="1" t="n"/>
+      <c r="Y150" s="1" t="n"/>
+      <c r="Z150" s="1" t="n"/>
+      <c r="AA150" s="1" t="n"/>
+      <c r="AB150" s="1" t="n"/>
+      <c r="AC150" s="1" t="n"/>
+      <c r="AD150" s="1" t="n"/>
+      <c r="AE150" s="1" t="n"/>
+      <c r="AF150" s="1" t="n"/>
+      <c r="AG150" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="11" r="151">
+      <c r="A151" s="1" t="n"/>
+      <c r="AE151" s="1" t="n"/>
+      <c r="AF151" s="1" t="n"/>
+      <c r="AG151" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="73" r="152">
+      <c r="A152" s="1" t="n"/>
+      <c r="AE152" s="1" t="n"/>
+      <c r="AF152" s="1" t="n"/>
+      <c r="AG152" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="9" r="153">
+      <c r="A153" s="1" t="n"/>
+      <c r="AE153" s="1" t="n"/>
+      <c r="AF153" s="1" t="n"/>
+      <c r="AG153" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="12" r="154">
+      <c r="A154" s="1" t="n"/>
+      <c r="AE154" s="1" t="n"/>
+      <c r="AF154" s="1" t="n"/>
+      <c r="AG154" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="12" r="155">
+      <c r="A155" s="1" t="n"/>
+      <c r="B155" s="1" t="n"/>
+      <c r="C155" s="1" t="n"/>
+      <c r="D155" s="1" t="n"/>
+      <c r="E155" s="1" t="n"/>
+      <c r="F155" s="1" t="n"/>
+      <c r="G155" s="1" t="n"/>
+      <c r="H155" s="1" t="n"/>
+      <c r="I155" s="1" t="n"/>
+      <c r="J155" s="1" t="n"/>
+      <c r="K155" s="1" t="n"/>
+      <c r="L155" s="1" t="n"/>
+      <c r="M155" s="1" t="n"/>
+      <c r="N155" s="1" t="n"/>
+      <c r="O155" s="1" t="n"/>
+      <c r="P155" s="1" t="n"/>
+      <c r="Q155" s="1" t="n"/>
+      <c r="R155" s="1" t="n"/>
+      <c r="S155" s="1" t="n"/>
+      <c r="T155" s="1" t="n"/>
+      <c r="U155" s="1" t="n"/>
+      <c r="V155" s="1" t="n"/>
+      <c r="W155" s="1" t="n"/>
+      <c r="X155" s="1" t="n"/>
+      <c r="Y155" s="1" t="n"/>
+      <c r="Z155" s="1" t="n"/>
+      <c r="AA155" s="1" t="n"/>
+      <c r="AB155" s="1" t="n"/>
+      <c r="AC155" s="1" t="n"/>
+      <c r="AD155" s="1" t="n"/>
+      <c r="AE155" s="1" t="n"/>
+      <c r="AF155" s="1" t="n"/>
+      <c r="AG155" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="12" r="156">
+      <c r="A156" s="1" t="n"/>
+      <c r="B156" s="1" t="n"/>
+      <c r="C156" s="1" t="n"/>
+      <c r="D156" s="1" t="n"/>
+      <c r="E156" s="1" t="n"/>
+      <c r="F156" s="1" t="n"/>
+      <c r="G156" s="1" t="n"/>
+      <c r="H156" s="1" t="n"/>
+      <c r="I156" s="1" t="n"/>
+      <c r="J156" s="1" t="n"/>
+      <c r="K156" s="1" t="n"/>
+      <c r="L156" s="1" t="n"/>
+      <c r="M156" s="1" t="n"/>
+      <c r="N156" s="1" t="n"/>
+      <c r="O156" s="1" t="n"/>
+      <c r="P156" s="1" t="n"/>
+      <c r="Q156" s="1" t="n"/>
+      <c r="R156" s="1" t="n"/>
+      <c r="S156" s="1" t="n"/>
+      <c r="T156" s="1" t="n"/>
+      <c r="U156" s="1" t="n"/>
+      <c r="V156" s="1" t="n"/>
+      <c r="W156" s="1" t="n"/>
+      <c r="X156" s="1" t="n"/>
+      <c r="Y156" s="1" t="n"/>
+      <c r="Z156" s="1" t="n"/>
+      <c r="AA156" s="1" t="n"/>
+      <c r="AB156" s="1" t="n"/>
+      <c r="AC156" s="1" t="n"/>
+      <c r="AD156" s="1" t="n"/>
+      <c r="AE156" s="1" t="n"/>
+      <c r="AF156" s="1" t="n"/>
+      <c r="AG156" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="11" r="157">
+      <c r="A157" s="1" t="n"/>
+      <c r="AE157" s="1" t="n"/>
+      <c r="AF157" s="1" t="n"/>
+      <c r="AG157" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="73" r="158">
+      <c r="A158" s="1" t="n"/>
+      <c r="AE158" s="1" t="n"/>
+      <c r="AF158" s="1" t="n"/>
+      <c r="AG158" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="9" r="159">
+      <c r="A159" s="1" t="n"/>
+      <c r="AE159" s="1" t="n"/>
+      <c r="AF159" s="1" t="n"/>
+      <c r="AG159" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="12" r="160">
+      <c r="A160" s="1" t="n"/>
+      <c r="AE160" s="1" t="n"/>
+      <c r="AF160" s="1" t="n"/>
+      <c r="AG160" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="12" r="161">
+      <c r="A161" s="1" t="n"/>
+      <c r="B161" s="1" t="n"/>
+      <c r="C161" s="1" t="n"/>
+      <c r="D161" s="1" t="n"/>
+      <c r="E161" s="1" t="n"/>
+      <c r="F161" s="1" t="n"/>
+      <c r="G161" s="1" t="n"/>
+      <c r="H161" s="1" t="n"/>
+      <c r="I161" s="1" t="n"/>
+      <c r="J161" s="1" t="n"/>
+      <c r="K161" s="1" t="n"/>
+      <c r="L161" s="1" t="n"/>
+      <c r="M161" s="1" t="n"/>
+      <c r="N161" s="1" t="n"/>
+      <c r="O161" s="1" t="n"/>
+      <c r="P161" s="1" t="n"/>
+      <c r="Q161" s="1" t="n"/>
+      <c r="R161" s="1" t="n"/>
+      <c r="S161" s="1" t="n"/>
+      <c r="T161" s="1" t="n"/>
+      <c r="U161" s="1" t="n"/>
+      <c r="V161" s="1" t="n"/>
+      <c r="W161" s="1" t="n"/>
+      <c r="X161" s="1" t="n"/>
+      <c r="Y161" s="1" t="n"/>
+      <c r="Z161" s="1" t="n"/>
+      <c r="AA161" s="1" t="n"/>
+      <c r="AB161" s="1" t="n"/>
+      <c r="AC161" s="1" t="n"/>
+      <c r="AD161" s="1" t="n"/>
+      <c r="AE161" s="1" t="n"/>
+      <c r="AF161" s="1" t="n"/>
+      <c r="AG161" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="12" r="162">
+      <c r="A162" s="1" t="n"/>
+      <c r="B162" s="1" t="n"/>
+      <c r="C162" s="1" t="n"/>
+      <c r="D162" s="1" t="n"/>
+      <c r="E162" s="1" t="n"/>
+      <c r="F162" s="1" t="n"/>
+      <c r="G162" s="1" t="n"/>
+      <c r="H162" s="1" t="n"/>
+      <c r="I162" s="1" t="n"/>
+      <c r="J162" s="1" t="n"/>
+      <c r="K162" s="1" t="n"/>
+      <c r="L162" s="1" t="n"/>
+      <c r="M162" s="1" t="n"/>
+      <c r="N162" s="1" t="n"/>
+      <c r="O162" s="1" t="n"/>
+      <c r="P162" s="1" t="n"/>
+      <c r="Q162" s="1" t="n"/>
+      <c r="R162" s="1" t="n"/>
+      <c r="S162" s="1" t="n"/>
+      <c r="T162" s="1" t="n"/>
+      <c r="U162" s="1" t="n"/>
+      <c r="V162" s="1" t="n"/>
+      <c r="W162" s="1" t="n"/>
+      <c r="X162" s="1" t="n"/>
+      <c r="Y162" s="1" t="n"/>
+      <c r="Z162" s="1" t="n"/>
+      <c r="AA162" s="1" t="n"/>
+      <c r="AB162" s="1" t="n"/>
+      <c r="AC162" s="1" t="n"/>
+      <c r="AD162" s="1" t="n"/>
+      <c r="AE162" s="1" t="n"/>
+      <c r="AF162" s="1" t="n"/>
+      <c r="AG162" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="11" r="163">
+      <c r="A163" s="1" t="n"/>
+      <c r="AE163" s="1" t="n"/>
+      <c r="AF163" s="1" t="n"/>
+      <c r="AG163" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="73" r="164">
+      <c r="A164" s="1" t="n"/>
+      <c r="AE164" s="1" t="n"/>
+      <c r="AF164" s="1" t="n"/>
+      <c r="AG164" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="9" r="165">
+      <c r="A165" s="1" t="n"/>
+      <c r="AE165" s="1" t="n"/>
+      <c r="AF165" s="1" t="n"/>
+      <c r="AG165" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="12" r="166">
+      <c r="A166" s="1" t="n"/>
+      <c r="AE166" s="1" t="n"/>
+      <c r="AF166" s="1" t="n"/>
+      <c r="AG166" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="12" r="167">
+      <c r="A167" s="1" t="n"/>
+      <c r="B167" s="1" t="n"/>
+      <c r="C167" s="1" t="n"/>
+      <c r="D167" s="1" t="n"/>
+      <c r="E167" s="1" t="n"/>
+      <c r="F167" s="1" t="n"/>
+      <c r="G167" s="1" t="n"/>
+      <c r="H167" s="1" t="n"/>
+      <c r="I167" s="1" t="n"/>
+      <c r="J167" s="1" t="n"/>
+      <c r="K167" s="1" t="n"/>
+      <c r="L167" s="1" t="n"/>
+      <c r="M167" s="1" t="n"/>
+      <c r="N167" s="1" t="n"/>
+      <c r="O167" s="1" t="n"/>
+      <c r="P167" s="1" t="n"/>
+      <c r="Q167" s="1" t="n"/>
+      <c r="R167" s="1" t="n"/>
+      <c r="S167" s="1" t="n"/>
+      <c r="T167" s="1" t="n"/>
+      <c r="U167" s="1" t="n"/>
+      <c r="V167" s="1" t="n"/>
+      <c r="W167" s="1" t="n"/>
+      <c r="X167" s="1" t="n"/>
+      <c r="Y167" s="1" t="n"/>
+      <c r="Z167" s="1" t="n"/>
+      <c r="AA167" s="1" t="n"/>
+      <c r="AB167" s="1" t="n"/>
+      <c r="AC167" s="1" t="n"/>
+      <c r="AD167" s="1" t="n"/>
+      <c r="AE167" s="1" t="n"/>
+      <c r="AF167" s="1" t="n"/>
+      <c r="AG167" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="12" r="168">
+      <c r="A168" s="1" t="n"/>
+      <c r="B168" s="1" t="n"/>
+      <c r="C168" s="1" t="n"/>
+      <c r="D168" s="1" t="n"/>
+      <c r="E168" s="1" t="n"/>
+      <c r="F168" s="1" t="n"/>
+      <c r="G168" s="1" t="n"/>
+      <c r="H168" s="1" t="n"/>
+      <c r="I168" s="1" t="n"/>
+      <c r="J168" s="1" t="n"/>
+      <c r="K168" s="1" t="n"/>
+      <c r="L168" s="1" t="n"/>
+      <c r="M168" s="1" t="n"/>
+      <c r="N168" s="1" t="n"/>
+      <c r="O168" s="1" t="n"/>
+      <c r="P168" s="1" t="n"/>
+      <c r="Q168" s="1" t="n"/>
+      <c r="R168" s="1" t="n"/>
+      <c r="S168" s="1" t="n"/>
+      <c r="T168" s="1" t="n"/>
+      <c r="U168" s="1" t="n"/>
+      <c r="V168" s="1" t="n"/>
+      <c r="W168" s="1" t="n"/>
+      <c r="X168" s="1" t="n"/>
+      <c r="Y168" s="1" t="n"/>
+      <c r="Z168" s="1" t="n"/>
+      <c r="AA168" s="1" t="n"/>
+      <c r="AB168" s="1" t="n"/>
+      <c r="AC168" s="1" t="n"/>
+      <c r="AD168" s="1" t="n"/>
+      <c r="AE168" s="1" t="n"/>
+      <c r="AF168" s="1" t="n"/>
+      <c r="AG168" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="11" r="169">
+      <c r="A169" s="1" t="n"/>
+      <c r="AE169" s="1" t="n"/>
+      <c r="AF169" s="1" t="n"/>
+      <c r="AG169" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="73" r="170">
+      <c r="A170" s="1" t="n"/>
+      <c r="AE170" s="1" t="n"/>
+      <c r="AF170" s="1" t="n"/>
+      <c r="AG170" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="9" r="171">
+      <c r="A171" s="1" t="n"/>
+      <c r="AE171" s="1" t="n"/>
+      <c r="AF171" s="1" t="n"/>
+      <c r="AG171" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="12" r="172">
+      <c r="A172" s="1" t="n"/>
+      <c r="AE172" s="1" t="n"/>
+      <c r="AF172" s="1" t="n"/>
+      <c r="AG172" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="12" r="173">
+      <c r="A173" s="1" t="n"/>
+      <c r="B173" s="1" t="n"/>
+      <c r="C173" s="1" t="n"/>
+      <c r="D173" s="1" t="n"/>
+      <c r="E173" s="1" t="n"/>
+      <c r="F173" s="1" t="n"/>
+      <c r="G173" s="1" t="n"/>
+      <c r="H173" s="1" t="n"/>
+      <c r="I173" s="1" t="n"/>
+      <c r="J173" s="1" t="n"/>
+      <c r="K173" s="1" t="n"/>
+      <c r="L173" s="1" t="n"/>
+      <c r="M173" s="1" t="n"/>
+      <c r="N173" s="1" t="n"/>
+      <c r="O173" s="1" t="n"/>
+      <c r="P173" s="1" t="n"/>
+      <c r="Q173" s="1" t="n"/>
+      <c r="R173" s="1" t="n"/>
+      <c r="S173" s="1" t="n"/>
+      <c r="T173" s="1" t="n"/>
+      <c r="U173" s="1" t="n"/>
+      <c r="V173" s="1" t="n"/>
+      <c r="W173" s="1" t="n"/>
+      <c r="X173" s="1" t="n"/>
+      <c r="Y173" s="1" t="n"/>
+      <c r="Z173" s="1" t="n"/>
+      <c r="AA173" s="1" t="n"/>
+      <c r="AB173" s="1" t="n"/>
+      <c r="AC173" s="1" t="n"/>
+      <c r="AD173" s="1" t="n"/>
+      <c r="AE173" s="1" t="n"/>
+      <c r="AF173" s="1" t="n"/>
+      <c r="AG173" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="12" r="174">
+      <c r="A174" s="1" t="n"/>
+      <c r="B174" s="1" t="n"/>
+      <c r="C174" s="1" t="n"/>
+      <c r="D174" s="1" t="n"/>
+      <c r="E174" s="1" t="n"/>
+      <c r="F174" s="1" t="n"/>
+      <c r="G174" s="1" t="n"/>
+      <c r="H174" s="1" t="n"/>
+      <c r="I174" s="1" t="n"/>
+      <c r="J174" s="1" t="n"/>
+      <c r="K174" s="1" t="n"/>
+      <c r="L174" s="1" t="n"/>
+      <c r="M174" s="1" t="n"/>
+      <c r="N174" s="1" t="n"/>
+      <c r="O174" s="1" t="n"/>
+      <c r="P174" s="1" t="n"/>
+      <c r="Q174" s="1" t="n"/>
+      <c r="R174" s="1" t="n"/>
+      <c r="S174" s="1" t="n"/>
+      <c r="T174" s="1" t="n"/>
+      <c r="U174" s="1" t="n"/>
+      <c r="V174" s="1" t="n"/>
+      <c r="W174" s="1" t="n"/>
+      <c r="X174" s="1" t="n"/>
+      <c r="Y174" s="1" t="n"/>
+      <c r="Z174" s="1" t="n"/>
+      <c r="AA174" s="1" t="n"/>
+      <c r="AB174" s="1" t="n"/>
+      <c r="AC174" s="1" t="n"/>
+      <c r="AD174" s="1" t="n"/>
+      <c r="AE174" s="1" t="n"/>
+      <c r="AF174" s="1" t="n"/>
+      <c r="AG174" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="11" r="175">
+      <c r="A175" s="1" t="n"/>
+      <c r="AE175" s="1" t="n"/>
+      <c r="AF175" s="1" t="n"/>
+      <c r="AG175" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="73" r="176">
+      <c r="A176" s="1" t="n"/>
+      <c r="AE176" s="1" t="n"/>
+      <c r="AF176" s="1" t="n"/>
+      <c r="AG176" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="9" r="177">
+      <c r="A177" s="1" t="n"/>
+      <c r="AE177" s="1" t="n"/>
+      <c r="AF177" s="1" t="n"/>
+      <c r="AG177" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="12" r="178">
+      <c r="A178" s="1" t="n"/>
+      <c r="AE178" s="1" t="n"/>
+      <c r="AF178" s="1" t="n"/>
+      <c r="AG178" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="12" r="179">
+      <c r="A179" s="1" t="n"/>
+      <c r="B179" s="1" t="n"/>
+      <c r="C179" s="1" t="n"/>
+      <c r="D179" s="1" t="n"/>
+      <c r="E179" s="1" t="n"/>
+      <c r="F179" s="1" t="n"/>
+      <c r="G179" s="1" t="n"/>
+      <c r="H179" s="1" t="n"/>
+      <c r="I179" s="1" t="n"/>
+      <c r="J179" s="1" t="n"/>
+      <c r="K179" s="1" t="n"/>
+      <c r="L179" s="1" t="n"/>
+      <c r="M179" s="1" t="n"/>
+      <c r="N179" s="1" t="n"/>
+      <c r="O179" s="1" t="n"/>
+      <c r="P179" s="1" t="n"/>
+      <c r="Q179" s="1" t="n"/>
+      <c r="R179" s="1" t="n"/>
+      <c r="S179" s="1" t="n"/>
+      <c r="T179" s="1" t="n"/>
+      <c r="U179" s="1" t="n"/>
+      <c r="V179" s="1" t="n"/>
+      <c r="W179" s="1" t="n"/>
+      <c r="X179" s="1" t="n"/>
+      <c r="Y179" s="1" t="n"/>
+      <c r="Z179" s="1" t="n"/>
+      <c r="AA179" s="1" t="n"/>
+      <c r="AB179" s="1" t="n"/>
+      <c r="AC179" s="1" t="n"/>
+      <c r="AD179" s="1" t="n"/>
+      <c r="AE179" s="1" t="n"/>
+      <c r="AF179" s="1" t="n"/>
+      <c r="AG179" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="12" r="180">
+      <c r="A180" s="1" t="n"/>
+      <c r="B180" s="1" t="n"/>
+      <c r="C180" s="1" t="n"/>
+      <c r="D180" s="1" t="n"/>
+      <c r="E180" s="1" t="n"/>
+      <c r="F180" s="1" t="n"/>
+      <c r="G180" s="1" t="n"/>
+      <c r="H180" s="1" t="n"/>
+      <c r="I180" s="1" t="n"/>
+      <c r="J180" s="1" t="n"/>
+      <c r="K180" s="1" t="n"/>
+      <c r="L180" s="1" t="n"/>
+      <c r="M180" s="1" t="n"/>
+      <c r="N180" s="1" t="n"/>
+      <c r="O180" s="1" t="n"/>
+      <c r="P180" s="1" t="n"/>
+      <c r="Q180" s="1" t="n"/>
+      <c r="R180" s="1" t="n"/>
+      <c r="S180" s="1" t="n"/>
+      <c r="T180" s="1" t="n"/>
+      <c r="U180" s="1" t="n"/>
+      <c r="V180" s="1" t="n"/>
+      <c r="W180" s="1" t="n"/>
+      <c r="X180" s="1" t="n"/>
+      <c r="Y180" s="1" t="n"/>
+      <c r="Z180" s="1" t="n"/>
+      <c r="AA180" s="1" t="n"/>
+      <c r="AB180" s="1" t="n"/>
+      <c r="AC180" s="1" t="n"/>
+      <c r="AD180" s="1" t="n"/>
+      <c r="AE180" s="1" t="n"/>
+      <c r="AF180" s="1" t="n"/>
+      <c r="AG180" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="11" r="181">
+      <c r="A181" s="1" t="n"/>
+      <c r="AE181" s="1" t="n"/>
+      <c r="AF181" s="1" t="n"/>
+      <c r="AG181" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="73" r="182">
+      <c r="A182" s="1" t="n"/>
+      <c r="AE182" s="1" t="n"/>
+      <c r="AF182" s="1" t="n"/>
+      <c r="AG182" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="9" r="183">
+      <c r="A183" s="1" t="n"/>
+      <c r="AE183" s="1" t="n"/>
+      <c r="AF183" s="1" t="n"/>
+      <c r="AG183" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="12" r="184">
+      <c r="A184" s="1" t="n"/>
+      <c r="AE184" s="1" t="n"/>
+      <c r="AF184" s="1" t="n"/>
+      <c r="AG184" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="12" r="185">
+      <c r="A185" s="1" t="n"/>
+      <c r="B185" s="1" t="n"/>
+      <c r="C185" s="1" t="n"/>
+      <c r="D185" s="1" t="n"/>
+      <c r="E185" s="1" t="n"/>
+      <c r="F185" s="1" t="n"/>
+      <c r="G185" s="1" t="n"/>
+      <c r="H185" s="1" t="n"/>
+      <c r="I185" s="1" t="n"/>
+      <c r="J185" s="1" t="n"/>
+      <c r="K185" s="1" t="n"/>
+      <c r="L185" s="1" t="n"/>
+      <c r="M185" s="1" t="n"/>
+      <c r="N185" s="1" t="n"/>
+      <c r="O185" s="1" t="n"/>
+      <c r="P185" s="1" t="n"/>
+      <c r="Q185" s="1" t="n"/>
+      <c r="R185" s="1" t="n"/>
+      <c r="S185" s="1" t="n"/>
+      <c r="T185" s="1" t="n"/>
+      <c r="U185" s="1" t="n"/>
+      <c r="V185" s="1" t="n"/>
+      <c r="W185" s="1" t="n"/>
+      <c r="X185" s="1" t="n"/>
+      <c r="Y185" s="1" t="n"/>
+      <c r="Z185" s="1" t="n"/>
+      <c r="AA185" s="1" t="n"/>
+      <c r="AB185" s="1" t="n"/>
+      <c r="AC185" s="1" t="n"/>
+      <c r="AD185" s="1" t="n"/>
+      <c r="AE185" s="1" t="n"/>
+      <c r="AF185" s="1" t="n"/>
+      <c r="AG185" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="12" r="186">
+      <c r="A186" s="1" t="n"/>
+      <c r="B186" s="1" t="n"/>
+      <c r="C186" s="1" t="n"/>
+      <c r="D186" s="1" t="n"/>
+      <c r="E186" s="1" t="n"/>
+      <c r="F186" s="1" t="n"/>
+      <c r="G186" s="1" t="n"/>
+      <c r="H186" s="1" t="n"/>
+      <c r="I186" s="1" t="n"/>
+      <c r="J186" s="1" t="n"/>
+      <c r="K186" s="1" t="n"/>
+      <c r="L186" s="1" t="n"/>
+      <c r="M186" s="1" t="n"/>
+      <c r="N186" s="1" t="n"/>
+      <c r="O186" s="1" t="n"/>
+      <c r="P186" s="1" t="n"/>
+      <c r="Q186" s="1" t="n"/>
+      <c r="R186" s="1" t="n"/>
+      <c r="S186" s="1" t="n"/>
+      <c r="T186" s="1" t="n"/>
+      <c r="U186" s="1" t="n"/>
+      <c r="V186" s="1" t="n"/>
+      <c r="W186" s="1" t="n"/>
+      <c r="X186" s="1" t="n"/>
+      <c r="Y186" s="1" t="n"/>
+      <c r="Z186" s="1" t="n"/>
+      <c r="AA186" s="1" t="n"/>
+      <c r="AB186" s="1" t="n"/>
+      <c r="AC186" s="1" t="n"/>
+      <c r="AD186" s="1" t="n"/>
+      <c r="AE186" s="1" t="n"/>
+      <c r="AF186" s="1" t="n"/>
+      <c r="AG186" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="11" r="187">
+      <c r="A187" s="1" t="n"/>
+      <c r="AE187" s="1" t="n"/>
+      <c r="AF187" s="1" t="n"/>
+      <c r="AG187" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="73" r="188">
+      <c r="A188" s="1" t="n"/>
+      <c r="AE188" s="1" t="n"/>
+      <c r="AF188" s="1" t="n"/>
+      <c r="AG188" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="9" r="189">
+      <c r="A189" s="1" t="n"/>
+      <c r="AE189" s="1" t="n"/>
+      <c r="AF189" s="1" t="n"/>
+      <c r="AG189" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="12" r="190">
+      <c r="A190" s="1" t="n"/>
+      <c r="AE190" s="1" t="n"/>
+      <c r="AF190" s="1" t="n"/>
+      <c r="AG190" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="12" r="191">
+      <c r="A191" s="1" t="n"/>
+      <c r="B191" s="1" t="n"/>
+      <c r="C191" s="1" t="n"/>
+      <c r="D191" s="1" t="n"/>
+      <c r="E191" s="1" t="n"/>
+      <c r="F191" s="1" t="n"/>
+      <c r="G191" s="1" t="n"/>
+      <c r="H191" s="1" t="n"/>
+      <c r="I191" s="1" t="n"/>
+      <c r="J191" s="1" t="n"/>
+      <c r="K191" s="1" t="n"/>
+      <c r="L191" s="1" t="n"/>
+      <c r="M191" s="1" t="n"/>
+      <c r="N191" s="1" t="n"/>
+      <c r="O191" s="1" t="n"/>
+      <c r="P191" s="1" t="n"/>
+      <c r="Q191" s="1" t="n"/>
+      <c r="R191" s="1" t="n"/>
+      <c r="S191" s="1" t="n"/>
+      <c r="T191" s="1" t="n"/>
+      <c r="U191" s="1" t="n"/>
+      <c r="V191" s="1" t="n"/>
+      <c r="W191" s="1" t="n"/>
+      <c r="X191" s="1" t="n"/>
+      <c r="Y191" s="1" t="n"/>
+      <c r="Z191" s="1" t="n"/>
+      <c r="AA191" s="1" t="n"/>
+      <c r="AB191" s="1" t="n"/>
+      <c r="AC191" s="1" t="n"/>
+      <c r="AD191" s="1" t="n"/>
+      <c r="AE191" s="1" t="n"/>
+      <c r="AF191" s="1" t="n"/>
+      <c r="AG191" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="12" r="192">
+      <c r="A192" s="1" t="n"/>
+      <c r="B192" s="1" t="n"/>
+      <c r="C192" s="1" t="n"/>
+      <c r="D192" s="1" t="n"/>
+      <c r="E192" s="1" t="n"/>
+      <c r="F192" s="1" t="n"/>
+      <c r="G192" s="1" t="n"/>
+      <c r="H192" s="1" t="n"/>
+      <c r="I192" s="1" t="n"/>
+      <c r="J192" s="1" t="n"/>
+      <c r="K192" s="1" t="n"/>
+      <c r="L192" s="1" t="n"/>
+      <c r="M192" s="1" t="n"/>
+      <c r="N192" s="1" t="n"/>
+      <c r="O192" s="1" t="n"/>
+      <c r="P192" s="1" t="n"/>
+      <c r="Q192" s="1" t="n"/>
+      <c r="R192" s="1" t="n"/>
+      <c r="S192" s="1" t="n"/>
+      <c r="T192" s="1" t="n"/>
+      <c r="U192" s="1" t="n"/>
+      <c r="V192" s="1" t="n"/>
+      <c r="W192" s="1" t="n"/>
+      <c r="X192" s="1" t="n"/>
+      <c r="Y192" s="1" t="n"/>
+      <c r="Z192" s="1" t="n"/>
+      <c r="AA192" s="1" t="n"/>
+      <c r="AB192" s="1" t="n"/>
+      <c r="AC192" s="1" t="n"/>
+      <c r="AD192" s="1" t="n"/>
+      <c r="AE192" s="1" t="n"/>
+      <c r="AF192" s="1" t="n"/>
+      <c r="AG192" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="11" r="193">
+      <c r="A193" s="1" t="n"/>
+      <c r="AE193" s="1" t="n"/>
+      <c r="AF193" s="1" t="n"/>
+      <c r="AG193" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="73" r="194">
+      <c r="A194" s="1" t="n"/>
+      <c r="AE194" s="1" t="n"/>
+      <c r="AF194" s="1" t="n"/>
+      <c r="AG194" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="9" r="195">
+      <c r="A195" s="1" t="n"/>
+      <c r="AE195" s="1" t="n"/>
+      <c r="AF195" s="1" t="n"/>
+      <c r="AG195" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="12" r="196">
+      <c r="A196" s="1" t="n"/>
+      <c r="AE196" s="1" t="n"/>
+      <c r="AF196" s="1" t="n"/>
+      <c r="AG196" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="12" r="197">
+      <c r="A197" s="1" t="n"/>
+      <c r="B197" s="1" t="n"/>
+      <c r="C197" s="1" t="n"/>
+      <c r="D197" s="1" t="n"/>
+      <c r="E197" s="1" t="n"/>
+      <c r="F197" s="1" t="n"/>
+      <c r="G197" s="1" t="n"/>
+      <c r="H197" s="1" t="n"/>
+      <c r="I197" s="1" t="n"/>
+      <c r="J197" s="1" t="n"/>
+      <c r="K197" s="1" t="n"/>
+      <c r="L197" s="1" t="n"/>
+      <c r="M197" s="1" t="n"/>
+      <c r="N197" s="1" t="n"/>
+      <c r="O197" s="1" t="n"/>
+      <c r="P197" s="1" t="n"/>
+      <c r="Q197" s="1" t="n"/>
+      <c r="R197" s="1" t="n"/>
+      <c r="S197" s="1" t="n"/>
+      <c r="T197" s="1" t="n"/>
+      <c r="U197" s="1" t="n"/>
+      <c r="V197" s="1" t="n"/>
+      <c r="W197" s="1" t="n"/>
+      <c r="X197" s="1" t="n"/>
+      <c r="Y197" s="1" t="n"/>
+      <c r="Z197" s="1" t="n"/>
+      <c r="AA197" s="1" t="n"/>
+      <c r="AB197" s="1" t="n"/>
+      <c r="AC197" s="1" t="n"/>
+      <c r="AD197" s="1" t="n"/>
+      <c r="AE197" s="1" t="n"/>
+      <c r="AF197" s="1" t="n"/>
+      <c r="AG197" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="12" r="198">
+      <c r="A198" s="1" t="n"/>
+      <c r="B198" s="1" t="n"/>
+      <c r="C198" s="1" t="n"/>
+      <c r="D198" s="1" t="n"/>
+      <c r="E198" s="1" t="n"/>
+      <c r="F198" s="1" t="n"/>
+      <c r="G198" s="1" t="n"/>
+      <c r="H198" s="1" t="n"/>
+      <c r="I198" s="1" t="n"/>
+      <c r="J198" s="1" t="n"/>
+      <c r="K198" s="1" t="n"/>
+      <c r="L198" s="1" t="n"/>
+      <c r="M198" s="1" t="n"/>
+      <c r="N198" s="1" t="n"/>
+      <c r="O198" s="1" t="n"/>
+      <c r="P198" s="1" t="n"/>
+      <c r="Q198" s="1" t="n"/>
+      <c r="R198" s="1" t="n"/>
+      <c r="S198" s="1" t="n"/>
+      <c r="T198" s="1" t="n"/>
+      <c r="U198" s="1" t="n"/>
+      <c r="V198" s="1" t="n"/>
+      <c r="W198" s="1" t="n"/>
+      <c r="X198" s="1" t="n"/>
+      <c r="Y198" s="1" t="n"/>
+      <c r="Z198" s="1" t="n"/>
+      <c r="AA198" s="1" t="n"/>
+      <c r="AB198" s="1" t="n"/>
+      <c r="AC198" s="1" t="n"/>
+      <c r="AD198" s="1" t="n"/>
+      <c r="AE198" s="1" t="n"/>
+      <c r="AF198" s="1" t="n"/>
+      <c r="AG198" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="11" r="199">
+      <c r="A199" s="1" t="n"/>
+      <c r="AE199" s="1" t="n"/>
+      <c r="AF199" s="1" t="n"/>
+      <c r="AG199" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="73" r="200">
+      <c r="A200" s="1" t="n"/>
+      <c r="AE200" s="1" t="n"/>
+      <c r="AF200" s="1" t="n"/>
+      <c r="AG200" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="9" r="201">
+      <c r="A201" s="1" t="n"/>
+      <c r="AE201" s="1" t="n"/>
+      <c r="AF201" s="1" t="n"/>
+      <c r="AG201" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="12" r="202">
+      <c r="A202" s="1" t="n"/>
+      <c r="AE202" s="1" t="n"/>
+      <c r="AF202" s="1" t="n"/>
+      <c r="AG202" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="12" r="203">
+      <c r="A203" s="1" t="n"/>
+      <c r="B203" s="1" t="n"/>
+      <c r="C203" s="1" t="n"/>
+      <c r="D203" s="1" t="n"/>
+      <c r="E203" s="1" t="n"/>
+      <c r="F203" s="1" t="n"/>
+      <c r="G203" s="1" t="n"/>
+      <c r="H203" s="1" t="n"/>
+      <c r="I203" s="1" t="n"/>
+      <c r="J203" s="1" t="n"/>
+      <c r="K203" s="1" t="n"/>
+      <c r="L203" s="1" t="n"/>
+      <c r="M203" s="1" t="n"/>
+      <c r="N203" s="1" t="n"/>
+      <c r="O203" s="1" t="n"/>
+      <c r="P203" s="1" t="n"/>
+      <c r="Q203" s="1" t="n"/>
+      <c r="R203" s="1" t="n"/>
+      <c r="S203" s="1" t="n"/>
+      <c r="T203" s="1" t="n"/>
+      <c r="U203" s="1" t="n"/>
+      <c r="V203" s="1" t="n"/>
+      <c r="W203" s="1" t="n"/>
+      <c r="X203" s="1" t="n"/>
+      <c r="Y203" s="1" t="n"/>
+      <c r="Z203" s="1" t="n"/>
+      <c r="AA203" s="1" t="n"/>
+      <c r="AB203" s="1" t="n"/>
+      <c r="AC203" s="1" t="n"/>
+      <c r="AD203" s="1" t="n"/>
+      <c r="AE203" s="1" t="n"/>
+      <c r="AF203" s="1" t="n"/>
+      <c r="AG203" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="12" r="204">
+      <c r="A204" s="1" t="n"/>
+      <c r="B204" s="1" t="n"/>
+      <c r="C204" s="1" t="n"/>
+      <c r="D204" s="1" t="n"/>
+      <c r="E204" s="1" t="n"/>
+      <c r="F204" s="1" t="n"/>
+      <c r="G204" s="1" t="n"/>
+      <c r="H204" s="1" t="n"/>
+      <c r="I204" s="1" t="n"/>
+      <c r="J204" s="1" t="n"/>
+      <c r="K204" s="1" t="n"/>
+      <c r="L204" s="1" t="n"/>
+      <c r="M204" s="1" t="n"/>
+      <c r="N204" s="1" t="n"/>
+      <c r="O204" s="1" t="n"/>
+      <c r="P204" s="1" t="n"/>
+      <c r="Q204" s="1" t="n"/>
+      <c r="R204" s="1" t="n"/>
+      <c r="S204" s="1" t="n"/>
+      <c r="T204" s="1" t="n"/>
+      <c r="U204" s="1" t="n"/>
+      <c r="V204" s="1" t="n"/>
+      <c r="W204" s="1" t="n"/>
+      <c r="X204" s="1" t="n"/>
+      <c r="Y204" s="1" t="n"/>
+      <c r="Z204" s="1" t="n"/>
+      <c r="AA204" s="1" t="n"/>
+      <c r="AB204" s="1" t="n"/>
+      <c r="AC204" s="1" t="n"/>
+      <c r="AD204" s="1" t="n"/>
+      <c r="AE204" s="1" t="n"/>
+      <c r="AF204" s="1" t="n"/>
+      <c r="AG204" s="1" t="n"/>
+    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="11">
     <mergeCell ref="C1:C4"/>
     <mergeCell ref="C7:C10"/>
     <mergeCell ref="C13:C16"/>
@@ -1104,6 +4082,8 @@
     <mergeCell ref="AD1:AD10"/>
     <mergeCell ref="AD13:AD22"/>
     <mergeCell ref="AD25:AD34"/>
+    <mergeCell ref="C37:C40"/>
+    <mergeCell ref="C43:C46"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/empty_book.xlsx
+++ b/empty_book.xlsx
@@ -194,7 +194,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -246,6 +246,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="7" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle builtinId="0" name="Обычный" xfId="0"/>
@@ -580,10 +583,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J90"/>
+  <dimension ref="A1:J358"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="85">
-      <selection activeCell="H57" sqref="H57"/>
+    <sheetView tabSelected="1" topLeftCell="A346" workbookViewId="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="85">
+      <selection activeCell="F263" sqref="F263:H264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -602,14 +605,14 @@
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="10" t="inlineStr">
         <is>
-          <t>ПТ-2.КЦ</t>
+          <t>ПT-2.УСО.1</t>
         </is>
       </c>
       <c r="C2" s="5" t="n"/>
       <c r="D2" s="5" t="n"/>
       <c r="E2" s="11" t="inlineStr">
         <is>
-          <t>17.04.19</t>
+          <t>23.04.19</t>
         </is>
       </c>
     </row>
@@ -660,17 +663,17 @@
     <row r="5">
       <c r="A5" s="12" t="inlineStr">
         <is>
-          <t>CST01_01</t>
+          <t>CST01_1</t>
         </is>
       </c>
       <c r="B5" s="13" t="inlineStr">
         <is>
-          <t>Температура воздуха в шкафу ПТ-2.КЦ</t>
+          <t>Температура воздуха в шкафу ПТ-2.УСО.1</t>
         </is>
       </c>
       <c r="C5" s="14" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="D5" s="15" t="inlineStr">
@@ -684,16 +687,20 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="76.5" r="6" s="6">
+    <row customHeight="1" ht="25.5" r="6" s="6">
       <c r="A6" s="12" t="inlineStr">
         <is>
-          <t>_ЗРУ, КТП (214).Аппаратная НПС-2_Шкаф ПТ-2.КЦ_A3.3_7</t>
-        </is>
-      </c>
-      <c r="B6" s="13" t="n"/>
+          <t>TT700.3</t>
+        </is>
+      </c>
+      <c r="B6" s="13" t="inlineStr">
+        <is>
+          <t>Температура воздуха в венткамере здания магистральной насосной станции (003)</t>
+        </is>
+      </c>
       <c r="C6" s="14" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="D6" s="15" t="inlineStr">
@@ -707,16 +714,16 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="76.5" r="7" s="6">
-      <c r="A7" s="12" t="inlineStr">
-        <is>
-          <t>_ЗРУ, КТП (214).Аппаратная НПС-2_Шкаф ПТ-2.КЦ_A3.3_12</t>
-        </is>
-      </c>
-      <c r="B7" s="13" t="n"/>
+    <row r="7">
+      <c r="A7" s="12" t="n"/>
+      <c r="B7" s="13" t="inlineStr">
+        <is>
+          <t>Резерв</t>
+        </is>
+      </c>
       <c r="C7" s="14" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="D7" s="15" t="inlineStr">
@@ -730,16 +737,20 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="76.5" r="8" s="6">
+    <row customHeight="1" ht="25.5" r="8" s="6">
       <c r="A8" s="12" t="inlineStr">
         <is>
-          <t>_ЗРУ, КТП (214).Аппаратная НПС-2_Шкаф ПТ-2.КЦ_A3.3_16</t>
-        </is>
-      </c>
-      <c r="B8" s="13" t="n"/>
+          <t>DC703.1</t>
+        </is>
+      </c>
+      <c r="B8" s="13" t="inlineStr">
+        <is>
+          <t>Электрозал здания магистральной насосной (003). Пожар. Шлейф 1</t>
+        </is>
+      </c>
       <c r="C8" s="14" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="D8" s="15" t="inlineStr">
@@ -753,16 +764,20 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="76.5" r="9" s="6">
+    <row r="9">
       <c r="A9" s="12" t="inlineStr">
         <is>
-          <t>_ЗРУ, КТП (214).Аппаратная НПС-2_Шкаф ПТ-2.КЦ_A3.3_21</t>
-        </is>
-      </c>
-      <c r="B9" s="13" t="n"/>
+          <t>DC708.1</t>
+        </is>
+      </c>
+      <c r="B9" s="13" t="inlineStr">
+        <is>
+          <t>Помещение ЗРУ (214). Пожар. Шлейф 1</t>
+        </is>
+      </c>
       <c r="C9" s="14" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="D9" s="15" t="inlineStr">
@@ -779,13 +794,13 @@
     <row customHeight="1" ht="76.5" r="10" s="6">
       <c r="A10" s="12" t="inlineStr">
         <is>
-          <t>_ЗРУ, КТП (214).Аппаратная НПС-2_Шкаф ПТ-2.КЦ_A3.3_25</t>
+          <t>_ЗРУ, КТП (214).Аппаратная НПС-2_Шкаф ПТ-2.УСО.1_A1.3_25</t>
         </is>
       </c>
       <c r="B10" s="13" t="n"/>
       <c r="C10" s="14" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="D10" s="15" t="inlineStr">
@@ -802,13 +817,13 @@
     <row customHeight="1" ht="76.5" r="11" s="6">
       <c r="A11" s="12" t="inlineStr">
         <is>
-          <t>_ЗРУ, КТП (214).Аппаратная НПС-2_Шкаф ПТ-2.КЦ_A3.3_30</t>
+          <t>_ЗРУ, КТП (214).Аппаратная НПС-2_Шкаф ПТ-2.УСО.1_A1.3_30</t>
         </is>
       </c>
       <c r="B11" s="13" t="n"/>
       <c r="C11" s="14" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="D11" s="15" t="inlineStr">
@@ -825,13 +840,13 @@
     <row customHeight="1" ht="76.5" r="12" s="6">
       <c r="A12" s="12" t="inlineStr">
         <is>
-          <t>_ЗРУ, КТП (214).Аппаратная НПС-2_Шкаф ПТ-2.КЦ_A3.3_34</t>
+          <t>_ЗРУ, КТП (214).Аппаратная НПС-2_Шкаф ПТ-2.УСО.1_A1.3_34</t>
         </is>
       </c>
       <c r="B12" s="13" t="n"/>
       <c r="C12" s="14" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="D12" s="15" t="inlineStr">
@@ -845,20 +860,20 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="25.5" r="13" s="6">
+    <row customHeight="1" ht="38.25" r="13" s="6">
       <c r="A13" s="12" t="inlineStr">
         <is>
-          <t>CSC01_01</t>
+          <t>KKT701.1</t>
         </is>
       </c>
       <c r="B13" s="13" t="inlineStr">
         <is>
-          <t>Общая неисправность системы питания ПТ-2.КЦ</t>
+          <t>Запуск системы тушения пожара в насосном зале здания магистральной насосной (003). Кнопка пуска N1</t>
         </is>
       </c>
       <c r="C13" s="14" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="D13" s="15" t="inlineStr">
@@ -868,24 +883,24 @@
       </c>
       <c r="E13" s="16" t="inlineStr">
         <is>
-          <t>DI1</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="25.5" r="14" s="6">
+          <t>AI1</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="38.25" r="14" s="6">
       <c r="A14" s="12" t="inlineStr">
         <is>
-          <t>CSC02_01</t>
+          <t>KKT702.1</t>
         </is>
       </c>
       <c r="B14" s="13" t="inlineStr">
         <is>
-          <t>Неисправность оборудования питания (основной канал) ПТ-2.КЦ</t>
+          <t>Запуск системы тушения пожара в маслоприямке магистральной насосной (003). Кнопка пуска</t>
         </is>
       </c>
       <c r="C14" s="14" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="D14" s="15" t="inlineStr">
@@ -895,24 +910,24 @@
       </c>
       <c r="E14" s="16" t="inlineStr">
         <is>
-          <t>DI2</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="25.5" r="15" s="6">
+          <t>AI2</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="38.25" r="15" s="6">
       <c r="A15" s="12" t="inlineStr">
         <is>
-          <t>CSC03_01</t>
+          <t>KKT703.1</t>
         </is>
       </c>
       <c r="B15" s="13" t="inlineStr">
         <is>
-          <t>Наличие напряжения на вводе №1 (220В) ПТ-2.КЦ</t>
+          <t>Запуск системы оповещения о пожаре в электрозале магистральной насосной (003). Кнопка пуска N1</t>
         </is>
       </c>
       <c r="C15" s="14" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="D15" s="15" t="inlineStr">
@@ -922,24 +937,24 @@
       </c>
       <c r="E15" s="16" t="inlineStr">
         <is>
-          <t>DI3</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
+          <t>AI3</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="38.25" r="16" s="6">
       <c r="A16" s="12" t="inlineStr">
         <is>
-          <t>CSC04_01</t>
+          <t>KKT704.1</t>
         </is>
       </c>
       <c r="B16" s="13" t="inlineStr">
         <is>
-          <t>Исправность УЗИП Z1 ПТ-2.КЦ</t>
+          <t>Запуск системы оповещения о пожаре на площадке подпорной насосной станции (004). Кнопка пуска N1</t>
         </is>
       </c>
       <c r="C16" s="14" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="D16" s="15" t="inlineStr">
@@ -949,24 +964,24 @@
       </c>
       <c r="E16" s="16" t="inlineStr">
         <is>
-          <t>DI4</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="25.5" r="17" s="6">
+          <t>AI4</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="38.25" r="17" s="6">
       <c r="A17" s="12" t="inlineStr">
         <is>
-          <t>CSC05_01</t>
+          <t>KKT704.3</t>
         </is>
       </c>
       <c r="B17" s="13" t="inlineStr">
         <is>
-          <t>Наличие напряжения на распределительной шине ввод 1 ПТ-2.КЦ</t>
+          <t>Запуск системы оповещения о пожаре на площадке подпорной насосной станции (004). Кнопка пуска N3</t>
         </is>
       </c>
       <c r="C17" s="14" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="D17" s="15" t="inlineStr">
@@ -976,24 +991,24 @@
       </c>
       <c r="E17" s="16" t="inlineStr">
         <is>
-          <t>DI5</t>
+          <t>AI5</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="25.5" r="18" s="6">
       <c r="A18" s="12" t="inlineStr">
         <is>
-          <t>CSC06_01</t>
+          <t>KKT708.1</t>
         </is>
       </c>
       <c r="B18" s="13" t="inlineStr">
         <is>
-          <t>Наличие напряжения на вводе 1 АВР вентиляции ПТ-2.КЦ</t>
+          <t>Запуск системы оповещения о пожаре в помещении ЗРУ (214). Кнопка пуска N1</t>
         </is>
       </c>
       <c r="C18" s="14" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="D18" s="15" t="inlineStr">
@@ -1003,24 +1018,24 @@
       </c>
       <c r="E18" s="16" t="inlineStr">
         <is>
-          <t>DI6</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="25.5" r="19" s="6">
+          <t>AI6</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="38.25" r="19" s="6">
       <c r="A19" s="12" t="inlineStr">
         <is>
-          <t>CSC07_01</t>
+          <t>DT711.9</t>
         </is>
       </c>
       <c r="B19" s="13" t="inlineStr">
         <is>
-          <t>Наличие напряжения на клеммном блоке X1 вентиляции ПТ-2.КЦ</t>
+          <t>Пожар в помещении аппаратной здания ЗРУ, КТП (214) с обрывом или КЗ соединительных линии</t>
         </is>
       </c>
       <c r="C19" s="14" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="D19" s="15" t="inlineStr">
@@ -1030,24 +1045,20 @@
       </c>
       <c r="E19" s="16" t="inlineStr">
         <is>
-          <t>DI7</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="25.5" r="20" s="6">
-      <c r="A20" s="12" t="inlineStr">
-        <is>
-          <t>CSC08_01</t>
-        </is>
-      </c>
+          <t>AI7</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="12" t="n"/>
       <c r="B20" s="13" t="inlineStr">
         <is>
-          <t>Наличие напряжения на клеммном блоке X1.1 вентиляции ПТ-2.КЦ</t>
+          <t>Резерв</t>
         </is>
       </c>
       <c r="C20" s="14" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="D20" s="15" t="inlineStr">
@@ -1057,382 +1068,385 @@
       </c>
       <c r="E20" s="16" t="inlineStr">
         <is>
-          <t>DI8</t>
+          <t>AI8</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="25.5" r="21" s="6">
-      <c r="A21" s="17" t="inlineStr">
-        <is>
-          <t>CSC09_01</t>
-        </is>
-      </c>
-      <c r="B21" s="18" t="inlineStr">
-        <is>
-          <t>Наличие напряжения на вводе 1 АРМ оператора (рез.) ПТ-2.КЦ</t>
+      <c r="A21" s="12" t="inlineStr">
+        <is>
+          <t>DC703.3</t>
+        </is>
+      </c>
+      <c r="B21" s="13" t="inlineStr">
+        <is>
+          <t>Электрозал здания магистральной насосной (003). Пожар. Шлейф 3</t>
         </is>
       </c>
       <c r="C21" s="14" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="D21" s="15" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E21" s="16" t="inlineStr">
         <is>
-          <t>DI9</t>
-        </is>
-      </c>
-      <c r="F21" s="19" t="inlineStr">
-        <is>
-          <t>Исправлено на "Наличие напряжения на вводе 1 АРМ оператора (рез.) ПТ-2.КЦ"</t>
-        </is>
-      </c>
-      <c r="G21" s="20" t="n"/>
-      <c r="H21" s="20" t="n"/>
-      <c r="I21" s="20" t="n"/>
-      <c r="J21" s="20" t="n"/>
-    </row>
-    <row customHeight="1" ht="25.5" r="22" s="6">
+          <t>AI1</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="12" t="inlineStr">
         <is>
-          <t>CSC10_01</t>
+          <t>DC708.3</t>
         </is>
       </c>
       <c r="B22" s="13" t="inlineStr">
         <is>
-          <t>Наличие напряжения на вводе БП G1 ПТ-2.КЦ</t>
+          <t>Помещение ЗРУ (214). Пожар. Шлейф 3</t>
         </is>
       </c>
       <c r="C22" s="14" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="D22" s="15" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E22" s="16" t="inlineStr">
         <is>
-          <t>DI10</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="25.5" r="23" s="6">
+          <t>AI2</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="38.25" r="23" s="6">
       <c r="A23" s="12" t="inlineStr">
         <is>
-          <t>CSC11_01</t>
+          <t>OPC7014.1</t>
         </is>
       </c>
       <c r="B23" s="13" t="inlineStr">
         <is>
-          <t>Наличие напряжения на выходе БП G1 ПТ-2.КЦ</t>
+          <t>Обрыв или КЗ соединительных линий сирены "Пожар" N1 в насосном зале здания магистральной насосной (003)</t>
         </is>
       </c>
       <c r="C23" s="14" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="D23" s="15" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E23" s="16" t="inlineStr">
         <is>
-          <t>DI11</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
+          <t>AI3</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="38.25" r="24" s="6">
       <c r="A24" s="12" t="inlineStr">
         <is>
-          <t>CSC12_01</t>
+          <t>OPC7011.1</t>
         </is>
       </c>
       <c r="B24" s="13" t="inlineStr">
         <is>
-          <t>Исправность БП G1 ПТ-2.КЦ</t>
+          <t>Обрыв или КЗ соединительных линий табло "Пена-не входить!" N1 в насосном зале здания магистральной насосной (003)</t>
         </is>
       </c>
       <c r="C24" s="14" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="D24" s="15" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E24" s="16" t="inlineStr">
         <is>
-          <t>DI12</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
+          <t>AI4</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="51" r="25" s="6">
       <c r="A25" s="12" t="inlineStr">
         <is>
-          <t>CSC13_01</t>
+          <t>OPC7012.1</t>
         </is>
       </c>
       <c r="B25" s="13" t="inlineStr">
         <is>
-          <t>Исправность ИБП G2 ПТ-2.КЦ</t>
+          <t>Обрыв или КЗ соединительных линий табло "Автоматическое пожаротушение отключено" N1 в насосном зале здания магистральной насосной (003)</t>
         </is>
       </c>
       <c r="C25" s="14" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="D25" s="15" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E25" s="16" t="inlineStr">
         <is>
-          <t>DI13</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
+          <t>AI5</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="38.25" r="26" s="6">
       <c r="A26" s="12" t="inlineStr">
         <is>
-          <t>CSC14_01</t>
+          <t>OPC7014.3</t>
         </is>
       </c>
       <c r="B26" s="13" t="inlineStr">
         <is>
-          <t>Переход на батарею ИБП G2 ПТ-2.КЦ</t>
+          <t>Обрыв или КЗ соединительных линий сирены "Пожар" N3 в насосном зале здания магистральной насосной (003)</t>
         </is>
       </c>
       <c r="C26" s="14" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="D26" s="15" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E26" s="16" t="inlineStr">
         <is>
-          <t>DI14</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
+          <t>AI6</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="38.25" r="27" s="6">
       <c r="A27" s="12" t="inlineStr">
         <is>
-          <t>CSC15_01</t>
+          <t>OPC7013.1</t>
         </is>
       </c>
       <c r="B27" s="13" t="inlineStr">
         <is>
-          <t>Батарея разряжена ИБП G2 ПТ-2.КЦ</t>
+          <t>Обрыв или КЗ соединительных линий табло "Пена-уходи!" N1 в насосном зале здания магистральной насосной (003)</t>
         </is>
       </c>
       <c r="C27" s="14" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="D27" s="15" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E27" s="16" t="inlineStr">
         <is>
-          <t>DI15</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="25.5" r="28" s="6">
+          <t>AI7</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="38.25" r="28" s="6">
       <c r="A28" s="12" t="inlineStr">
         <is>
-          <t>CSC16_01</t>
+          <t>OPC7021.1</t>
         </is>
       </c>
       <c r="B28" s="13" t="inlineStr">
         <is>
-          <t>Наличие напряжения на выходе ИБП G2 ПТ-2.КЦ</t>
+          <t>Обрыв или КЗ соединительных линий табло "Пена-не входить!" в маслоприямке здания магистральной насосной (003)</t>
         </is>
       </c>
       <c r="C28" s="14" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="D28" s="15" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E28" s="16" t="inlineStr">
         <is>
-          <t>DI16</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="12" t="n"/>
+          <t>AI8</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="51" r="29" s="6">
+      <c r="A29" s="12" t="inlineStr">
+        <is>
+          <t>OPC7022.1</t>
+        </is>
+      </c>
       <c r="B29" s="13" t="inlineStr">
         <is>
-          <t>Резерв</t>
+          <t>Обрыв или КЗ соединительных линий табло "Автоматическое пожаротушение отключено" в маслоприямке здания магистральной насосной (003)</t>
         </is>
       </c>
       <c r="C29" s="14" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="D29" s="15" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E29" s="16" t="inlineStr">
         <is>
-          <t>DI17</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="12" t="n"/>
+          <t>AI1</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="38.25" r="30" s="6">
+      <c r="A30" s="12" t="inlineStr">
+        <is>
+          <t>OPC7023.1</t>
+        </is>
+      </c>
       <c r="B30" s="13" t="inlineStr">
         <is>
-          <t>Резерв</t>
+          <t>Обрыв или КЗ соединительных линий табло "Пена-уходи!" в маслоприямке здания магистральной насосной (003)</t>
         </is>
       </c>
       <c r="C30" s="14" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="D30" s="15" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E30" s="16" t="inlineStr">
         <is>
-          <t>DI18</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="12" t="n"/>
+          <t>AI2</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="38.25" r="31" s="6">
+      <c r="A31" s="12" t="inlineStr">
+        <is>
+          <t>OPC7034.1</t>
+        </is>
+      </c>
       <c r="B31" s="13" t="inlineStr">
         <is>
-          <t>Резерв</t>
+          <t>Обрыв или КЗ соединительных линий сирены "Пожар" N1 в электрозале магистральной насосной (003)</t>
         </is>
       </c>
       <c r="C31" s="14" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="D31" s="15" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E31" s="16" t="inlineStr">
         <is>
-          <t>DI19</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="25.5" r="32" s="6">
+          <t>AI3</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="38.25" r="32" s="6">
       <c r="A32" s="12" t="inlineStr">
         <is>
-          <t>CSC20_01</t>
+          <t>OPC7031.1</t>
         </is>
       </c>
       <c r="B32" s="13" t="inlineStr">
         <is>
-          <t>Наличие напряжения на коммутаторе A5 ПТ-2.КЦ</t>
+          <t>Обрыв или КЗ соединительных линий табло "Пожар!" N1 в электрозале магистральной насосной (003)</t>
         </is>
       </c>
       <c r="C32" s="14" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="D32" s="15" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E32" s="16" t="inlineStr">
         <is>
-          <t>DI20</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
+          <t>AI4</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="38.25" r="33" s="6">
       <c r="A33" s="12" t="inlineStr">
         <is>
-          <t>CSC21_01</t>
+          <t>OPC7034.3</t>
         </is>
       </c>
       <c r="B33" s="13" t="inlineStr">
         <is>
-          <t>Исправность сети коммутатора A5 ПТ-2.КЦ</t>
+          <t>Обрыв или КЗ соединительных линий сирены "Пожар" N3 в электрозале магистральной насосной (003)</t>
         </is>
       </c>
       <c r="C33" s="14" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="D33" s="15" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E33" s="16" t="inlineStr">
         <is>
-          <t>DI21</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="25.5" r="34" s="6">
+          <t>AI5</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="38.25" r="34" s="6">
       <c r="A34" s="12" t="inlineStr">
         <is>
-          <t>CSC22_01</t>
+          <t>OPC7031.3</t>
         </is>
       </c>
       <c r="B34" s="13" t="inlineStr">
         <is>
-          <t>Исправность предохранителей клеммного блока 1X1 ПТ-2.КЦ</t>
+          <t>Обрыв или КЗ соединительных линий табло "Пожар!" N3 в электрозале магистральной насосной (003)</t>
         </is>
       </c>
       <c r="C34" s="14" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="D34" s="15" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E34" s="16" t="inlineStr">
         <is>
-          <t>DI22</t>
+          <t>AI6</t>
         </is>
       </c>
     </row>
@@ -1445,17 +1459,17 @@
       </c>
       <c r="C35" s="14" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="D35" s="15" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E35" s="16" t="inlineStr">
         <is>
-          <t>DI23</t>
+          <t>AI7</t>
         </is>
       </c>
     </row>
@@ -1468,195 +1482,211 @@
       </c>
       <c r="C36" s="14" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="D36" s="15" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E36" s="16" t="inlineStr">
         <is>
-          <t>DI24</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="12" t="n"/>
+          <t>AI8</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25.5" r="37" s="6">
+      <c r="A37" s="12" t="inlineStr">
+        <is>
+          <t>OPC7084.1</t>
+        </is>
+      </c>
       <c r="B37" s="13" t="inlineStr">
         <is>
-          <t>Резерв</t>
+          <t>Обрыв или КЗ соединительных линий сирены "Пожар" N1 в помещении ЗРУ (214)</t>
         </is>
       </c>
       <c r="C37" s="14" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="D37" s="15" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E37" s="16" t="inlineStr">
         <is>
-          <t>DI25</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="12" t="n"/>
+          <t>AI1</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25.5" r="38" s="6">
+      <c r="A38" s="12" t="inlineStr">
+        <is>
+          <t>OPC7081.1</t>
+        </is>
+      </c>
       <c r="B38" s="13" t="inlineStr">
         <is>
-          <t>Резерв</t>
+          <t>Обрыв или КЗ соединительных линий табло "Пожар!" N1 в помещении ЗРУ (214)</t>
         </is>
       </c>
       <c r="C38" s="14" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="D38" s="15" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E38" s="16" t="inlineStr">
         <is>
-          <t>DI26</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="12" t="n"/>
+          <t>AI2</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25.5" r="39" s="6">
+      <c r="A39" s="12" t="inlineStr">
+        <is>
+          <t>OPC7084.4</t>
+        </is>
+      </c>
       <c r="B39" s="13" t="inlineStr">
         <is>
-          <t>Резерв</t>
+          <t>Обрыв или КЗ соединительных линий сирены "Пожар" N4 в помещении ЗРУ (214)</t>
         </is>
       </c>
       <c r="C39" s="14" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="D39" s="15" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E39" s="16" t="inlineStr">
         <is>
-          <t>DI27</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="12" t="n"/>
+          <t>AI3</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25.5" r="40" s="6">
+      <c r="A40" s="12" t="inlineStr">
+        <is>
+          <t>OPC7081.4</t>
+        </is>
+      </c>
       <c r="B40" s="13" t="inlineStr">
         <is>
-          <t>Резерв</t>
+          <t>Обрыв или КЗ соединительных линий табло "Пожар!" N4 в помещении ЗРУ (214)</t>
         </is>
       </c>
       <c r="C40" s="14" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="D40" s="15" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E40" s="16" t="inlineStr">
         <is>
-          <t>DI28</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="12" t="n"/>
+          <t>AI4</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25.5" r="41" s="6">
+      <c r="A41" s="12" t="inlineStr">
+        <is>
+          <t>OPC7084.2</t>
+        </is>
+      </c>
       <c r="B41" s="13" t="inlineStr">
         <is>
-          <t>Резерв</t>
+          <t>Обрыв или КЗ соединительных линий сирены "Пожар" N2 в помещении ЗРУ (214)</t>
         </is>
       </c>
       <c r="C41" s="14" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="D41" s="15" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E41" s="16" t="inlineStr">
         <is>
-          <t>DI29</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="63.75" r="42" s="6">
+          <t>AI5</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25.5" r="42" s="6">
       <c r="A42" s="12" t="inlineStr">
         <is>
-          <t>_ЗРУ, КТП (214).Аппаратная НПС-2_Шкаф ПТ-2.КЦ_0X1_1</t>
+          <t>OPC7081.2</t>
         </is>
       </c>
       <c r="B42" s="13" t="inlineStr">
         <is>
-          <t>Резерв</t>
+          <t>Обрыв или КЗ соединительных линий табло "Пожар!" N2 в помещении ЗРУ (214)</t>
         </is>
       </c>
       <c r="C42" s="14" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="D42" s="15" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E42" s="16" t="inlineStr">
         <is>
-          <t>DI30</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="63.75" r="43" s="6">
+          <t>AI6</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="38.25" r="43" s="6">
       <c r="A43" s="12" t="inlineStr">
         <is>
-          <t>_ЗРУ, КТП (214).Аппаратная НПС-2_Шкаф ПТ-2.КЦ_0X1_2</t>
+          <t>OPC7044.1</t>
         </is>
       </c>
       <c r="B43" s="13" t="inlineStr">
         <is>
-          <t>Резерв</t>
+          <t>Обрыв или КЗ соединительных линий сирены "Пожар" N1 на площадке подпорной насосной станции (004)</t>
         </is>
       </c>
       <c r="C43" s="14" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="D43" s="15" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E43" s="16" t="inlineStr">
         <is>
-          <t>DI31</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="63.75" r="44" s="6">
-      <c r="A44" s="12" t="inlineStr">
-        <is>
-          <t>_ЗРУ, КТП (214).Аппаратная НПС-2_Шкаф ПТ-2.КЦ_0X1_3</t>
-        </is>
-      </c>
+          <t>AI7</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="12" t="n"/>
       <c r="B44" s="13" t="inlineStr">
         <is>
           <t>Резерв</t>
@@ -1664,604 +1694,625 @@
       </c>
       <c r="C44" s="14" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="D44" s="15" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E44" s="16" t="inlineStr">
         <is>
-          <t>DI32</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="76.5" r="45" s="6">
+          <t>AI8</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25.5" r="45" s="6">
       <c r="A45" s="12" t="inlineStr">
         <is>
-          <t>_ЗРУ, КТП (214).Аппаратная НПС-2_Шкаф ПТ-2.КЦ_7XT1_1</t>
+          <t>CSC01_1</t>
         </is>
       </c>
       <c r="B45" s="13" t="inlineStr">
         <is>
-          <t>Обмен информацией между шкафами ПТ-2.КЦ и МНС-2.КЦ</t>
+          <t>Общая неисправность системы питания ПТ-2.УСО.1</t>
         </is>
       </c>
       <c r="C45" s="14" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="D45" s="15" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E45" s="16" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="76.5" r="46" s="6">
+          <t>DI1</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25.5" r="46" s="6">
       <c r="A46" s="12" t="inlineStr">
         <is>
-          <t>_ЗРУ, КТП (214).Аппаратная НПС-2_Шкаф ПТ-2.КЦ_7XT2_1</t>
+          <t>CSC02_1</t>
         </is>
       </c>
       <c r="B46" s="13" t="inlineStr">
         <is>
-          <t>Обмен информацией между шкафами ПТ-2.КЦ и ПНС-2.КЦ</t>
+          <t>Неисправность оборудования питания (основной канал) ПТ-2.УСО.1</t>
         </is>
       </c>
       <c r="C46" s="14" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="D46" s="15" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E46" s="16" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="76.5" r="47" s="6">
+          <t>DI2</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25.5" r="47" s="6">
       <c r="A47" s="12" t="inlineStr">
         <is>
-          <t>_ЗРУ, КТП (214).Аппаратная НПС-2_Шкаф ПТ-2.КЦ_7XT3_1</t>
+          <t>CSC03_1</t>
         </is>
       </c>
       <c r="B47" s="13" t="inlineStr">
         <is>
-          <t>Обмен информацией между шкафами ПТ-2.КЦ и АСУ ПТ НПС-1 и РП (КТС-2000)</t>
+          <t>Наличие напряжения на вводе №1 (220В) ПТ-2.УСО.1</t>
         </is>
       </c>
       <c r="C47" s="14" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="D47" s="15" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E47" s="16" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="76.5" r="48" s="6">
+          <t>DI3</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="12" t="inlineStr">
         <is>
-          <t>_ЗРУ, КТП (214).Аппаратная НПС-2_Шкаф ПТ-2.КЦ_7XT4_1</t>
+          <t>CSC04_1</t>
         </is>
       </c>
       <c r="B48" s="13" t="inlineStr">
         <is>
-          <t>Резерв</t>
+          <t>Исправность УЗИП Z1 ПТ-2.УСО.1</t>
         </is>
       </c>
       <c r="C48" s="14" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="D48" s="15" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E48" s="16" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>DI4</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="25.5" r="49" s="6">
       <c r="A49" s="12" t="inlineStr">
         <is>
-          <t>CSC33_01</t>
+          <t>CSC05_1</t>
         </is>
       </c>
       <c r="B49" s="13" t="inlineStr">
         <is>
-          <t>Неисправность оборудования питания (резервный канал) ПТ-2.КЦ</t>
+          <t>Наличие напряжения на распределительной шине ввод 1 ПТ-2.УСО.1</t>
         </is>
       </c>
       <c r="C49" s="14" t="inlineStr">
         <is>
-          <t>A4</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="D49" s="15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E49" s="16" t="inlineStr">
         <is>
-          <t>DI1</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="12" t="n"/>
+          <t>DI5</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25.5" r="50" s="6">
+      <c r="A50" s="12" t="inlineStr">
+        <is>
+          <t>CSC06_1</t>
+        </is>
+      </c>
       <c r="B50" s="13" t="inlineStr">
         <is>
-          <t>Резерв</t>
+          <t>Наличие напряжения на вводе 1 АВР вентиляции ПТ-2.УСО.1</t>
         </is>
       </c>
       <c r="C50" s="14" t="inlineStr">
         <is>
-          <t>A4</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="D50" s="15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E50" s="16" t="inlineStr">
         <is>
-          <t>DI2</t>
+          <t>DI6</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="25.5" r="51" s="6">
       <c r="A51" s="12" t="inlineStr">
         <is>
-          <t>CSC35_01</t>
+          <t>CSC07_1</t>
         </is>
       </c>
       <c r="B51" s="13" t="inlineStr">
         <is>
-          <t>Наличие напряжения на вводе №2 (220В) ПТ-2.КЦ</t>
+          <t>Наличие напряжения на клеммном блоке X1 вентиляции ПТ-2.УСО.1</t>
         </is>
       </c>
       <c r="C51" s="14" t="inlineStr">
         <is>
-          <t>A4</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="D51" s="15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E51" s="16" t="inlineStr">
         <is>
-          <t>DI3</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
+          <t>DI7</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25.5" r="52" s="6">
       <c r="A52" s="12" t="inlineStr">
         <is>
-          <t>CSC36_01</t>
+          <t>CSC08_1</t>
         </is>
       </c>
       <c r="B52" s="13" t="inlineStr">
         <is>
-          <t>Исправность УЗИП Z2 ПТ-2.КЦ</t>
+          <t>Наличие напряжения на вводе БП G1 ПТ-2.УСО.1</t>
         </is>
       </c>
       <c r="C52" s="14" t="inlineStr">
         <is>
-          <t>A4</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="D52" s="15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E52" s="16" t="inlineStr">
         <is>
-          <t>DI4</t>
+          <t>DI8</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="25.5" r="53" s="6">
       <c r="A53" s="12" t="inlineStr">
         <is>
-          <t>CSC37_01</t>
+          <t>CSC09_1</t>
         </is>
       </c>
       <c r="B53" s="13" t="inlineStr">
         <is>
-          <t>Наличие напряжения на распределительной шине ввод 2 ПТ-2.КЦ</t>
+          <t>Наличие напряжения на вводе БП G5 ПТ-2.УСО.1</t>
         </is>
       </c>
       <c r="C53" s="14" t="inlineStr">
         <is>
-          <t>A4</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="D53" s="15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E53" s="16" t="inlineStr">
         <is>
-          <t>DI5</t>
+          <t>DI9</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="25.5" r="54" s="6">
       <c r="A54" s="12" t="inlineStr">
         <is>
-          <t>CSC38_01</t>
+          <t>CSC10_1</t>
         </is>
       </c>
       <c r="B54" s="13" t="inlineStr">
         <is>
-          <t>Наличие напряжения на вводе 2 АВР вентиляции ПТ-2.КЦ</t>
+          <t>Наличие напряжения на выходе БП G1 ПТ-2.УСО.1</t>
         </is>
       </c>
       <c r="C54" s="14" t="inlineStr">
         <is>
-          <t>A4</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="D54" s="15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E54" s="16" t="inlineStr">
         <is>
-          <t>DI6</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="25.5" r="55" s="6">
+          <t>DI10</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="12" t="inlineStr">
         <is>
-          <t>CSC39_01</t>
+          <t>CSC11_1</t>
         </is>
       </c>
       <c r="B55" s="13" t="inlineStr">
         <is>
-          <t>Наличие напряжения на клеммном блоке X2 освещения ПТ-2.КЦ</t>
+          <t>Исправность БП G1 ПТ-2.УСО.1</t>
         </is>
       </c>
       <c r="C55" s="14" t="inlineStr">
         <is>
-          <t>A4</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="D55" s="15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E55" s="16" t="inlineStr">
         <is>
-          <t>DI7</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="25.5" r="56" s="6">
+          <t>DI11</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="17" t="inlineStr">
         <is>
-          <t>CSC40_01</t>
+          <t>CSC12_1</t>
         </is>
       </c>
       <c r="B56" s="18" t="inlineStr">
         <is>
-          <t>Наличие напряжения на вводе 2 АРМ оператора (рез.) ПТ-2.КЦ</t>
+          <t>Исправность ИБП G2 ПТ-2.УСО.1</t>
         </is>
       </c>
       <c r="C56" s="14" t="inlineStr">
         <is>
-          <t>A4</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="D56" s="15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E56" s="16" t="inlineStr">
         <is>
-          <t>DI8</t>
+          <t>DI12</t>
         </is>
       </c>
       <c r="F56" s="19" t="inlineStr">
         <is>
-          <t>Исправлено на "Наличие напряжения на вводе 2 АРМ оператора (рез.) ПТ-2.КЦ"</t>
+          <t>Исправлено на "Исправность ИБП G2 ПТ-2.УСО.1"</t>
         </is>
       </c>
       <c r="G56" s="20" t="n"/>
       <c r="H56" s="20" t="n"/>
-      <c r="I56" s="20" t="n"/>
-      <c r="J56" s="20" t="n"/>
-    </row>
-    <row customHeight="1" ht="25.5" r="57" s="6">
+    </row>
+    <row r="57">
       <c r="A57" s="12" t="inlineStr">
         <is>
-          <t>CSC41_01</t>
+          <t>CSC13_1</t>
         </is>
       </c>
       <c r="B57" s="13" t="inlineStr">
         <is>
-          <t>Наличие напряжения на вводе БП G3 ПТ-2.КЦ</t>
+          <t>Переход на батарею ИБП G2 ПТ-2.УСО.1</t>
         </is>
       </c>
       <c r="C57" s="14" t="inlineStr">
         <is>
-          <t>A4</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="D57" s="15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E57" s="16" t="inlineStr">
         <is>
-          <t>DI9</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="25.5" r="58" s="6">
+          <t>DI13</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="12" t="inlineStr">
         <is>
-          <t>CSC42_01</t>
+          <t>CSC14_1</t>
         </is>
       </c>
       <c r="B58" s="13" t="inlineStr">
         <is>
-          <t>Наличие напряжения на выходе БП G3 ПТ-2.КЦ</t>
+          <t>Батарея разряжена ИБП G2 ПТ-2.УСО.1</t>
         </is>
       </c>
       <c r="C58" s="14" t="inlineStr">
         <is>
-          <t>A4</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="D58" s="15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E58" s="16" t="inlineStr">
         <is>
-          <t>DI10</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
+          <t>DI14</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25.5" r="59" s="6">
       <c r="A59" s="12" t="inlineStr">
         <is>
-          <t>CSC43_01</t>
+          <t>CSC15_1</t>
         </is>
       </c>
       <c r="B59" s="13" t="inlineStr">
         <is>
-          <t>Исправность БП G3 ПТ-2.КЦ</t>
+          <t>Наличие напряжения на выходе БП G5 ПТ-2.УСО.1</t>
         </is>
       </c>
       <c r="C59" s="14" t="inlineStr">
         <is>
-          <t>A4</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="D59" s="15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E59" s="16" t="inlineStr">
         <is>
-          <t>DI11</t>
+          <t>DI15</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="12" t="inlineStr">
         <is>
-          <t>CSC44_01</t>
+          <t>CSC16_1</t>
         </is>
       </c>
       <c r="B60" s="13" t="inlineStr">
         <is>
-          <t>Исправность ИБП G4 ПТ-2.КЦ</t>
+          <t>Исправность БП G5 ПТ-2.УСО.1</t>
         </is>
       </c>
       <c r="C60" s="14" t="inlineStr">
         <is>
-          <t>A4</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="D60" s="15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E60" s="16" t="inlineStr">
         <is>
-          <t>DI12</t>
+          <t>DI16</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="12" t="inlineStr">
-        <is>
-          <t>CSC45_01</t>
-        </is>
-      </c>
-      <c r="B61" s="13" t="inlineStr">
-        <is>
-          <t>Переход на батарею ИБП G4 ПТ-2.КЦ</t>
+      <c r="A61" s="17" t="inlineStr">
+        <is>
+          <t>CSC17_1</t>
+        </is>
+      </c>
+      <c r="B61" s="18" t="inlineStr">
+        <is>
+          <t>Исправность ИБП G6 ПТ-2.УСО.1</t>
         </is>
       </c>
       <c r="C61" s="14" t="inlineStr">
         <is>
-          <t>A4</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="D61" s="15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E61" s="16" t="inlineStr">
         <is>
-          <t>DI13</t>
-        </is>
-      </c>
+          <t>DI17</t>
+        </is>
+      </c>
+      <c r="F61" s="19" t="inlineStr">
+        <is>
+          <t>Исправлено на "Исправность ИБП G6 ПТ-2.УСО.1"</t>
+        </is>
+      </c>
+      <c r="G61" s="20" t="n"/>
+      <c r="H61" s="20" t="n"/>
     </row>
     <row r="62">
       <c r="A62" s="12" t="inlineStr">
         <is>
-          <t>CSC46_01</t>
+          <t>CSC18_1</t>
         </is>
       </c>
       <c r="B62" s="13" t="inlineStr">
         <is>
-          <t>Батарея разряжена ИБП G4 ПТ-2.КЦ</t>
+          <t>Переход на батарею ИБП G6 ПТ-2.УСО.1</t>
         </is>
       </c>
       <c r="C62" s="14" t="inlineStr">
         <is>
-          <t>A4</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="D62" s="15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E62" s="16" t="inlineStr">
         <is>
-          <t>DI14</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="25.5" r="63" s="6">
+          <t>DI18</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
       <c r="A63" s="12" t="inlineStr">
         <is>
-          <t>CSC47_01</t>
+          <t>CSC19_1</t>
         </is>
       </c>
       <c r="B63" s="13" t="inlineStr">
         <is>
-          <t>Наличие напряжения на выходе ИБП G4 ПТ-2.КЦ</t>
+          <t>Батарея разряжена ИБП G6 ПТ-2.УСО.1</t>
         </is>
       </c>
       <c r="C63" s="14" t="inlineStr">
         <is>
-          <t>A4</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="D63" s="15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E63" s="16" t="inlineStr">
         <is>
-          <t>DI15</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="12" t="n"/>
+          <t>DI19</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25.5" r="64" s="6">
+      <c r="A64" s="12" t="inlineStr">
+        <is>
+          <t>CSC20_1</t>
+        </is>
+      </c>
       <c r="B64" s="13" t="inlineStr">
         <is>
-          <t>Резерв</t>
+          <t>Наличие напряжения на выходе ИБП G2 ПТ-2.УСО.1</t>
         </is>
       </c>
       <c r="C64" s="14" t="inlineStr">
         <is>
-          <t>A4</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="D64" s="15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E64" s="16" t="inlineStr">
         <is>
-          <t>DI16</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="12" t="n"/>
+          <t>DI20</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25.5" r="65" s="6">
+      <c r="A65" s="12" t="inlineStr">
+        <is>
+          <t>CSC21_1</t>
+        </is>
+      </c>
       <c r="B65" s="13" t="inlineStr">
         <is>
-          <t>Резерв</t>
+          <t>Наличие напряжения на выходе ИБП G6 ПТ-2.УСО.1</t>
         </is>
       </c>
       <c r="C65" s="14" t="inlineStr">
         <is>
-          <t>A4</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="D65" s="15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E65" s="16" t="inlineStr">
         <is>
-          <t>DI17</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="12" t="n"/>
+          <t>DI21</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25.5" r="66" s="6">
+      <c r="A66" s="12" t="inlineStr">
+        <is>
+          <t>CSC22_1</t>
+        </is>
+      </c>
       <c r="B66" s="13" t="inlineStr">
         <is>
-          <t>Резерв</t>
+          <t>Исправность предохранителей клеммного блока 1X1 ПТ-2.УСО.1</t>
         </is>
       </c>
       <c r="C66" s="14" t="inlineStr">
         <is>
-          <t>A4</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="D66" s="15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E66" s="16" t="inlineStr">
         <is>
-          <t>DI18</t>
+          <t>DI22</t>
         </is>
       </c>
     </row>
@@ -2274,98 +2325,94 @@
       </c>
       <c r="C67" s="14" t="inlineStr">
         <is>
-          <t>A4</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="D67" s="15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E67" s="16" t="inlineStr">
         <is>
-          <t>DI19</t>
+          <t>DI23</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="25.5" r="68" s="6">
       <c r="A68" s="12" t="inlineStr">
         <is>
-          <t>CSC52_01</t>
+          <t>CSC24_1</t>
         </is>
       </c>
       <c r="B68" s="13" t="inlineStr">
         <is>
-          <t>Наличие напряжения на коммутаторе A6 ПТ-2.КЦ</t>
+          <t>Исправность предохранителей внешней цепи питания группа 1 ПТ-2.УСО.1</t>
         </is>
       </c>
       <c r="C68" s="14" t="inlineStr">
         <is>
-          <t>A4</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="D68" s="15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E68" s="16" t="inlineStr">
         <is>
-          <t>DI20</t>
+          <t>DI24</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="12" t="inlineStr">
-        <is>
-          <t>CSC53_01</t>
-        </is>
-      </c>
+      <c r="A69" s="12" t="n"/>
       <c r="B69" s="13" t="inlineStr">
         <is>
-          <t>Исправность сети коммутатора A6 ПТ-2.КЦ</t>
+          <t>Резерв</t>
         </is>
       </c>
       <c r="C69" s="14" t="inlineStr">
         <is>
-          <t>A4</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="D69" s="15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E69" s="16" t="inlineStr">
         <is>
-          <t>DI21</t>
+          <t>DI25</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="25.5" r="70" s="6">
       <c r="A70" s="12" t="inlineStr">
         <is>
-          <t>CSC54_01</t>
+          <t>CSC26_1</t>
         </is>
       </c>
       <c r="B70" s="13" t="inlineStr">
         <is>
-          <t>Исправность предохранителей клеммного блока 1X2 ПТ-2.КЦ</t>
+          <t>Низкий уровень сопротивления изоляции полевых цепей KR1 ПТ-2.УСО.1</t>
         </is>
       </c>
       <c r="C70" s="14" t="inlineStr">
         <is>
-          <t>A4</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="D70" s="15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E70" s="16" t="inlineStr">
         <is>
-          <t>DI22</t>
+          <t>DI26</t>
         </is>
       </c>
     </row>
@@ -2378,17 +2425,17 @@
       </c>
       <c r="C71" s="14" t="inlineStr">
         <is>
-          <t>A4</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="D71" s="15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E71" s="16" t="inlineStr">
         <is>
-          <t>DI23</t>
+          <t>DI27</t>
         </is>
       </c>
     </row>
@@ -2401,17 +2448,17 @@
       </c>
       <c r="C72" s="14" t="inlineStr">
         <is>
-          <t>A4</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="D72" s="15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E72" s="16" t="inlineStr">
         <is>
-          <t>DI24</t>
+          <t>DI28</t>
         </is>
       </c>
     </row>
@@ -2424,359 +2471,7384 @@
       </c>
       <c r="C73" s="14" t="inlineStr">
         <is>
-          <t>A4</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="D73" s="15" t="inlineStr">
         <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E73" s="16" t="inlineStr">
+        <is>
+          <t>DI29</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="76.5" r="74" s="6">
+      <c r="A74" s="12" t="inlineStr">
+        <is>
+          <t>_ЗРУ, КТП (214).Аппаратная НПС-2_Шкаф ПТ-2.УСО.1_0X1_1</t>
+        </is>
+      </c>
+      <c r="B74" s="13" t="inlineStr">
+        <is>
+          <t>Резерв</t>
+        </is>
+      </c>
+      <c r="C74" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D74" s="15" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E74" s="16" t="inlineStr">
+        <is>
+          <t>DI30</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="76.5" r="75" s="6">
+      <c r="A75" s="12" t="inlineStr">
+        <is>
+          <t>_ЗРУ, КТП (214).Аппаратная НПС-2_Шкаф ПТ-2.УСО.1_0X1_2</t>
+        </is>
+      </c>
+      <c r="B75" s="13" t="inlineStr">
+        <is>
+          <t>Резерв</t>
+        </is>
+      </c>
+      <c r="C75" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D75" s="15" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E75" s="16" t="inlineStr">
+        <is>
+          <t>DI31</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="76.5" r="76" s="6">
+      <c r="A76" s="12" t="inlineStr">
+        <is>
+          <t>_ЗРУ, КТП (214).Аппаратная НПС-2_Шкаф ПТ-2.УСО.1_0X1_3</t>
+        </is>
+      </c>
+      <c r="B76" s="13" t="inlineStr">
+        <is>
+          <t>Резерв</t>
+        </is>
+      </c>
+      <c r="C76" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D76" s="15" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E76" s="16" t="inlineStr">
+        <is>
+          <t>DI32</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="38.25" r="77" s="6">
+      <c r="A77" s="12" t="inlineStr">
+        <is>
+          <t>PPC708.8</t>
+        </is>
+      </c>
+      <c r="B77" s="13" t="inlineStr">
+        <is>
+          <t>Срабатывание шлейфов ПС в смежных помещениях с ЗРУ (214) - включить сирену. Сигнал из ПС</t>
+        </is>
+      </c>
+      <c r="C77" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D77" s="15" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E77" s="16" t="inlineStr">
+        <is>
+          <t>DI1</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="12" t="n"/>
+      <c r="B78" s="13" t="inlineStr">
+        <is>
+          <t>Резерв</t>
+        </is>
+      </c>
+      <c r="C78" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D78" s="15" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E78" s="16" t="inlineStr">
+        <is>
+          <t>DI2</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="12" t="n"/>
+      <c r="B79" s="13" t="inlineStr">
+        <is>
+          <t>Резерв</t>
+        </is>
+      </c>
+      <c r="C79" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D79" s="15" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E79" s="16" t="inlineStr">
+        <is>
+          <t>DI3</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="12" t="n"/>
+      <c r="B80" s="13" t="inlineStr">
+        <is>
+          <t>Резерв</t>
+        </is>
+      </c>
+      <c r="C80" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D80" s="15" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E80" s="16" t="inlineStr">
+        <is>
+          <t>DI4</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="12" t="n"/>
+      <c r="B81" s="13" t="inlineStr">
+        <is>
+          <t>Резерв</t>
+        </is>
+      </c>
+      <c r="C81" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D81" s="15" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E81" s="16" t="inlineStr">
+        <is>
+          <t>DI5</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="12" t="n"/>
+      <c r="B82" s="13" t="inlineStr">
+        <is>
+          <t>Резерв</t>
+        </is>
+      </c>
+      <c r="C82" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D82" s="15" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E82" s="16" t="inlineStr">
+        <is>
+          <t>DI6</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="12" t="inlineStr">
+        <is>
+          <t>OKC66a</t>
+        </is>
+      </c>
+      <c r="B83" s="13" t="inlineStr">
+        <is>
+          <t>Задвижка №66а.Сигнал от КВО</t>
+        </is>
+      </c>
+      <c r="C83" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D83" s="15" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E83" s="16" t="inlineStr">
+        <is>
+          <t>DI7</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="12" t="inlineStr">
+        <is>
+          <t>CKC66a</t>
+        </is>
+      </c>
+      <c r="B84" s="13" t="inlineStr">
+        <is>
+          <t>Задвижка №66а.Cигнал от КВЗ</t>
+        </is>
+      </c>
+      <c r="C84" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D84" s="15" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E84" s="16" t="inlineStr">
+        <is>
+          <t>DI8</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="12" t="inlineStr">
+        <is>
+          <t>ODC66a</t>
+        </is>
+      </c>
+      <c r="B85" s="13" t="inlineStr">
+        <is>
+          <t>Задвижка №66а.Сигнал от МПО</t>
+        </is>
+      </c>
+      <c r="C85" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D85" s="15" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E85" s="16" t="inlineStr">
+        <is>
+          <t>DI9</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="12" t="inlineStr">
+        <is>
+          <t>CDC66a</t>
+        </is>
+      </c>
+      <c r="B86" s="13" t="inlineStr">
+        <is>
+          <t>Задвижка №66а.Сигнал от МПЗ</t>
+        </is>
+      </c>
+      <c r="C86" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D86" s="15" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E86" s="16" t="inlineStr">
+        <is>
+          <t>DI10</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="12" t="inlineStr">
+        <is>
+          <t>MCO66a</t>
+        </is>
+      </c>
+      <c r="B87" s="13" t="inlineStr">
+        <is>
+          <t>Задвижка №66а.Сигнал от ВММО</t>
+        </is>
+      </c>
+      <c r="C87" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D87" s="15" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E87" s="16" t="inlineStr">
+        <is>
+          <t>DI11</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="12" t="inlineStr">
+        <is>
+          <t>MCC66a</t>
+        </is>
+      </c>
+      <c r="B88" s="13" t="inlineStr">
+        <is>
+          <t>Задвижка №66а.Сигнал от ВММЗ</t>
+        </is>
+      </c>
+      <c r="C88" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D88" s="15" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E88" s="16" t="inlineStr">
+        <is>
+          <t>DI12</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25.5" r="89" s="6">
+      <c r="A89" s="12" t="inlineStr">
+        <is>
+          <t>EC66a</t>
+        </is>
+      </c>
+      <c r="B89" s="13" t="inlineStr">
+        <is>
+          <t>Задвижка №66а.Контроль наличия напряжения</t>
+        </is>
+      </c>
+      <c r="C89" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D89" s="15" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E89" s="16" t="inlineStr">
+        <is>
+          <t>DI13</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="12" t="inlineStr">
+        <is>
+          <t>OFC66a</t>
+        </is>
+      </c>
+      <c r="B90" s="13" t="inlineStr">
+        <is>
+          <t>Задвижка №66а.Исправность цепи открытия</t>
+        </is>
+      </c>
+      <c r="C90" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D90" s="15" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E90" s="16" t="inlineStr">
+        <is>
+          <t>DI14</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="12" t="inlineStr">
+        <is>
+          <t>CFC66a</t>
+        </is>
+      </c>
+      <c r="B91" s="13" t="inlineStr">
+        <is>
+          <t>Задвижка №66а.Исправность цепи закрытия</t>
+        </is>
+      </c>
+      <c r="C91" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D91" s="15" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E91" s="16" t="inlineStr">
+        <is>
+          <t>DI15</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="12" t="inlineStr">
+        <is>
+          <t>OKCr.2.1</t>
+        </is>
+      </c>
+      <c r="B92" s="13" t="inlineStr">
+        <is>
+          <t>Задвижка №r.2.1 (резерв).Сигнал от КВО</t>
+        </is>
+      </c>
+      <c r="C92" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D92" s="15" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E92" s="16" t="inlineStr">
+        <is>
+          <t>DI16</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="12" t="inlineStr">
+        <is>
+          <t>CKCr.2.1</t>
+        </is>
+      </c>
+      <c r="B93" s="13" t="inlineStr">
+        <is>
+          <t>Задвижка №r.2.1 (резерв).Сигнал от КВЗ</t>
+        </is>
+      </c>
+      <c r="C93" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D93" s="15" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E93" s="16" t="inlineStr">
+        <is>
+          <t>DI17</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="12" t="inlineStr">
+        <is>
+          <t>ODCr.2.1</t>
+        </is>
+      </c>
+      <c r="B94" s="13" t="inlineStr">
+        <is>
+          <t>Задвижка №r.2.1 (резерв).Cигнал от МПО</t>
+        </is>
+      </c>
+      <c r="C94" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D94" s="15" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E94" s="16" t="inlineStr">
+        <is>
+          <t>DI18</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="12" t="inlineStr">
+        <is>
+          <t>CDCr.2.1</t>
+        </is>
+      </c>
+      <c r="B95" s="13" t="inlineStr">
+        <is>
+          <t>Задвижка №r.2.1 (резерв).Сигнал от МПЗ</t>
+        </is>
+      </c>
+      <c r="C95" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D95" s="15" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E95" s="16" t="inlineStr">
+        <is>
+          <t>DI19</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="12" t="inlineStr">
+        <is>
+          <t>MCOr.2.1</t>
+        </is>
+      </c>
+      <c r="B96" s="13" t="inlineStr">
+        <is>
+          <t>Задвижка №r.2.1 (резерв).Сигнал от ВММО</t>
+        </is>
+      </c>
+      <c r="C96" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D96" s="15" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E96" s="16" t="inlineStr">
+        <is>
+          <t>DI20</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="12" t="inlineStr">
+        <is>
+          <t>MCCr.2.1</t>
+        </is>
+      </c>
+      <c r="B97" s="13" t="inlineStr">
+        <is>
+          <t>Задвижка №r.2.1 (резерв).Сигнал от ВММЗ</t>
+        </is>
+      </c>
+      <c r="C97" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D97" s="15" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E97" s="16" t="inlineStr">
+        <is>
+          <t>DI21</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25.5" r="98" s="6">
+      <c r="A98" s="12" t="inlineStr">
+        <is>
+          <t>ECr.2.1</t>
+        </is>
+      </c>
+      <c r="B98" s="13" t="inlineStr">
+        <is>
+          <t>Задвижка №r.2.1 (резерв).Контроль наличия напряжения</t>
+        </is>
+      </c>
+      <c r="C98" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D98" s="15" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E98" s="16" t="inlineStr">
+        <is>
+          <t>DI22</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25.5" r="99" s="6">
+      <c r="A99" s="12" t="inlineStr">
+        <is>
+          <t>OFCr.2.1</t>
+        </is>
+      </c>
+      <c r="B99" s="13" t="inlineStr">
+        <is>
+          <t>Задвижка №r.2.1 (резерв).Исправность цепи открытия</t>
+        </is>
+      </c>
+      <c r="C99" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D99" s="15" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E99" s="16" t="inlineStr">
+        <is>
+          <t>DI23</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25.5" r="100" s="6">
+      <c r="A100" s="12" t="inlineStr">
+        <is>
+          <t>CFCr.2.1</t>
+        </is>
+      </c>
+      <c r="B100" s="13" t="inlineStr">
+        <is>
+          <t>Задвижка №r.2.1 (резерв).Исправность цепи закрытия</t>
+        </is>
+      </c>
+      <c r="C100" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D100" s="15" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E100" s="16" t="inlineStr">
+        <is>
+          <t>DI24</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="76.5" r="101" s="6">
+      <c r="A101" s="12" t="inlineStr">
+        <is>
+          <t>_ЗРУ, КТП (214).Аппаратная НПС-2_Шкаф ПТ-2.УСО.1_0X1_4</t>
+        </is>
+      </c>
+      <c r="B101" s="13" t="inlineStr">
+        <is>
+          <t>Резерв</t>
+        </is>
+      </c>
+      <c r="C101" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D101" s="15" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E101" s="16" t="inlineStr">
+        <is>
+          <t>DI25</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="76.5" r="102" s="6">
+      <c r="A102" s="12" t="inlineStr">
+        <is>
+          <t>_ЗРУ, КТП (214).Аппаратная НПС-2_Шкаф ПТ-2.УСО.1_0X1_5</t>
+        </is>
+      </c>
+      <c r="B102" s="13" t="inlineStr">
+        <is>
+          <t>Резерв</t>
+        </is>
+      </c>
+      <c r="C102" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D102" s="15" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E102" s="16" t="inlineStr">
+        <is>
+          <t>DI26</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="76.5" r="103" s="6">
+      <c r="A103" s="12" t="inlineStr">
+        <is>
+          <t>_ЗРУ, КТП (214).Аппаратная НПС-2_Шкаф ПТ-2.УСО.1_0X1_6</t>
+        </is>
+      </c>
+      <c r="B103" s="13" t="inlineStr">
+        <is>
+          <t>Резерв</t>
+        </is>
+      </c>
+      <c r="C103" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D103" s="15" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E103" s="16" t="inlineStr">
+        <is>
+          <t>DI27</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="76.5" r="104" s="6">
+      <c r="A104" s="12" t="inlineStr">
+        <is>
+          <t>_ЗРУ, КТП (214).Аппаратная НПС-2_Шкаф ПТ-2.УСО.1_0X1_7</t>
+        </is>
+      </c>
+      <c r="B104" s="13" t="inlineStr">
+        <is>
+          <t>Резерв</t>
+        </is>
+      </c>
+      <c r="C104" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D104" s="15" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E104" s="16" t="inlineStr">
+        <is>
+          <t>DI28</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="76.5" r="105" s="6">
+      <c r="A105" s="12" t="inlineStr">
+        <is>
+          <t>_ЗРУ, КТП (214).Аппаратная НПС-2_Шкаф ПТ-2.УСО.1_0X1_8</t>
+        </is>
+      </c>
+      <c r="B105" s="13" t="inlineStr">
+        <is>
+          <t>Резерв</t>
+        </is>
+      </c>
+      <c r="C105" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D105" s="15" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E105" s="16" t="inlineStr">
+        <is>
+          <t>DI29</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="76.5" r="106" s="6">
+      <c r="A106" s="12" t="inlineStr">
+        <is>
+          <t>_ЗРУ, КТП (214).Аппаратная НПС-2_Шкаф ПТ-2.УСО.1_0X1_9</t>
+        </is>
+      </c>
+      <c r="B106" s="13" t="inlineStr">
+        <is>
+          <t>Резерв</t>
+        </is>
+      </c>
+      <c r="C106" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D106" s="15" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E106" s="16" t="inlineStr">
+        <is>
+          <t>DI30</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="76.5" r="107" s="6">
+      <c r="A107" s="12" t="inlineStr">
+        <is>
+          <t>_ЗРУ, КТП (214).Аппаратная НПС-2_Шкаф ПТ-2.УСО.1_0X1_10</t>
+        </is>
+      </c>
+      <c r="B107" s="13" t="inlineStr">
+        <is>
+          <t>Резерв</t>
+        </is>
+      </c>
+      <c r="C107" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D107" s="15" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E107" s="16" t="inlineStr">
+        <is>
+          <t>DI31</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="76.5" r="108" s="6">
+      <c r="A108" s="12" t="inlineStr">
+        <is>
+          <t>_ЗРУ, КТП (214).Аппаратная НПС-2_Шкаф ПТ-2.УСО.1_0X1_11</t>
+        </is>
+      </c>
+      <c r="B108" s="13" t="inlineStr">
+        <is>
+          <t>Резерв</t>
+        </is>
+      </c>
+      <c r="C108" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D108" s="15" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E108" s="16" t="inlineStr">
+        <is>
+          <t>DI32</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25.5" r="109" s="6">
+      <c r="A109" s="12" t="inlineStr">
+        <is>
+          <t>BB7014.1</t>
+        </is>
+      </c>
+      <c r="B109" s="13" t="inlineStr">
+        <is>
+          <t>Сирена "Пожар" N1 в насосном зале здания магистральной насосной (003) - включить</t>
+        </is>
+      </c>
+      <c r="C109" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D109" s="15" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E109" s="16" t="inlineStr">
+        <is>
+          <t>DO1</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="38.25" r="110" s="6">
+      <c r="A110" s="12" t="inlineStr">
+        <is>
+          <t>BB7011.1</t>
+        </is>
+      </c>
+      <c r="B110" s="13" t="inlineStr">
+        <is>
+          <t>Табло "Пена-не входить!" N1 в насосном зале здания магистральной насосной (003) - включить</t>
+        </is>
+      </c>
+      <c r="C110" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D110" s="15" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E110" s="16" t="inlineStr">
+        <is>
+          <t>DO2</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="38.25" r="111" s="6">
+      <c r="A111" s="12" t="inlineStr">
+        <is>
+          <t>BB7012.1</t>
+        </is>
+      </c>
+      <c r="B111" s="13" t="inlineStr">
+        <is>
+          <t>Табло "Автоматическое пожаротушение отключено" N1 в насосном зале здания магистральной насосной (003) - включить</t>
+        </is>
+      </c>
+      <c r="C111" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D111" s="15" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E111" s="16" t="inlineStr">
+        <is>
+          <t>DO3</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25.5" r="112" s="6">
+      <c r="A112" s="12" t="inlineStr">
+        <is>
+          <t>BB7014.3</t>
+        </is>
+      </c>
+      <c r="B112" s="13" t="inlineStr">
+        <is>
+          <t>Сирена "Пожар" N3 в насосном зале здания магистральной насосной (003) - включить</t>
+        </is>
+      </c>
+      <c r="C112" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D112" s="15" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E112" s="16" t="inlineStr">
+        <is>
+          <t>DO4</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="38.25" r="113" s="6">
+      <c r="A113" s="12" t="inlineStr">
+        <is>
+          <t>BB7013.1</t>
+        </is>
+      </c>
+      <c r="B113" s="13" t="inlineStr">
+        <is>
+          <t>Табло "Пена-уходи!" N1 в насосном зале здания магистральной насосной (003) - включить</t>
+        </is>
+      </c>
+      <c r="C113" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D113" s="15" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E113" s="16" t="inlineStr">
+        <is>
+          <t>DO5</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="38.25" r="114" s="6">
+      <c r="A114" s="12" t="inlineStr">
+        <is>
+          <t>BB7021.1</t>
+        </is>
+      </c>
+      <c r="B114" s="13" t="inlineStr">
+        <is>
+          <t>Табло "Пена-не входить!" в маслоприямке здания магистральной насосной (003) - включить</t>
+        </is>
+      </c>
+      <c r="C114" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D114" s="15" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E114" s="16" t="inlineStr">
+        <is>
+          <t>DO6</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="38.25" r="115" s="6">
+      <c r="A115" s="12" t="inlineStr">
+        <is>
+          <t>BB7022.1</t>
+        </is>
+      </c>
+      <c r="B115" s="13" t="inlineStr">
+        <is>
+          <t>Табло "Автоматическое пожаротушение отключено" в маслоприямке здания магистральной насосной (003) - включить</t>
+        </is>
+      </c>
+      <c r="C115" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D115" s="15" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E115" s="16" t="inlineStr">
+        <is>
+          <t>DO7</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25.5" r="116" s="6">
+      <c r="A116" s="12" t="inlineStr">
+        <is>
+          <t>BB7023.1</t>
+        </is>
+      </c>
+      <c r="B116" s="13" t="inlineStr">
+        <is>
+          <t>Табло "Пена-уходи!" в маслоприямке здания магистральной насосной (003) - включить</t>
+        </is>
+      </c>
+      <c r="C116" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D116" s="15" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E116" s="16" t="inlineStr">
+        <is>
+          <t>DO8</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25.5" r="117" s="6">
+      <c r="A117" s="12" t="inlineStr">
+        <is>
+          <t>BB7034.1</t>
+        </is>
+      </c>
+      <c r="B117" s="13" t="inlineStr">
+        <is>
+          <t>Сирена "Пожар" N1 в электрозале магистральной насосной (003) - включить</t>
+        </is>
+      </c>
+      <c r="C117" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D117" s="15" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E117" s="16" t="inlineStr">
+        <is>
+          <t>DO9</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25.5" r="118" s="6">
+      <c r="A118" s="12" t="inlineStr">
+        <is>
+          <t>BB7031.1</t>
+        </is>
+      </c>
+      <c r="B118" s="13" t="inlineStr">
+        <is>
+          <t>Табло "Пожар!" N1 в электрозале магистральной насосной (003) - включить</t>
+        </is>
+      </c>
+      <c r="C118" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D118" s="15" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E118" s="16" t="inlineStr">
+        <is>
+          <t>DO10</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25.5" r="119" s="6">
+      <c r="A119" s="12" t="inlineStr">
+        <is>
+          <t>BB7034.3</t>
+        </is>
+      </c>
+      <c r="B119" s="13" t="inlineStr">
+        <is>
+          <t>Сирена "Пожар" N3 в электрозале магистральной насосной (003) - включить</t>
+        </is>
+      </c>
+      <c r="C119" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D119" s="15" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E119" s="16" t="inlineStr">
+        <is>
+          <t>DO11</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25.5" r="120" s="6">
+      <c r="A120" s="12" t="inlineStr">
+        <is>
+          <t>BB7031.3</t>
+        </is>
+      </c>
+      <c r="B120" s="13" t="inlineStr">
+        <is>
+          <t>Табло "Пожар!" N3 в электрозале магистральной насосной (003) - включить</t>
+        </is>
+      </c>
+      <c r="C120" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D120" s="15" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E120" s="16" t="inlineStr">
+        <is>
+          <t>DO12</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="12" t="n"/>
+      <c r="B121" s="13" t="inlineStr">
+        <is>
+          <t>Резерв</t>
+        </is>
+      </c>
+      <c r="C121" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D121" s="15" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E121" s="16" t="inlineStr">
+        <is>
+          <t>DO13</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="12" t="n"/>
+      <c r="B122" s="13" t="inlineStr">
+        <is>
+          <t>Резерв</t>
+        </is>
+      </c>
+      <c r="C122" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D122" s="15" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E122" s="16" t="inlineStr">
+        <is>
+          <t>DO14</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25.5" r="123" s="6">
+      <c r="A123" s="12" t="inlineStr">
+        <is>
+          <t>BB7084.1</t>
+        </is>
+      </c>
+      <c r="B123" s="13" t="inlineStr">
+        <is>
+          <t>Сирена "Пожар" N1 в помещении ЗРУ (214) - включить</t>
+        </is>
+      </c>
+      <c r="C123" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D123" s="15" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E123" s="16" t="inlineStr">
+        <is>
+          <t>DO15</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25.5" r="124" s="6">
+      <c r="A124" s="12" t="inlineStr">
+        <is>
+          <t>BB7081.1</t>
+        </is>
+      </c>
+      <c r="B124" s="13" t="inlineStr">
+        <is>
+          <t>Табло "Пожар!" N1 в помещении ЗРУ (214) - включить</t>
+        </is>
+      </c>
+      <c r="C124" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D124" s="15" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E124" s="16" t="inlineStr">
+        <is>
+          <t>DO16</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25.5" r="125" s="6">
+      <c r="A125" s="12" t="inlineStr">
+        <is>
+          <t>BB7084.4</t>
+        </is>
+      </c>
+      <c r="B125" s="13" t="inlineStr">
+        <is>
+          <t>Сирена "Пожар" N4 в помещении ЗРУ (214) - включить</t>
+        </is>
+      </c>
+      <c r="C125" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D125" s="15" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E125" s="16" t="inlineStr">
+        <is>
+          <t>DO17</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25.5" r="126" s="6">
+      <c r="A126" s="12" t="inlineStr">
+        <is>
+          <t>BB7081.4</t>
+        </is>
+      </c>
+      <c r="B126" s="13" t="inlineStr">
+        <is>
+          <t>Табло "Пожар!" N4 в помещении ЗРУ (214) - включить</t>
+        </is>
+      </c>
+      <c r="C126" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D126" s="15" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E126" s="16" t="inlineStr">
+        <is>
+          <t>DO18</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25.5" r="127" s="6">
+      <c r="A127" s="12" t="inlineStr">
+        <is>
+          <t>BB7084.2</t>
+        </is>
+      </c>
+      <c r="B127" s="13" t="inlineStr">
+        <is>
+          <t>Сирена "Пожар" N2 в помещении ЗРУ (214) - включить</t>
+        </is>
+      </c>
+      <c r="C127" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D127" s="15" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E127" s="16" t="inlineStr">
+        <is>
+          <t>DO19</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25.5" r="128" s="6">
+      <c r="A128" s="12" t="inlineStr">
+        <is>
+          <t>BB7081.2</t>
+        </is>
+      </c>
+      <c r="B128" s="13" t="inlineStr">
+        <is>
+          <t>Табло "Пожар!" N2 в помещении ЗРУ (214) - включить</t>
+        </is>
+      </c>
+      <c r="C128" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D128" s="15" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E128" s="16" t="inlineStr">
+        <is>
+          <t>DO20</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25.5" r="129" s="6">
+      <c r="A129" s="12" t="inlineStr">
+        <is>
+          <t>BB7044.1</t>
+        </is>
+      </c>
+      <c r="B129" s="13" t="inlineStr">
+        <is>
+          <t>Сирена "Пожар" N1 на площадке подпорной насосной станции (004) - включить</t>
+        </is>
+      </c>
+      <c r="C129" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D129" s="15" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E129" s="16" t="inlineStr">
+        <is>
+          <t>DO21</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="12" t="n"/>
+      <c r="B130" s="13" t="inlineStr">
+        <is>
+          <t>Резерв</t>
+        </is>
+      </c>
+      <c r="C130" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D130" s="15" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E130" s="16" t="inlineStr">
+        <is>
+          <t>DO22</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25.5" r="131" s="6">
+      <c r="A131" s="12" t="inlineStr">
+        <is>
+          <t>DB701.7</t>
+        </is>
+      </c>
+      <c r="B131" s="13" t="inlineStr">
+        <is>
+          <t>Пожар в насосном зале здания магистральной насосной (003). Сигнал в ПС</t>
+        </is>
+      </c>
+      <c r="C131" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D131" s="15" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E131" s="16" t="inlineStr">
+        <is>
+          <t>DO23</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25.5" r="132" s="6">
+      <c r="A132" s="12" t="inlineStr">
+        <is>
+          <t>DB702.7</t>
+        </is>
+      </c>
+      <c r="B132" s="13" t="inlineStr">
+        <is>
+          <t>Пожар в маслоприямке здания магистральной насосной (003). Сигнал в ПС</t>
+        </is>
+      </c>
+      <c r="C132" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D132" s="15" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E132" s="16" t="inlineStr">
+        <is>
+          <t>DO24</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25.5" r="133" s="6">
+      <c r="A133" s="12" t="inlineStr">
+        <is>
+          <t>DB703.7</t>
+        </is>
+      </c>
+      <c r="B133" s="13" t="inlineStr">
+        <is>
+          <t>Пожар в электрозале здания магистральной насосной (003). Сигнал в ПС</t>
+        </is>
+      </c>
+      <c r="C133" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D133" s="15" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E133" s="16" t="inlineStr">
+        <is>
+          <t>DO25</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25.5" r="134" s="6">
+      <c r="A134" s="12" t="inlineStr">
+        <is>
+          <t>DB704.7</t>
+        </is>
+      </c>
+      <c r="B134" s="13" t="inlineStr">
+        <is>
+          <t>Пожар на площадке подпорной насосной станции (004). Сигнал в ПС</t>
+        </is>
+      </c>
+      <c r="C134" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D134" s="15" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E134" s="16" t="inlineStr">
+        <is>
+          <t>DO26</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="12" t="inlineStr">
+        <is>
+          <t>DB708.7</t>
+        </is>
+      </c>
+      <c r="B135" s="13" t="inlineStr">
+        <is>
+          <t>Пожар в ЗРУ (214). Сигнал в ПС</t>
+        </is>
+      </c>
+      <c r="C135" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D135" s="15" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E135" s="16" t="inlineStr">
+        <is>
+          <t>DO27</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="63.75" r="136" s="6">
+      <c r="A136" s="12" t="inlineStr">
+        <is>
+          <t>DB711.10</t>
+        </is>
+      </c>
+      <c r="B136" s="13" t="inlineStr">
+        <is>
+          <t>Пожар в помещении аппаратной здания ЗРУ, КТП (214) (подача команды на включение алгоритма защиты по пожару в помещении аппаратной здания ЗРУ, КТП (214) с АРМ МПСА ПТ). Сигнал в АГТ</t>
+        </is>
+      </c>
+      <c r="C136" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D136" s="15" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E136" s="16" t="inlineStr">
+        <is>
+          <t>DO28</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="76.5" r="137" s="6">
+      <c r="A137" s="12" t="inlineStr">
+        <is>
+          <t>_ЗРУ, КТП (214).Аппаратная НПС-2_Шкаф ПТ-2.УСО.1_0X2_1</t>
+        </is>
+      </c>
+      <c r="B137" s="13" t="inlineStr">
+        <is>
+          <t>Резерв</t>
+        </is>
+      </c>
+      <c r="C137" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D137" s="15" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E137" s="16" t="inlineStr">
+        <is>
+          <t>DO29</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="76.5" r="138" s="6">
+      <c r="A138" s="12" t="inlineStr">
+        <is>
+          <t>_ЗРУ, КТП (214).Аппаратная НПС-2_Шкаф ПТ-2.УСО.1_0X2_2</t>
+        </is>
+      </c>
+      <c r="B138" s="13" t="inlineStr">
+        <is>
+          <t>Резерв</t>
+        </is>
+      </c>
+      <c r="C138" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D138" s="15" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E138" s="16" t="inlineStr">
+        <is>
+          <t>DO30</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="76.5" r="139" s="6">
+      <c r="A139" s="12" t="inlineStr">
+        <is>
+          <t>_ЗРУ, КТП (214).Аппаратная НПС-2_Шкаф ПТ-2.УСО.1_0X2_3</t>
+        </is>
+      </c>
+      <c r="B139" s="13" t="inlineStr">
+        <is>
+          <t>Резерв</t>
+        </is>
+      </c>
+      <c r="C139" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D139" s="15" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E139" s="16" t="inlineStr">
+        <is>
+          <t>DO31</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="76.5" r="140" s="6">
+      <c r="A140" s="12" t="inlineStr">
+        <is>
+          <t>_ЗРУ, КТП (214).Аппаратная НПС-2_Шкаф ПТ-2.УСО.1_0X2_4</t>
+        </is>
+      </c>
+      <c r="B140" s="13" t="inlineStr">
+        <is>
+          <t>Резерв</t>
+        </is>
+      </c>
+      <c r="C140" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D140" s="15" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E140" s="16" t="inlineStr">
+        <is>
+          <t>DO32</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="38.25" r="141" s="6">
+      <c r="A141" s="12" t="inlineStr">
+        <is>
+          <t>DB701.3</t>
+        </is>
+      </c>
+      <c r="B141" s="13" t="inlineStr">
+        <is>
+          <t>Пожар в насосном зале здания магистральной насосной (003). Сигнал в АСУ ТП МНС-2</t>
+        </is>
+      </c>
+      <c r="C141" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D141" s="15" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E141" s="16" t="inlineStr">
+        <is>
+          <t>DO1</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="38.25" r="142" s="6">
+      <c r="A142" s="12" t="inlineStr">
+        <is>
+          <t>DB702.3</t>
+        </is>
+      </c>
+      <c r="B142" s="13" t="inlineStr">
+        <is>
+          <t>Пожар в маслоприямке здания магистральной насосной (003.2). Сигнал в АСУ ТП МНС-2</t>
+        </is>
+      </c>
+      <c r="C142" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D142" s="15" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E142" s="16" t="inlineStr">
+        <is>
+          <t>DO2</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25.5" r="143" s="6">
+      <c r="A143" s="12" t="inlineStr">
+        <is>
+          <t>DB703.3</t>
+        </is>
+      </c>
+      <c r="B143" s="13" t="inlineStr">
+        <is>
+          <t>Пожар в электрозале здания магистральной насосной (003.2). Сигнал в АСУ ТП МНС-2</t>
+        </is>
+      </c>
+      <c r="C143" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D143" s="15" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E143" s="16" t="inlineStr">
+        <is>
+          <t>DO3</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25.5" r="144" s="6">
+      <c r="A144" s="12" t="inlineStr">
+        <is>
+          <t>DB704.3</t>
+        </is>
+      </c>
+      <c r="B144" s="13" t="inlineStr">
+        <is>
+          <t>Пожар на площадке подпорной насосной станции (004). Сигнал в АСУ ТП МНС-2</t>
+        </is>
+      </c>
+      <c r="C144" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D144" s="15" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E144" s="16" t="inlineStr">
+        <is>
+          <t>DO4</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="12" t="inlineStr">
+        <is>
+          <t>DB708.3</t>
+        </is>
+      </c>
+      <c r="B145" s="13" t="inlineStr">
+        <is>
+          <t>Пожар в ЗРУ (214). Сигнал в АСУ ТП МНС-2</t>
+        </is>
+      </c>
+      <c r="C145" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D145" s="15" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E145" s="16" t="inlineStr">
+        <is>
+          <t>DO5</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25.5" r="146" s="6">
+      <c r="A146" s="12" t="inlineStr">
+        <is>
+          <t>DB711.3</t>
+        </is>
+      </c>
+      <c r="B146" s="13" t="inlineStr">
+        <is>
+          <t>Пожар в помещении аппаратной здания ЗРУ, КТП (214). Сигнал в АСУ ТП МНС-2</t>
+        </is>
+      </c>
+      <c r="C146" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D146" s="15" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E146" s="16" t="inlineStr">
+        <is>
+          <t>DO6</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="38.25" r="147" s="6">
+      <c r="A147" s="12" t="inlineStr">
+        <is>
+          <t>DB701.5</t>
+        </is>
+      </c>
+      <c r="B147" s="13" t="inlineStr">
+        <is>
+          <t>Пожар в насосном зале здания магистральной насосной (003.2). Сигнал в АСУ ТП ПНС-2</t>
+        </is>
+      </c>
+      <c r="C147" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D147" s="15" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E147" s="16" t="inlineStr">
+        <is>
+          <t>DO7</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="38.25" r="148" s="6">
+      <c r="A148" s="12" t="inlineStr">
+        <is>
+          <t>DB702.5</t>
+        </is>
+      </c>
+      <c r="B148" s="13" t="inlineStr">
+        <is>
+          <t>Пожар в маслоприямке здания магистральной насосной (003.2). Сигнал в АСУ ТП ПНС-2</t>
+        </is>
+      </c>
+      <c r="C148" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D148" s="15" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E148" s="16" t="inlineStr">
+        <is>
+          <t>DO8</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25.5" r="149" s="6">
+      <c r="A149" s="12" t="inlineStr">
+        <is>
+          <t>DB703.5</t>
+        </is>
+      </c>
+      <c r="B149" s="13" t="inlineStr">
+        <is>
+          <t>Пожар в электрозале здания магистральной насосной (003.2). Сигнал в АСУ ТП ПНС-2</t>
+        </is>
+      </c>
+      <c r="C149" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D149" s="15" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E149" s="16" t="inlineStr">
+        <is>
+          <t>DO9</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25.5" r="150" s="6">
+      <c r="A150" s="12" t="inlineStr">
+        <is>
+          <t>DB704.5</t>
+        </is>
+      </c>
+      <c r="B150" s="13" t="inlineStr">
+        <is>
+          <t>Пожар на площадке подпорной насосной станции (004). Сигнал в АСУ ТП ПНС-2</t>
+        </is>
+      </c>
+      <c r="C150" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D150" s="15" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E150" s="16" t="inlineStr">
+        <is>
+          <t>DO10</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="12" t="inlineStr">
+        <is>
+          <t>DB708.5</t>
+        </is>
+      </c>
+      <c r="B151" s="13" t="inlineStr">
+        <is>
+          <t>Пожар в ЗРУ (214). Сигнал в АСУ ТП ПНС-2</t>
+        </is>
+      </c>
+      <c r="C151" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D151" s="15" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E151" s="16" t="inlineStr">
+        <is>
+          <t>DO11</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25.5" r="152" s="6">
+      <c r="A152" s="12" t="inlineStr">
+        <is>
+          <t>DB711.5</t>
+        </is>
+      </c>
+      <c r="B152" s="13" t="inlineStr">
+        <is>
+          <t>Пожар в помещении аппаратной здания ЗРУ, КТП (214). Сигнал в АСУ ТП ПНС-2</t>
+        </is>
+      </c>
+      <c r="C152" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D152" s="15" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E152" s="16" t="inlineStr">
+        <is>
+          <t>DO12</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="12" t="n"/>
+      <c r="B153" s="13" t="inlineStr">
+        <is>
+          <t>Резерв</t>
+        </is>
+      </c>
+      <c r="C153" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D153" s="15" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E153" s="16" t="inlineStr">
+        <is>
+          <t>DO13</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="12" t="n"/>
+      <c r="B154" s="13" t="inlineStr">
+        <is>
+          <t>Резерв</t>
+        </is>
+      </c>
+      <c r="C154" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D154" s="15" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E154" s="16" t="inlineStr">
+        <is>
+          <t>DO14</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="12" t="n"/>
+      <c r="B155" s="13" t="inlineStr">
+        <is>
+          <t>Резерв</t>
+        </is>
+      </c>
+      <c r="C155" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D155" s="15" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E155" s="16" t="inlineStr">
+        <is>
+          <t>DO15</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="12" t="n"/>
+      <c r="B156" s="13" t="inlineStr">
+        <is>
+          <t>Резерв</t>
+        </is>
+      </c>
+      <c r="C156" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D156" s="15" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E156" s="16" t="inlineStr">
+        <is>
+          <t>DO16</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="38.25" r="157" s="6">
+      <c r="A157" s="12" t="inlineStr">
+        <is>
+          <t>DB701.11</t>
+        </is>
+      </c>
+      <c r="B157" s="13" t="inlineStr">
+        <is>
+          <t>Пожар в насосном зале здания магистральной насосной (003). Сигнал в АСУ ТП НПС-1 и РП (УСО 4.2)</t>
+        </is>
+      </c>
+      <c r="C157" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D157" s="15" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E157" s="16" t="inlineStr">
+        <is>
+          <t>DO17</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="38.25" r="158" s="6">
+      <c r="A158" s="12" t="inlineStr">
+        <is>
+          <t>DB702.11</t>
+        </is>
+      </c>
+      <c r="B158" s="13" t="inlineStr">
+        <is>
+          <t>Пожар в маслоприямке здания магистральной насосной (003.2). Сигнал в АСУ ТП НПС-1 и РП (УСО 4.2)</t>
+        </is>
+      </c>
+      <c r="C158" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D158" s="15" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E158" s="16" t="inlineStr">
+        <is>
+          <t>DO18</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="38.25" r="159" s="6">
+      <c r="A159" s="12" t="inlineStr">
+        <is>
+          <t>DB703.11</t>
+        </is>
+      </c>
+      <c r="B159" s="13" t="inlineStr">
+        <is>
+          <t>Пожар в электрозале здания магистральной насосной (003.2). Сигнал в АСУ ТП НПС-1 и РП (УСО 4.2)</t>
+        </is>
+      </c>
+      <c r="C159" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D159" s="15" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E159" s="16" t="inlineStr">
+        <is>
+          <t>DO19</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="38.25" r="160" s="6">
+      <c r="A160" s="12" t="inlineStr">
+        <is>
+          <t>DB704.11</t>
+        </is>
+      </c>
+      <c r="B160" s="13" t="inlineStr">
+        <is>
+          <t>Пожар на площадке подпорной насосной станции (004). Сигнал в АСУ ТП НПС-1 и РП (УСО 4.2)</t>
+        </is>
+      </c>
+      <c r="C160" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D160" s="15" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E160" s="16" t="inlineStr">
+        <is>
+          <t>DO20</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25.5" r="161" s="6">
+      <c r="A161" s="12" t="inlineStr">
+        <is>
+          <t>DB708.11</t>
+        </is>
+      </c>
+      <c r="B161" s="13" t="inlineStr">
+        <is>
+          <t>Пожар в ЗРУ (214). Сигнал в АСУ ТП НПС-1 и РП (УСО 4.2)</t>
+        </is>
+      </c>
+      <c r="C161" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D161" s="15" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E161" s="16" t="inlineStr">
+        <is>
+          <t>DO21</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="38.25" r="162" s="6">
+      <c r="A162" s="12" t="inlineStr">
+        <is>
+          <t>DB711.11</t>
+        </is>
+      </c>
+      <c r="B162" s="13" t="inlineStr">
+        <is>
+          <t>Пожар в помещении аппаратной здания ЗРУ, КТП (214). Сигнал в АСУ ТП НПС-1 и РП (УСО 4.2)</t>
+        </is>
+      </c>
+      <c r="C162" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D162" s="15" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E162" s="16" t="inlineStr">
+        <is>
+          <t>DO22</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="38.25" r="163" s="6">
+      <c r="A163" s="12" t="inlineStr">
+        <is>
+          <t>DB701.21</t>
+        </is>
+      </c>
+      <c r="B163" s="13" t="inlineStr">
+        <is>
+          <t>Пожар в насосном зале здания магистральной насосной (003). Сигнал в АСУ ПТ НПС-1 и РП (КТС-2000)</t>
+        </is>
+      </c>
+      <c r="C163" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D163" s="15" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E163" s="16" t="inlineStr">
+        <is>
+          <t>DO23</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="38.25" r="164" s="6">
+      <c r="A164" s="12" t="inlineStr">
+        <is>
+          <t>DB702.21</t>
+        </is>
+      </c>
+      <c r="B164" s="13" t="inlineStr">
+        <is>
+          <t>Пожар в маслоприямке здания магистральной насосной (003). Сигнал в АСУ ПТ НПС-1 и РП (КТС-2000)</t>
+        </is>
+      </c>
+      <c r="C164" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D164" s="15" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E164" s="16" t="inlineStr">
+        <is>
+          <t>DO24</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="38.25" r="165" s="6">
+      <c r="A165" s="12" t="inlineStr">
+        <is>
+          <t>DB703.21</t>
+        </is>
+      </c>
+      <c r="B165" s="13" t="inlineStr">
+        <is>
+          <t>Пожар в электрозале здания магистральной насосной (003). Сигнал в АСУ ПТ НПС-1 и РП (КТС-2000)</t>
+        </is>
+      </c>
+      <c r="C165" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D165" s="15" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E165" s="16" t="inlineStr">
+        <is>
+          <t>DO25</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="38.25" r="166" s="6">
+      <c r="A166" s="12" t="inlineStr">
+        <is>
+          <t>DB704.21</t>
+        </is>
+      </c>
+      <c r="B166" s="13" t="inlineStr">
+        <is>
+          <t>Пожар на площадке подпорной насосной станции (004). Сигнал в АСУ ПТ НПС-1 и РП (КТС-2000)</t>
+        </is>
+      </c>
+      <c r="C166" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D166" s="15" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E166" s="16" t="inlineStr">
+        <is>
+          <t>DO26</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25.5" r="167" s="6">
+      <c r="A167" s="12" t="inlineStr">
+        <is>
+          <t>DB708.21</t>
+        </is>
+      </c>
+      <c r="B167" s="13" t="inlineStr">
+        <is>
+          <t>Пожар в ЗРУ (214). Сигнал в АСУ ПТ НПС-1 и РП (КТС-2000)</t>
+        </is>
+      </c>
+      <c r="C167" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D167" s="15" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E167" s="16" t="inlineStr">
+        <is>
+          <t>DO27</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="38.25" r="168" s="6">
+      <c r="A168" s="12" t="inlineStr">
+        <is>
+          <t>DB711.21</t>
+        </is>
+      </c>
+      <c r="B168" s="13" t="inlineStr">
+        <is>
+          <t>Пожар в помещении аппаратной здания ЗРУ, КТП (214). Сигнал в АСУ ПТ НПС-1 и РП (КТС-2000)</t>
+        </is>
+      </c>
+      <c r="C168" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D168" s="15" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E168" s="16" t="inlineStr">
+        <is>
+          <t>DO28</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="12" t="n"/>
+      <c r="B169" s="13" t="inlineStr">
+        <is>
+          <t>Резерв</t>
+        </is>
+      </c>
+      <c r="C169" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D169" s="15" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E169" s="16" t="inlineStr">
+        <is>
+          <t>DO29</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="12" t="n"/>
+      <c r="B170" s="13" t="inlineStr">
+        <is>
+          <t>Резерв</t>
+        </is>
+      </c>
+      <c r="C170" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D170" s="15" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E170" s="16" t="inlineStr">
+        <is>
+          <t>DO30</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="12" t="n"/>
+      <c r="B171" s="13" t="inlineStr">
+        <is>
+          <t>Резерв</t>
+        </is>
+      </c>
+      <c r="C171" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D171" s="15" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E171" s="16" t="inlineStr">
+        <is>
+          <t>DO31</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="76.5" r="172" s="6">
+      <c r="A172" s="12" t="inlineStr">
+        <is>
+          <t>_ЗРУ, КТП (214).Аппаратная НПС-2_Шкаф ПТ-2.УСО.1_0X2_5</t>
+        </is>
+      </c>
+      <c r="B172" s="13" t="inlineStr">
+        <is>
+          <t>Резерв</t>
+        </is>
+      </c>
+      <c r="C172" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D172" s="15" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E172" s="16" t="inlineStr">
+        <is>
+          <t>DO32</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="12" t="inlineStr">
+        <is>
+          <t>DOB66a</t>
+        </is>
+      </c>
+      <c r="B173" s="13" t="inlineStr">
+        <is>
+          <t>Задвижка №66а.Команда на открытие</t>
+        </is>
+      </c>
+      <c r="C173" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D173" s="15" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E173" s="16" t="inlineStr">
+        <is>
+          <t>DO1</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="12" t="inlineStr">
+        <is>
+          <t>DKB66a</t>
+        </is>
+      </c>
+      <c r="B174" s="13" t="inlineStr">
+        <is>
+          <t>Задвижка №66а.Команда на закрытие</t>
+        </is>
+      </c>
+      <c r="C174" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D174" s="15" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E174" s="16" t="inlineStr">
+        <is>
+          <t>DO2</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="12" t="inlineStr">
+        <is>
+          <t>DCB66a</t>
+        </is>
+      </c>
+      <c r="B175" s="13" t="inlineStr">
+        <is>
+          <t>Задвижка №66а.Команда на остановку</t>
+        </is>
+      </c>
+      <c r="C175" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D175" s="15" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E175" s="16" t="inlineStr">
+        <is>
+          <t>DO3</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25.5" r="176" s="6">
+      <c r="A176" s="12" t="inlineStr">
+        <is>
+          <t>DOBr.2.1</t>
+        </is>
+      </c>
+      <c r="B176" s="13" t="inlineStr">
+        <is>
+          <t>Задвижка №r.2.1 (резерв).Команда на открытие</t>
+        </is>
+      </c>
+      <c r="C176" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D176" s="15" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E176" s="16" t="inlineStr">
+        <is>
+          <t>DO4</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25.5" r="177" s="6">
+      <c r="A177" s="12" t="inlineStr">
+        <is>
+          <t>DKBr.2.1</t>
+        </is>
+      </c>
+      <c r="B177" s="13" t="inlineStr">
+        <is>
+          <t>Задвижка №r.2.1 (резерв).Команда на закрытие</t>
+        </is>
+      </c>
+      <c r="C177" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D177" s="15" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E177" s="16" t="inlineStr">
+        <is>
+          <t>DO5</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25.5" r="178" s="6">
+      <c r="A178" s="12" t="inlineStr">
+        <is>
+          <t>DCBr.2.1</t>
+        </is>
+      </c>
+      <c r="B178" s="13" t="inlineStr">
+        <is>
+          <t>Задвижка №r.2.1 (резерв).Команда на остановку</t>
+        </is>
+      </c>
+      <c r="C178" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D178" s="15" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E178" s="16" t="inlineStr">
+        <is>
+          <t>DO6</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25.5" r="179" s="6">
+      <c r="A179" s="12" t="inlineStr">
+        <is>
+          <t>BB703.1</t>
+        </is>
+      </c>
+      <c r="B179" s="13" t="inlineStr">
+        <is>
+          <t>Сброс шлейфа "Пожар". Электрозал здания магистральной насосной (003). Шлейф 1</t>
+        </is>
+      </c>
+      <c r="C179" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D179" s="15" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E179" s="16" t="inlineStr">
+        <is>
+          <t>DO7</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25.5" r="180" s="6">
+      <c r="A180" s="12" t="inlineStr">
+        <is>
+          <t>BB708.1</t>
+        </is>
+      </c>
+      <c r="B180" s="13" t="inlineStr">
+        <is>
+          <t>Сброс шлейфа "Пожар". Помещение ЗРУ (214). Шлейф 1</t>
+        </is>
+      </c>
+      <c r="C180" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D180" s="15" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E180" s="16" t="inlineStr">
+        <is>
+          <t>DO8</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25.5" r="181" s="6">
+      <c r="A181" s="12" t="inlineStr">
+        <is>
+          <t>BB703.3</t>
+        </is>
+      </c>
+      <c r="B181" s="13" t="inlineStr">
+        <is>
+          <t>Сброс шлейфа "Пожар". Электрозал здания магистральной насосной (003). Шлейф 3</t>
+        </is>
+      </c>
+      <c r="C181" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D181" s="15" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E181" s="16" t="inlineStr">
+        <is>
+          <t>DO9</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25.5" r="182" s="6">
+      <c r="A182" s="12" t="inlineStr">
+        <is>
+          <t>BB708.3</t>
+        </is>
+      </c>
+      <c r="B182" s="13" t="inlineStr">
+        <is>
+          <t>Сброс шлейфа "Пожар". Помещение ЗРУ (214). Шлейф 3</t>
+        </is>
+      </c>
+      <c r="C182" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D182" s="15" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E182" s="16" t="inlineStr">
+        <is>
+          <t>DO10</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="76.5" r="183" s="6">
+      <c r="A183" s="12" t="inlineStr">
+        <is>
+          <t>_ЗРУ, КТП (214).Аппаратная НПС-2_Шкаф ПТ-2.УСО.1_0X2_6</t>
+        </is>
+      </c>
+      <c r="B183" s="13" t="inlineStr">
+        <is>
+          <t>Резерв</t>
+        </is>
+      </c>
+      <c r="C183" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D183" s="15" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E183" s="16" t="inlineStr">
+        <is>
+          <t>DO11</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="76.5" r="184" s="6">
+      <c r="A184" s="12" t="inlineStr">
+        <is>
+          <t>_ЗРУ, КТП (214).Аппаратная НПС-2_Шкаф ПТ-2.УСО.1_0X2_7</t>
+        </is>
+      </c>
+      <c r="B184" s="13" t="inlineStr">
+        <is>
+          <t>Резерв</t>
+        </is>
+      </c>
+      <c r="C184" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D184" s="15" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E184" s="16" t="inlineStr">
+        <is>
+          <t>DO12</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="76.5" r="185" s="6">
+      <c r="A185" s="12" t="inlineStr">
+        <is>
+          <t>_ЗРУ, КТП (214).Аппаратная НПС-2_Шкаф ПТ-2.УСО.1_0X2_8</t>
+        </is>
+      </c>
+      <c r="B185" s="13" t="inlineStr">
+        <is>
+          <t>Резерв</t>
+        </is>
+      </c>
+      <c r="C185" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D185" s="15" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E185" s="16" t="inlineStr">
+        <is>
+          <t>DO13</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="76.5" r="186" s="6">
+      <c r="A186" s="12" t="inlineStr">
+        <is>
+          <t>_ЗРУ, КТП (214).Аппаратная НПС-2_Шкаф ПТ-2.УСО.1_0X2_9</t>
+        </is>
+      </c>
+      <c r="B186" s="13" t="inlineStr">
+        <is>
+          <t>Резерв</t>
+        </is>
+      </c>
+      <c r="C186" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D186" s="15" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E186" s="16" t="inlineStr">
+        <is>
+          <t>DO14</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="76.5" r="187" s="6">
+      <c r="A187" s="12" t="inlineStr">
+        <is>
+          <t>_ЗРУ, КТП (214).Аппаратная НПС-2_Шкаф ПТ-2.УСО.1_0X2_10</t>
+        </is>
+      </c>
+      <c r="B187" s="13" t="inlineStr">
+        <is>
+          <t>Резерв</t>
+        </is>
+      </c>
+      <c r="C187" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D187" s="15" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E187" s="16" t="inlineStr">
+        <is>
+          <t>DO15</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="76.5" r="188" s="6">
+      <c r="A188" s="12" t="inlineStr">
+        <is>
+          <t>_ЗРУ, КТП (214).Аппаратная НПС-2_Шкаф ПТ-2.УСО.1_0X2_11</t>
+        </is>
+      </c>
+      <c r="B188" s="13" t="inlineStr">
+        <is>
+          <t>Резерв</t>
+        </is>
+      </c>
+      <c r="C188" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D188" s="15" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E188" s="16" t="inlineStr">
+        <is>
+          <t>DO16</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="76.5" r="189" s="6">
+      <c r="A189" s="12" t="inlineStr">
+        <is>
+          <t>_ЗРУ, КТП (214).Аппаратная НПС-2_Шкаф ПТ-2.УСО.1_0X2_12</t>
+        </is>
+      </c>
+      <c r="B189" s="13" t="inlineStr">
+        <is>
+          <t>Резерв</t>
+        </is>
+      </c>
+      <c r="C189" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D189" s="15" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E189" s="16" t="inlineStr">
+        <is>
+          <t>DO17</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="76.5" r="190" s="6">
+      <c r="A190" s="12" t="inlineStr">
+        <is>
+          <t>_ЗРУ, КТП (214).Аппаратная НПС-2_Шкаф ПТ-2.УСО.1_0X2_13</t>
+        </is>
+      </c>
+      <c r="B190" s="13" t="inlineStr">
+        <is>
+          <t>Резерв</t>
+        </is>
+      </c>
+      <c r="C190" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D190" s="15" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E190" s="16" t="inlineStr">
+        <is>
+          <t>DO18</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="76.5" r="191" s="6">
+      <c r="A191" s="12" t="inlineStr">
+        <is>
+          <t>_ЗРУ, КТП (214).Аппаратная НПС-2_Шкаф ПТ-2.УСО.1_0X2_14</t>
+        </is>
+      </c>
+      <c r="B191" s="13" t="inlineStr">
+        <is>
+          <t>Резерв</t>
+        </is>
+      </c>
+      <c r="C191" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D191" s="15" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E191" s="16" t="inlineStr">
+        <is>
+          <t>DO19</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="76.5" r="192" s="6">
+      <c r="A192" s="12" t="inlineStr">
+        <is>
+          <t>_ЗРУ, КТП (214).Аппаратная НПС-2_Шкаф ПТ-2.УСО.1_0X2_15</t>
+        </is>
+      </c>
+      <c r="B192" s="13" t="inlineStr">
+        <is>
+          <t>Резерв</t>
+        </is>
+      </c>
+      <c r="C192" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D192" s="15" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E192" s="16" t="inlineStr">
+        <is>
+          <t>DO20</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="76.5" r="193" s="6">
+      <c r="A193" s="12" t="inlineStr">
+        <is>
+          <t>_ЗРУ, КТП (214).Аппаратная НПС-2_Шкаф ПТ-2.УСО.1_0X2_16</t>
+        </is>
+      </c>
+      <c r="B193" s="13" t="inlineStr">
+        <is>
+          <t>Резерв</t>
+        </is>
+      </c>
+      <c r="C193" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D193" s="15" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E193" s="16" t="inlineStr">
+        <is>
+          <t>DO21</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="76.5" r="194" s="6">
+      <c r="A194" s="12" t="inlineStr">
+        <is>
+          <t>_ЗРУ, КТП (214).Аппаратная НПС-2_Шкаф ПТ-2.УСО.1_0X2_17</t>
+        </is>
+      </c>
+      <c r="B194" s="13" t="inlineStr">
+        <is>
+          <t>Резерв</t>
+        </is>
+      </c>
+      <c r="C194" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D194" s="15" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E194" s="16" t="inlineStr">
+        <is>
+          <t>DO22</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="76.5" r="195" s="6">
+      <c r="A195" s="12" t="inlineStr">
+        <is>
+          <t>_ЗРУ, КТП (214).Аппаратная НПС-2_Шкаф ПТ-2.УСО.1_0X2_18</t>
+        </is>
+      </c>
+      <c r="B195" s="13" t="inlineStr">
+        <is>
+          <t>Резерв</t>
+        </is>
+      </c>
+      <c r="C195" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D195" s="15" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E195" s="16" t="inlineStr">
+        <is>
+          <t>DO23</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="76.5" r="196" s="6">
+      <c r="A196" s="12" t="inlineStr">
+        <is>
+          <t>_ЗРУ, КТП (214).Аппаратная НПС-2_Шкаф ПТ-2.УСО.1_0X2_19</t>
+        </is>
+      </c>
+      <c r="B196" s="13" t="inlineStr">
+        <is>
+          <t>Резерв</t>
+        </is>
+      </c>
+      <c r="C196" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D196" s="15" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E196" s="16" t="inlineStr">
+        <is>
+          <t>DO24</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="76.5" r="197" s="6">
+      <c r="A197" s="12" t="inlineStr">
+        <is>
+          <t>_ЗРУ, КТП (214).Аппаратная НПС-2_Шкаф ПТ-2.УСО.1_0X2_20</t>
+        </is>
+      </c>
+      <c r="B197" s="13" t="inlineStr">
+        <is>
+          <t>Резерв</t>
+        </is>
+      </c>
+      <c r="C197" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D197" s="15" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E197" s="16" t="inlineStr">
+        <is>
+          <t>DO25</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="76.5" r="198" s="6">
+      <c r="A198" s="12" t="inlineStr">
+        <is>
+          <t>_ЗРУ, КТП (214).Аппаратная НПС-2_Шкаф ПТ-2.УСО.1_0X2_21</t>
+        </is>
+      </c>
+      <c r="B198" s="13" t="inlineStr">
+        <is>
+          <t>Резерв</t>
+        </is>
+      </c>
+      <c r="C198" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D198" s="15" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E198" s="16" t="inlineStr">
+        <is>
+          <t>DO26</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="76.5" r="199" s="6">
+      <c r="A199" s="12" t="inlineStr">
+        <is>
+          <t>_ЗРУ, КТП (214).Аппаратная НПС-2_Шкаф ПТ-2.УСО.1_0X2_22</t>
+        </is>
+      </c>
+      <c r="B199" s="13" t="inlineStr">
+        <is>
+          <t>Резерв</t>
+        </is>
+      </c>
+      <c r="C199" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D199" s="15" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E199" s="16" t="inlineStr">
+        <is>
+          <t>DO27</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="76.5" r="200" s="6">
+      <c r="A200" s="12" t="inlineStr">
+        <is>
+          <t>_ЗРУ, КТП (214).Аппаратная НПС-2_Шкаф ПТ-2.УСО.1_0X2_23</t>
+        </is>
+      </c>
+      <c r="B200" s="13" t="inlineStr">
+        <is>
+          <t>Резерв</t>
+        </is>
+      </c>
+      <c r="C200" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D200" s="15" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E200" s="16" t="inlineStr">
+        <is>
+          <t>DO28</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="76.5" r="201" s="6">
+      <c r="A201" s="12" t="inlineStr">
+        <is>
+          <t>_ЗРУ, КТП (214).Аппаратная НПС-2_Шкаф ПТ-2.УСО.1_0X2_24</t>
+        </is>
+      </c>
+      <c r="B201" s="13" t="inlineStr">
+        <is>
+          <t>Резерв</t>
+        </is>
+      </c>
+      <c r="C201" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D201" s="15" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E201" s="16" t="inlineStr">
+        <is>
+          <t>DO29</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="76.5" r="202" s="6">
+      <c r="A202" s="12" t="inlineStr">
+        <is>
+          <t>_ЗРУ, КТП (214).Аппаратная НПС-2_Шкаф ПТ-2.УСО.1_0X2_25</t>
+        </is>
+      </c>
+      <c r="B202" s="13" t="inlineStr">
+        <is>
+          <t>Резерв</t>
+        </is>
+      </c>
+      <c r="C202" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D202" s="15" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E202" s="16" t="inlineStr">
+        <is>
+          <t>DO30</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="76.5" r="203" s="6">
+      <c r="A203" s="12" t="inlineStr">
+        <is>
+          <t>_ЗРУ, КТП (214).Аппаратная НПС-2_Шкаф ПТ-2.УСО.1_0X2_26</t>
+        </is>
+      </c>
+      <c r="B203" s="13" t="inlineStr">
+        <is>
+          <t>Резерв</t>
+        </is>
+      </c>
+      <c r="C203" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D203" s="15" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E203" s="16" t="inlineStr">
+        <is>
+          <t>DO31</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="76.5" r="204" s="6">
+      <c r="A204" s="12" t="inlineStr">
+        <is>
+          <t>_ЗРУ, КТП (214).Аппаратная НПС-2_Шкаф ПТ-2.УСО.1_0X2_27</t>
+        </is>
+      </c>
+      <c r="B204" s="13" t="inlineStr">
+        <is>
+          <t>Резерв</t>
+        </is>
+      </c>
+      <c r="C204" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D204" s="15" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E204" s="16" t="inlineStr">
+        <is>
+          <t>DO32</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="12" t="n"/>
+      <c r="B205" s="13" t="inlineStr">
+        <is>
+          <t>Обмен данными с насосным залом. Шлейф 1</t>
+        </is>
+      </c>
+      <c r="C205" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D205" s="15" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E205" s="16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25.5" r="206" s="6">
+      <c r="A206" s="12" t="n"/>
+      <c r="B206" s="13" t="inlineStr">
+        <is>
+          <t>Обмен данными с маслоприямком МНС. Шлейф 1</t>
+        </is>
+      </c>
+      <c r="C206" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D206" s="15" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E206" s="16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="12" t="n"/>
+      <c r="B207" s="13" t="inlineStr">
+        <is>
+          <t>Обмен данными с ПНС. Шлейф 1</t>
+        </is>
+      </c>
+      <c r="C207" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D207" s="15" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E207" s="16" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="E73" s="16" t="inlineStr">
+    </row>
+    <row customHeight="1" ht="25.5" r="208" s="6">
+      <c r="A208" s="12" t="n"/>
+      <c r="B208" s="13" t="inlineStr">
+        <is>
+          <t>Обмен данными с панелью сигнализации в насосной станции пожаротушения (351)</t>
+        </is>
+      </c>
+      <c r="C208" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D208" s="15" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E208" s="16" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="12" t="n"/>
+      <c r="B209" s="13" t="inlineStr">
+        <is>
+          <t>Резерв</t>
+        </is>
+      </c>
+      <c r="C209" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D209" s="15" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E209" s="16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="12" t="n"/>
+      <c r="B210" s="13" t="inlineStr">
+        <is>
+          <t>Резерв</t>
+        </is>
+      </c>
+      <c r="C210" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D210" s="15" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E210" s="16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="12" t="n"/>
+      <c r="B211" s="13" t="inlineStr">
+        <is>
+          <t>Резерв</t>
+        </is>
+      </c>
+      <c r="C211" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D211" s="15" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E211" s="16" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="12" t="n"/>
+      <c r="B212" s="13" t="inlineStr">
+        <is>
+          <t>Резерв</t>
+        </is>
+      </c>
+      <c r="C212" s="14" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="D212" s="15" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E212" s="16" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25.5" r="213" s="6">
+      <c r="A213" s="12" t="inlineStr">
+        <is>
+          <t>DC703.2</t>
+        </is>
+      </c>
+      <c r="B213" s="13" t="inlineStr">
+        <is>
+          <t>Электрозал здания магистральной насосной (003). Пожар. Шлейф 2</t>
+        </is>
+      </c>
+      <c r="C213" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D213" s="15" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E213" s="16" t="inlineStr">
+        <is>
+          <t>AI1</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="12" t="n"/>
+      <c r="B214" s="13" t="inlineStr">
+        <is>
+          <t>Резерв</t>
+        </is>
+      </c>
+      <c r="C214" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D214" s="15" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E214" s="16" t="inlineStr">
+        <is>
+          <t>AI2</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="12" t="inlineStr">
+        <is>
+          <t>DC708.2</t>
+        </is>
+      </c>
+      <c r="B215" s="13" t="inlineStr">
+        <is>
+          <t>Помещение ЗРУ (214). Пожар. Шлейф 2</t>
+        </is>
+      </c>
+      <c r="C215" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D215" s="15" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E215" s="16" t="inlineStr">
+        <is>
+          <t>AI3</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="12" t="n"/>
+      <c r="B216" s="13" t="inlineStr">
+        <is>
+          <t>Резерв</t>
+        </is>
+      </c>
+      <c r="C216" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D216" s="15" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E216" s="16" t="inlineStr">
+        <is>
+          <t>AI4</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="76.5" r="217" s="6">
+      <c r="A217" s="12" t="inlineStr">
+        <is>
+          <t>_ЗРУ, КТП (214).Аппаратная НПС-2_Шкаф ПТ-2.УСО.1_A2.3_21</t>
+        </is>
+      </c>
+      <c r="B217" s="13" t="n"/>
+      <c r="C217" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D217" s="15" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E217" s="16" t="inlineStr">
+        <is>
+          <t>AI5</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="76.5" r="218" s="6">
+      <c r="A218" s="12" t="inlineStr">
+        <is>
+          <t>_ЗРУ, КТП (214).Аппаратная НПС-2_Шкаф ПТ-2.УСО.1_A2.3_25</t>
+        </is>
+      </c>
+      <c r="B218" s="13" t="n"/>
+      <c r="C218" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D218" s="15" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E218" s="16" t="inlineStr">
+        <is>
+          <t>AI6</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="76.5" r="219" s="6">
+      <c r="A219" s="12" t="inlineStr">
+        <is>
+          <t>_ЗРУ, КТП (214).Аппаратная НПС-2_Шкаф ПТ-2.УСО.1_A2.3_30</t>
+        </is>
+      </c>
+      <c r="B219" s="13" t="n"/>
+      <c r="C219" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D219" s="15" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E219" s="16" t="inlineStr">
+        <is>
+          <t>AI7</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="76.5" r="220" s="6">
+      <c r="A220" s="12" t="inlineStr">
+        <is>
+          <t>_ЗРУ, КТП (214).Аппаратная НПС-2_Шкаф ПТ-2.УСО.1_A2.3_34</t>
+        </is>
+      </c>
+      <c r="B220" s="13" t="n"/>
+      <c r="C220" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D220" s="15" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E220" s="16" t="inlineStr">
+        <is>
+          <t>AI8</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="38.25" r="221" s="6">
+      <c r="A221" s="12" t="inlineStr">
+        <is>
+          <t>KKT701.2</t>
+        </is>
+      </c>
+      <c r="B221" s="13" t="inlineStr">
+        <is>
+          <t>Запуск системы тушения пожара в насосном зале здания магистральной насосной (003). Кнопка пуска N2</t>
+        </is>
+      </c>
+      <c r="C221" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D221" s="15" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E221" s="16" t="inlineStr">
+        <is>
+          <t>AI1</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="38.25" r="222" s="6">
+      <c r="A222" s="12" t="inlineStr">
+        <is>
+          <t>KKT703.2</t>
+        </is>
+      </c>
+      <c r="B222" s="13" t="inlineStr">
+        <is>
+          <t>Запуск системы оповещения о пожаре в электрозале магистральной насосной (003). Кнопка пуска N2</t>
+        </is>
+      </c>
+      <c r="C222" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D222" s="15" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E222" s="16" t="inlineStr">
+        <is>
+          <t>AI2</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="38.25" r="223" s="6">
+      <c r="A223" s="12" t="inlineStr">
+        <is>
+          <t>KKT704.2</t>
+        </is>
+      </c>
+      <c r="B223" s="13" t="inlineStr">
+        <is>
+          <t>Запуск системы оповещения о пожаре на площадке подпорной насосной станции (004). Кнопка пуска N2</t>
+        </is>
+      </c>
+      <c r="C223" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D223" s="15" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E223" s="16" t="inlineStr">
+        <is>
+          <t>AI3</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="38.25" r="224" s="6">
+      <c r="A224" s="12" t="inlineStr">
+        <is>
+          <t>KKT704.4</t>
+        </is>
+      </c>
+      <c r="B224" s="13" t="inlineStr">
+        <is>
+          <t>Запуск системы оповещения о пожаре на площадке подпорной насосной станции (004). Кнопка пуска N4</t>
+        </is>
+      </c>
+      <c r="C224" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D224" s="15" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E224" s="16" t="inlineStr">
+        <is>
+          <t>AI4</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25.5" r="225" s="6">
+      <c r="A225" s="12" t="inlineStr">
+        <is>
+          <t>KKT708.2</t>
+        </is>
+      </c>
+      <c r="B225" s="13" t="inlineStr">
+        <is>
+          <t>Запуск системы оповещения о пожаре в помещении ЗРУ (214). Кнопка пуска N2</t>
+        </is>
+      </c>
+      <c r="C225" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D225" s="15" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E225" s="16" t="inlineStr">
+        <is>
+          <t>AI5</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="12" t="n"/>
+      <c r="B226" s="13" t="inlineStr">
+        <is>
+          <t>Резерв</t>
+        </is>
+      </c>
+      <c r="C226" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D226" s="15" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E226" s="16" t="inlineStr">
+        <is>
+          <t>AI6</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="12" t="n"/>
+      <c r="B227" s="13" t="inlineStr">
+        <is>
+          <t>Резерв</t>
+        </is>
+      </c>
+      <c r="C227" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D227" s="15" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E227" s="16" t="inlineStr">
+        <is>
+          <t>AI7</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="12" t="n"/>
+      <c r="B228" s="13" t="inlineStr">
+        <is>
+          <t>Резерв</t>
+        </is>
+      </c>
+      <c r="C228" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D228" s="15" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E228" s="16" t="inlineStr">
+        <is>
+          <t>AI8</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25.5" r="229" s="6">
+      <c r="A229" s="12" t="inlineStr">
+        <is>
+          <t>DC703.4</t>
+        </is>
+      </c>
+      <c r="B229" s="13" t="inlineStr">
+        <is>
+          <t>Электрозал здания магистральной насосной (003). Пожар. Шлейф 4</t>
+        </is>
+      </c>
+      <c r="C229" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D229" s="15" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E229" s="16" t="inlineStr">
+        <is>
+          <t>AI1</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="38.25" r="230" s="6">
+      <c r="A230" s="12" t="inlineStr">
+        <is>
+          <t>OPC7014.2</t>
+        </is>
+      </c>
+      <c r="B230" s="13" t="inlineStr">
+        <is>
+          <t>Обрыв или КЗ соединительных линий сирены "Пожар" N2 в насосном зале здания магистральной насосной (003)</t>
+        </is>
+      </c>
+      <c r="C230" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D230" s="15" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E230" s="16" t="inlineStr">
+        <is>
+          <t>AI2</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="38.25" r="231" s="6">
+      <c r="A231" s="12" t="inlineStr">
+        <is>
+          <t>OPC7011.2</t>
+        </is>
+      </c>
+      <c r="B231" s="13" t="inlineStr">
+        <is>
+          <t>Обрыв или КЗ соединительных линий табло "Пена-не входить!" N2 в насосном зале здания магистральной насосной (003)</t>
+        </is>
+      </c>
+      <c r="C231" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D231" s="15" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E231" s="16" t="inlineStr">
+        <is>
+          <t>AI3</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="51" r="232" s="6">
+      <c r="A232" s="12" t="inlineStr">
+        <is>
+          <t>OPC7012.2</t>
+        </is>
+      </c>
+      <c r="B232" s="13" t="inlineStr">
+        <is>
+          <t>Обрыв или КЗ соединительных линий табло "Автоматическое пожаротушение отключено" N2 в насосном зале здания магистральной насосной (003)</t>
+        </is>
+      </c>
+      <c r="C232" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D232" s="15" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E232" s="16" t="inlineStr">
+        <is>
+          <t>AI4</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="38.25" r="233" s="6">
+      <c r="A233" s="12" t="inlineStr">
+        <is>
+          <t>OPC7014.4</t>
+        </is>
+      </c>
+      <c r="B233" s="13" t="inlineStr">
+        <is>
+          <t>Обрыв или КЗ соединительных линий сирены "Пожар" N4 в насосном зале здания магистральной насосной (003)</t>
+        </is>
+      </c>
+      <c r="C233" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D233" s="15" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E233" s="16" t="inlineStr">
+        <is>
+          <t>AI5</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="38.25" r="234" s="6">
+      <c r="A234" s="12" t="inlineStr">
+        <is>
+          <t>OPC7013.2</t>
+        </is>
+      </c>
+      <c r="B234" s="13" t="inlineStr">
+        <is>
+          <t>Обрыв или КЗ соединительных линий табло "Пена-уходи!" N2 в насосном зале здания магистральной насосной (003)</t>
+        </is>
+      </c>
+      <c r="C234" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D234" s="15" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E234" s="16" t="inlineStr">
+        <is>
+          <t>AI6</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="38.25" r="235" s="6">
+      <c r="A235" s="12" t="inlineStr">
+        <is>
+          <t>OPC7034.2</t>
+        </is>
+      </c>
+      <c r="B235" s="13" t="inlineStr">
+        <is>
+          <t>Обрыв или КЗ соединительных линий сирены "Пожар" N2 в электрозале магистральной насосной (003)</t>
+        </is>
+      </c>
+      <c r="C235" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D235" s="15" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E235" s="16" t="inlineStr">
+        <is>
+          <t>AI7</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="38.25" r="236" s="6">
+      <c r="A236" s="12" t="inlineStr">
+        <is>
+          <t>OPC7031.2</t>
+        </is>
+      </c>
+      <c r="B236" s="13" t="inlineStr">
+        <is>
+          <t>Обрыв или КЗ соединительных линий табло "Пожар!" N2 в электрозале магистральной насосной (003)</t>
+        </is>
+      </c>
+      <c r="C236" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D236" s="15" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E236" s="16" t="inlineStr">
+        <is>
+          <t>AI8</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="38.25" r="237" s="6">
+      <c r="A237" s="12" t="inlineStr">
+        <is>
+          <t>OPC7034.4</t>
+        </is>
+      </c>
+      <c r="B237" s="13" t="inlineStr">
+        <is>
+          <t>Обрыв или КЗ соединительных линий сирены "Пожар" N4 в электрозале магистральной насосной (003)</t>
+        </is>
+      </c>
+      <c r="C237" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D237" s="15" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E237" s="16" t="inlineStr">
+        <is>
+          <t>AI1</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="38.25" r="238" s="6">
+      <c r="A238" s="12" t="inlineStr">
+        <is>
+          <t>OPC7031.4</t>
+        </is>
+      </c>
+      <c r="B238" s="13" t="inlineStr">
+        <is>
+          <t>Обрыв или КЗ соединительных линий табло "Пожар!" N4 в электрозале магистральной насосной (003)</t>
+        </is>
+      </c>
+      <c r="C238" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D238" s="15" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E238" s="16" t="inlineStr">
+        <is>
+          <t>AI2</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="12" t="n"/>
+      <c r="B239" s="13" t="inlineStr">
+        <is>
+          <t>Резерв</t>
+        </is>
+      </c>
+      <c r="C239" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D239" s="15" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E239" s="16" t="inlineStr">
+        <is>
+          <t>AI3</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="12" t="n"/>
+      <c r="B240" s="13" t="inlineStr">
+        <is>
+          <t>Резерв</t>
+        </is>
+      </c>
+      <c r="C240" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D240" s="15" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E240" s="16" t="inlineStr">
+        <is>
+          <t>AI4</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25.5" r="241" s="6">
+      <c r="A241" s="12" t="inlineStr">
+        <is>
+          <t>OPC7084.5</t>
+        </is>
+      </c>
+      <c r="B241" s="13" t="inlineStr">
+        <is>
+          <t>Обрыв или КЗ соединительных линий сирены "Пожар" N5 в помещении ЗРУ (214)</t>
+        </is>
+      </c>
+      <c r="C241" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D241" s="15" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E241" s="16" t="inlineStr">
+        <is>
+          <t>AI5</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25.5" r="242" s="6">
+      <c r="A242" s="12" t="inlineStr">
+        <is>
+          <t>OPC7081.5</t>
+        </is>
+      </c>
+      <c r="B242" s="13" t="inlineStr">
+        <is>
+          <t>Обрыв или КЗ соединительных линий табло "Пожар!" N5 в помещении ЗРУ (214)</t>
+        </is>
+      </c>
+      <c r="C242" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D242" s="15" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E242" s="16" t="inlineStr">
+        <is>
+          <t>AI6</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25.5" r="243" s="6">
+      <c r="A243" s="12" t="inlineStr">
+        <is>
+          <t>OPC7084.3</t>
+        </is>
+      </c>
+      <c r="B243" s="13" t="inlineStr">
+        <is>
+          <t>Обрыв или КЗ соединительных линий сирены "Пожар" N3 в помещении ЗРУ (214)</t>
+        </is>
+      </c>
+      <c r="C243" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D243" s="15" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E243" s="16" t="inlineStr">
+        <is>
+          <t>AI7</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25.5" r="244" s="6">
+      <c r="A244" s="12" t="inlineStr">
+        <is>
+          <t>OPC7081.3</t>
+        </is>
+      </c>
+      <c r="B244" s="13" t="inlineStr">
+        <is>
+          <t>Обрыв или КЗ соединительных линий табло "Пожар!" N3 в помещении ЗРУ (214)</t>
+        </is>
+      </c>
+      <c r="C244" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D244" s="15" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E244" s="16" t="inlineStr">
+        <is>
+          <t>AI8</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="12" t="n"/>
+      <c r="B245" s="13" t="inlineStr">
+        <is>
+          <t>Резерв</t>
+        </is>
+      </c>
+      <c r="C245" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D245" s="15" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E245" s="16" t="inlineStr">
+        <is>
+          <t>AI1</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="12" t="n"/>
+      <c r="B246" s="13" t="inlineStr">
+        <is>
+          <t>Резерв</t>
+        </is>
+      </c>
+      <c r="C246" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D246" s="15" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E246" s="16" t="inlineStr">
+        <is>
+          <t>AI2</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="38.25" r="247" s="6">
+      <c r="A247" s="12" t="inlineStr">
+        <is>
+          <t>OPC7044.2</t>
+        </is>
+      </c>
+      <c r="B247" s="13" t="inlineStr">
+        <is>
+          <t>Обрыв или КЗ соединительных линий сирены "Пожар" N2 на площадке подпорной насосной станции (004)</t>
+        </is>
+      </c>
+      <c r="C247" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D247" s="15" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E247" s="16" t="inlineStr">
+        <is>
+          <t>AI3</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="12" t="n"/>
+      <c r="B248" s="13" t="inlineStr">
+        <is>
+          <t>Резерв</t>
+        </is>
+      </c>
+      <c r="C248" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D248" s="15" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E248" s="16" t="inlineStr">
+        <is>
+          <t>AI4</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="12" t="inlineStr">
+        <is>
+          <t>DC708.4</t>
+        </is>
+      </c>
+      <c r="B249" s="13" t="inlineStr">
+        <is>
+          <t>Помещение ЗРУ (214). Пожар. Шлейф 4</t>
+        </is>
+      </c>
+      <c r="C249" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D249" s="15" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E249" s="16" t="inlineStr">
+        <is>
+          <t>AI5</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="76.5" r="250" s="6">
+      <c r="A250" s="12" t="inlineStr">
+        <is>
+          <t>_ЗРУ, КТП (214).Аппаратная НПС-2_Шкаф ПТ-2.УСО.1_A2.7_25</t>
+        </is>
+      </c>
+      <c r="B250" s="13" t="n"/>
+      <c r="C250" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D250" s="15" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E250" s="16" t="inlineStr">
+        <is>
+          <t>AI6</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="76.5" r="251" s="6">
+      <c r="A251" s="12" t="inlineStr">
+        <is>
+          <t>_ЗРУ, КТП (214).Аппаратная НПС-2_Шкаф ПТ-2.УСО.1_A2.7_30</t>
+        </is>
+      </c>
+      <c r="B251" s="13" t="n"/>
+      <c r="C251" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D251" s="15" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E251" s="16" t="inlineStr">
+        <is>
+          <t>AI7</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="76.5" r="252" s="6">
+      <c r="A252" s="12" t="inlineStr">
+        <is>
+          <t>_ЗРУ, КТП (214).Аппаратная НПС-2_Шкаф ПТ-2.УСО.1_A2.7_34</t>
+        </is>
+      </c>
+      <c r="B252" s="13" t="n"/>
+      <c r="C252" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D252" s="15" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E252" s="16" t="inlineStr">
+        <is>
+          <t>AI8</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25.5" r="253" s="6">
+      <c r="A253" s="12" t="inlineStr">
+        <is>
+          <t>CSC33_1</t>
+        </is>
+      </c>
+      <c r="B253" s="13" t="inlineStr">
+        <is>
+          <t>Неисправность оборудования питания (резервный канал). ПТ-2.УСО.1</t>
+        </is>
+      </c>
+      <c r="C253" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D253" s="15" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E253" s="16" t="inlineStr">
+        <is>
+          <t>DI1</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="12" t="n"/>
+      <c r="B254" s="13" t="inlineStr">
+        <is>
+          <t>Резерв</t>
+        </is>
+      </c>
+      <c r="C254" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D254" s="15" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E254" s="16" t="inlineStr">
+        <is>
+          <t>DI2</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25.5" r="255" s="6">
+      <c r="A255" s="12" t="inlineStr">
+        <is>
+          <t>CSC35_1</t>
+        </is>
+      </c>
+      <c r="B255" s="13" t="inlineStr">
+        <is>
+          <t>Наличие напряжения на вводе №2 (220В) ПТ-2.УСО.1</t>
+        </is>
+      </c>
+      <c r="C255" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D255" s="15" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E255" s="16" t="inlineStr">
+        <is>
+          <t>DI3</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="12" t="inlineStr">
+        <is>
+          <t>CSC36_1</t>
+        </is>
+      </c>
+      <c r="B256" s="13" t="inlineStr">
+        <is>
+          <t>Исправность УЗИП Z2 ПТ-2.УСО.1</t>
+        </is>
+      </c>
+      <c r="C256" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D256" s="15" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E256" s="16" t="inlineStr">
+        <is>
+          <t>DI4</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25.5" r="257" s="6">
+      <c r="A257" s="12" t="inlineStr">
+        <is>
+          <t>CSC37_1</t>
+        </is>
+      </c>
+      <c r="B257" s="13" t="inlineStr">
+        <is>
+          <t>Наличие напряжения на распределительной шине ввод 2 ПТ-2.УСО.1</t>
+        </is>
+      </c>
+      <c r="C257" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D257" s="15" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E257" s="16" t="inlineStr">
+        <is>
+          <t>DI5</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25.5" r="258" s="6">
+      <c r="A258" s="21" t="inlineStr">
+        <is>
+          <t>CSC38_1</t>
+        </is>
+      </c>
+      <c r="B258" s="13" t="inlineStr">
+        <is>
+          <t>Наличие напряжения на вводе 2 АВР вентиляции ПТ-2.УСО.1</t>
+        </is>
+      </c>
+      <c r="C258" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D258" s="15" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E258" s="16" t="inlineStr">
+        <is>
+          <t>DI6</t>
+        </is>
+      </c>
+      <c r="F258" s="19" t="inlineStr">
+        <is>
+          <t>Исправлено на CSC38_01</t>
+        </is>
+      </c>
+      <c r="G258" s="20" t="n"/>
+    </row>
+    <row customHeight="1" ht="25.5" r="259" s="6">
+      <c r="A259" s="17" t="inlineStr">
+        <is>
+          <t>CSC39_1</t>
+        </is>
+      </c>
+      <c r="B259" s="18" t="inlineStr">
+        <is>
+          <t>Наличие напряжения на клеммном блоке X2 освещения ПТ-2.УСО.1</t>
+        </is>
+      </c>
+      <c r="C259" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D259" s="15" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E259" s="16" t="inlineStr">
+        <is>
+          <t>DI7</t>
+        </is>
+      </c>
+      <c r="F259" s="19" t="inlineStr">
+        <is>
+          <t>Исправлено на "Наличие напряжения на клеммном блоке X2 освещения ПТ-2.УСО.1"</t>
+        </is>
+      </c>
+      <c r="G259" s="20" t="n"/>
+      <c r="H259" s="20" t="n"/>
+      <c r="I259" s="20" t="n"/>
+      <c r="J259" s="20" t="n"/>
+    </row>
+    <row customHeight="1" ht="25.5" r="260" s="6">
+      <c r="A260" s="12" t="inlineStr">
+        <is>
+          <t>CSC40_1</t>
+        </is>
+      </c>
+      <c r="B260" s="13" t="inlineStr">
+        <is>
+          <t>Наличие напряжения на вводе БП G3 ПТ-2.УСО.1</t>
+        </is>
+      </c>
+      <c r="C260" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D260" s="15" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E260" s="16" t="inlineStr">
+        <is>
+          <t>DI8</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25.5" r="261" s="6">
+      <c r="A261" s="12" t="inlineStr">
+        <is>
+          <t>CSC41_1</t>
+        </is>
+      </c>
+      <c r="B261" s="13" t="inlineStr">
+        <is>
+          <t>Наличие напряжения на вводе БП G7 ПТ-2.УСО.1</t>
+        </is>
+      </c>
+      <c r="C261" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D261" s="15" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E261" s="16" t="inlineStr">
+        <is>
+          <t>DI9</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25.5" r="262" s="6">
+      <c r="A262" s="12" t="inlineStr">
+        <is>
+          <t>CSC42_1</t>
+        </is>
+      </c>
+      <c r="B262" s="13" t="inlineStr">
+        <is>
+          <t>Наличие напряжения на выходе БП G3 ПТ-2.УСО.1</t>
+        </is>
+      </c>
+      <c r="C262" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D262" s="15" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E262" s="16" t="inlineStr">
+        <is>
+          <t>DI10</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="17" t="inlineStr">
+        <is>
+          <t>CSC43_1</t>
+        </is>
+      </c>
+      <c r="B263" s="18" t="inlineStr">
+        <is>
+          <t>Исправность БП G3 ПТ-2.УСО.1</t>
+        </is>
+      </c>
+      <c r="C263" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D263" s="15" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E263" s="16" t="inlineStr">
+        <is>
+          <t>DI11</t>
+        </is>
+      </c>
+      <c r="F263" s="19" t="inlineStr">
+        <is>
+          <t>Исправлено на "Исправность БП G3 ПТ-2.УСО.1"</t>
+        </is>
+      </c>
+      <c r="G263" s="20" t="n"/>
+      <c r="H263" s="20" t="n"/>
+    </row>
+    <row r="264">
+      <c r="A264" s="17" t="inlineStr">
+        <is>
+          <t>CSC44_1</t>
+        </is>
+      </c>
+      <c r="B264" s="18" t="inlineStr">
+        <is>
+          <t>Исправность ИБП G4 ПТ-2.УСО.1</t>
+        </is>
+      </c>
+      <c r="C264" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D264" s="15" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E264" s="16" t="inlineStr">
+        <is>
+          <t>DI12</t>
+        </is>
+      </c>
+      <c r="F264" s="19" t="inlineStr">
+        <is>
+          <t>Исправлено на "Исправность ИБП G4 ПТ-2.УСО.1"</t>
+        </is>
+      </c>
+      <c r="G264" s="20" t="n"/>
+      <c r="H264" s="20" t="n"/>
+    </row>
+    <row r="265">
+      <c r="A265" s="12" t="inlineStr">
+        <is>
+          <t>CSC45_1</t>
+        </is>
+      </c>
+      <c r="B265" s="13" t="inlineStr">
+        <is>
+          <t>Переход на батарею ИБП G4 ПТ-2.УСО.1</t>
+        </is>
+      </c>
+      <c r="C265" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D265" s="15" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E265" s="16" t="inlineStr">
+        <is>
+          <t>DI13</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="12" t="inlineStr">
+        <is>
+          <t>CSC46_1</t>
+        </is>
+      </c>
+      <c r="B266" s="13" t="inlineStr">
+        <is>
+          <t>Батарея разряжена ИБП G4 ПТ-2.УСО.1</t>
+        </is>
+      </c>
+      <c r="C266" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D266" s="15" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E266" s="16" t="inlineStr">
+        <is>
+          <t>DI14</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25.5" r="267" s="6">
+      <c r="A267" s="12" t="inlineStr">
+        <is>
+          <t>CSC47_1</t>
+        </is>
+      </c>
+      <c r="B267" s="13" t="inlineStr">
+        <is>
+          <t>Наличие напряжения на выходе БП G7 ПТ-2.УСО.1</t>
+        </is>
+      </c>
+      <c r="C267" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D267" s="15" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E267" s="16" t="inlineStr">
+        <is>
+          <t>DI15</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="12" t="inlineStr">
+        <is>
+          <t>CSC48_1</t>
+        </is>
+      </c>
+      <c r="B268" s="13" t="inlineStr">
+        <is>
+          <t>Исправность БП G7 ПТ-2.УСО.1</t>
+        </is>
+      </c>
+      <c r="C268" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D268" s="15" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E268" s="16" t="inlineStr">
+        <is>
+          <t>DI16</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="12" t="inlineStr">
+        <is>
+          <t>CSC49_1</t>
+        </is>
+      </c>
+      <c r="B269" s="13" t="inlineStr">
+        <is>
+          <t>Исправность ИБП G8 ПТ-2.УСО.1</t>
+        </is>
+      </c>
+      <c r="C269" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D269" s="15" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E269" s="16" t="inlineStr">
+        <is>
+          <t>DI17</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="12" t="inlineStr">
+        <is>
+          <t>CSC50_1</t>
+        </is>
+      </c>
+      <c r="B270" s="13" t="inlineStr">
+        <is>
+          <t>Переход на батарею ИБП G8 ПТ-2.УСО.1</t>
+        </is>
+      </c>
+      <c r="C270" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D270" s="15" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E270" s="16" t="inlineStr">
+        <is>
+          <t>DI18</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="12" t="inlineStr">
+        <is>
+          <t>CSC51_1</t>
+        </is>
+      </c>
+      <c r="B271" s="13" t="inlineStr">
+        <is>
+          <t>Батарея разряжена ИБП G8 ПТ-2.УСО.1</t>
+        </is>
+      </c>
+      <c r="C271" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D271" s="15" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E271" s="16" t="inlineStr">
+        <is>
+          <t>DI19</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25.5" r="272" s="6">
+      <c r="A272" s="12" t="inlineStr">
+        <is>
+          <t>CSC52_1</t>
+        </is>
+      </c>
+      <c r="B272" s="13" t="inlineStr">
+        <is>
+          <t>Наличие напряжения на выходе ИБП G4 ПТ-2.УСО.1</t>
+        </is>
+      </c>
+      <c r="C272" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D272" s="15" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E272" s="16" t="inlineStr">
+        <is>
+          <t>DI20</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25.5" r="273" s="6">
+      <c r="A273" s="12" t="inlineStr">
+        <is>
+          <t>CSC53_1</t>
+        </is>
+      </c>
+      <c r="B273" s="13" t="inlineStr">
+        <is>
+          <t>Наличие напряжения на выходе ИБП G8 ПТ-2.УСО.1</t>
+        </is>
+      </c>
+      <c r="C273" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D273" s="15" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E273" s="16" t="inlineStr">
+        <is>
+          <t>DI21</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25.5" r="274" s="6">
+      <c r="A274" s="12" t="inlineStr">
+        <is>
+          <t>CSC54_1</t>
+        </is>
+      </c>
+      <c r="B274" s="13" t="inlineStr">
+        <is>
+          <t>Исправность предохранителей клеммного блока 1X2 ПТ-2.УСО.1</t>
+        </is>
+      </c>
+      <c r="C274" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D274" s="15" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E274" s="16" t="inlineStr">
+        <is>
+          <t>DI22</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="12" t="n"/>
+      <c r="B275" s="13" t="inlineStr">
+        <is>
+          <t>Резерв</t>
+        </is>
+      </c>
+      <c r="C275" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D275" s="15" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E275" s="16" t="inlineStr">
+        <is>
+          <t>DI23</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25.5" r="276" s="6">
+      <c r="A276" s="12" t="inlineStr">
+        <is>
+          <t>CSC55_1</t>
+        </is>
+      </c>
+      <c r="B276" s="13" t="inlineStr">
+        <is>
+          <t>Исправность предохранителей внешней цепи питания группа 2 ПТ-2.УСО.1</t>
+        </is>
+      </c>
+      <c r="C276" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D276" s="15" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E276" s="16" t="inlineStr">
+        <is>
+          <t>DI24</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="12" t="n"/>
+      <c r="B277" s="13" t="inlineStr">
+        <is>
+          <t>Резерв</t>
+        </is>
+      </c>
+      <c r="C277" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D277" s="15" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E277" s="16" t="inlineStr">
         <is>
           <t>DI25</t>
         </is>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="12" t="inlineStr">
-        <is>
-          <t>CSC58_01</t>
-        </is>
-      </c>
-      <c r="B74" s="13" t="inlineStr">
-        <is>
-          <t>Двери шкафа ПТ-2.КЦ открыты</t>
-        </is>
-      </c>
-      <c r="C74" s="14" t="inlineStr">
-        <is>
-          <t>A4</t>
-        </is>
-      </c>
-      <c r="D74" s="15" t="inlineStr">
+    <row r="278">
+      <c r="A278" s="12" t="inlineStr">
+        <is>
+          <t>CSC58_1</t>
+        </is>
+      </c>
+      <c r="B278" s="13" t="inlineStr">
+        <is>
+          <t>Двери шкафа ПТ-2.УСО.1 открыты</t>
+        </is>
+      </c>
+      <c r="C278" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D278" s="15" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E278" s="16" t="inlineStr">
+        <is>
+          <t>DI26</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="12" t="n"/>
+      <c r="B279" s="13" t="inlineStr">
+        <is>
+          <t>Резерв</t>
+        </is>
+      </c>
+      <c r="C279" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D279" s="15" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E279" s="16" t="inlineStr">
+        <is>
+          <t>DI27</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="12" t="n"/>
+      <c r="B280" s="13" t="inlineStr">
+        <is>
+          <t>Резерв</t>
+        </is>
+      </c>
+      <c r="C280" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D280" s="15" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E280" s="16" t="inlineStr">
+        <is>
+          <t>DI28</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="12" t="n"/>
+      <c r="B281" s="13" t="inlineStr">
+        <is>
+          <t>Резерв</t>
+        </is>
+      </c>
+      <c r="C281" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D281" s="15" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E281" s="16" t="inlineStr">
+        <is>
+          <t>DI29</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="76.5" r="282" s="6">
+      <c r="A282" s="12" t="inlineStr">
+        <is>
+          <t>_ЗРУ, КТП (214).Аппаратная НПС-2_Шкаф ПТ-2.УСО.1_0X1_12</t>
+        </is>
+      </c>
+      <c r="B282" s="13" t="inlineStr">
+        <is>
+          <t>Резерв</t>
+        </is>
+      </c>
+      <c r="C282" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D282" s="15" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E282" s="16" t="inlineStr">
+        <is>
+          <t>DI30</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="76.5" r="283" s="6">
+      <c r="A283" s="12" t="inlineStr">
+        <is>
+          <t>_ЗРУ, КТП (214).Аппаратная НПС-2_Шкаф ПТ-2.УСО.1_0X1_13</t>
+        </is>
+      </c>
+      <c r="B283" s="13" t="inlineStr">
+        <is>
+          <t>Резерв</t>
+        </is>
+      </c>
+      <c r="C283" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D283" s="15" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E283" s="16" t="inlineStr">
+        <is>
+          <t>DI31</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="76.5" r="284" s="6">
+      <c r="A284" s="12" t="inlineStr">
+        <is>
+          <t>_ЗРУ, КТП (214).Аппаратная НПС-2_Шкаф ПТ-2.УСО.1_0X1_14</t>
+        </is>
+      </c>
+      <c r="B284" s="13" t="inlineStr">
+        <is>
+          <t>Резерв</t>
+        </is>
+      </c>
+      <c r="C284" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D284" s="15" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E284" s="16" t="inlineStr">
+        <is>
+          <t>DI32</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="12" t="n"/>
+      <c r="B285" s="13" t="inlineStr">
+        <is>
+          <t>Резерв</t>
+        </is>
+      </c>
+      <c r="C285" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D285" s="15" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E285" s="16" t="inlineStr">
+        <is>
+          <t>DI1</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="12" t="n"/>
+      <c r="B286" s="13" t="inlineStr">
+        <is>
+          <t>Резерв</t>
+        </is>
+      </c>
+      <c r="C286" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D286" s="15" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E286" s="16" t="inlineStr">
+        <is>
+          <t>DI2</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="12" t="n"/>
+      <c r="B287" s="13" t="inlineStr">
+        <is>
+          <t>Резерв</t>
+        </is>
+      </c>
+      <c r="C287" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D287" s="15" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E287" s="16" t="inlineStr">
+        <is>
+          <t>DI3</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="12" t="n"/>
+      <c r="B288" s="13" t="inlineStr">
+        <is>
+          <t>Резерв</t>
+        </is>
+      </c>
+      <c r="C288" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D288" s="15" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E288" s="16" t="inlineStr">
+        <is>
+          <t>DI4</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="12" t="n"/>
+      <c r="B289" s="13" t="inlineStr">
+        <is>
+          <t>Резерв</t>
+        </is>
+      </c>
+      <c r="C289" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D289" s="15" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E289" s="16" t="inlineStr">
+        <is>
+          <t>DI5</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="12" t="n"/>
+      <c r="B290" s="13" t="inlineStr">
+        <is>
+          <t>Резерв</t>
+        </is>
+      </c>
+      <c r="C290" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D290" s="15" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E290" s="16" t="inlineStr">
+        <is>
+          <t>DI6</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="12" t="inlineStr">
+        <is>
+          <t>OKC67</t>
+        </is>
+      </c>
+      <c r="B291" s="13" t="inlineStr">
+        <is>
+          <t>Задвижка №67.Сигнал от КВО</t>
+        </is>
+      </c>
+      <c r="C291" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D291" s="15" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E291" s="16" t="inlineStr">
+        <is>
+          <t>DI7</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="12" t="inlineStr">
+        <is>
+          <t>CKC67</t>
+        </is>
+      </c>
+      <c r="B292" s="13" t="inlineStr">
+        <is>
+          <t>Задвижка №67.Сигнал от КВЗ</t>
+        </is>
+      </c>
+      <c r="C292" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D292" s="15" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E292" s="16" t="inlineStr">
+        <is>
+          <t>DI8</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="12" t="inlineStr">
+        <is>
+          <t>ODC67</t>
+        </is>
+      </c>
+      <c r="B293" s="13" t="inlineStr">
+        <is>
+          <t>Задвижка №67.Cигнал от МПО</t>
+        </is>
+      </c>
+      <c r="C293" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D293" s="15" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E293" s="16" t="inlineStr">
+        <is>
+          <t>DI9</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="12" t="inlineStr">
+        <is>
+          <t>CDC67</t>
+        </is>
+      </c>
+      <c r="B294" s="13" t="inlineStr">
+        <is>
+          <t>Задвижка №67.Сигнал от МПЗ</t>
+        </is>
+      </c>
+      <c r="C294" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D294" s="15" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E294" s="16" t="inlineStr">
+        <is>
+          <t>DI10</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="12" t="inlineStr">
+        <is>
+          <t>MC67</t>
+        </is>
+      </c>
+      <c r="B295" s="13" t="inlineStr">
+        <is>
+          <t>Задвижка №67.Сработала муфта</t>
+        </is>
+      </c>
+      <c r="C295" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D295" s="15" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E295" s="16" t="inlineStr">
+        <is>
+          <t>DI11</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="12" t="inlineStr">
+        <is>
+          <t>OPC67</t>
+        </is>
+      </c>
+      <c r="B296" s="13" t="inlineStr">
+        <is>
+          <t>Задвижка №67.Авария привода</t>
+        </is>
+      </c>
+      <c r="C296" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D296" s="15" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E296" s="16" t="inlineStr">
+        <is>
+          <t>DI12</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25.5" r="297" s="6">
+      <c r="A297" s="12" t="inlineStr">
+        <is>
+          <t>EC67</t>
+        </is>
+      </c>
+      <c r="B297" s="13" t="inlineStr">
+        <is>
+          <t>Задвижка №67.Контроль наличия напряжения</t>
+        </is>
+      </c>
+      <c r="C297" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D297" s="15" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E297" s="16" t="inlineStr">
+        <is>
+          <t>DI13</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="12" t="inlineStr">
+        <is>
+          <t>OFC67</t>
+        </is>
+      </c>
+      <c r="B298" s="13" t="inlineStr">
+        <is>
+          <t>Задвижка №67.Исправность цепи открытия</t>
+        </is>
+      </c>
+      <c r="C298" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D298" s="15" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E298" s="16" t="inlineStr">
+        <is>
+          <t>DI14</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="12" t="inlineStr">
+        <is>
+          <t>CFC67</t>
+        </is>
+      </c>
+      <c r="B299" s="13" t="inlineStr">
+        <is>
+          <t>Задвижка №67.Исправность цепи закрытия</t>
+        </is>
+      </c>
+      <c r="C299" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D299" s="15" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E299" s="16" t="inlineStr">
+        <is>
+          <t>DI15</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="12" t="inlineStr">
+        <is>
+          <t>OKCr.2.2</t>
+        </is>
+      </c>
+      <c r="B300" s="13" t="inlineStr">
+        <is>
+          <t>Задвижка №r.2.2 (резерв).Сигнал от КВО</t>
+        </is>
+      </c>
+      <c r="C300" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D300" s="15" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E300" s="16" t="inlineStr">
+        <is>
+          <t>DI16</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="12" t="inlineStr">
+        <is>
+          <t>CKCr.2.2</t>
+        </is>
+      </c>
+      <c r="B301" s="13" t="inlineStr">
+        <is>
+          <t>Задвижка №r.2.2 (резерв).Сигнал от КВЗ</t>
+        </is>
+      </c>
+      <c r="C301" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D301" s="15" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E301" s="16" t="inlineStr">
+        <is>
+          <t>DI17</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="12" t="inlineStr">
+        <is>
+          <t>ODCr.2.2</t>
+        </is>
+      </c>
+      <c r="B302" s="13" t="inlineStr">
+        <is>
+          <t>Задвижка №r.2.2 (резерв).Cигнал от МПО</t>
+        </is>
+      </c>
+      <c r="C302" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D302" s="15" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E302" s="16" t="inlineStr">
+        <is>
+          <t>DI18</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="12" t="inlineStr">
+        <is>
+          <t>CDCr.2.2</t>
+        </is>
+      </c>
+      <c r="B303" s="13" t="inlineStr">
+        <is>
+          <t>Задвижка №r.2.2 (резерв).Сигнал от МПЗ</t>
+        </is>
+      </c>
+      <c r="C303" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D303" s="15" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E303" s="16" t="inlineStr">
+        <is>
+          <t>DI19</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="12" t="inlineStr">
+        <is>
+          <t>MCr.2.2</t>
+        </is>
+      </c>
+      <c r="B304" s="13" t="inlineStr">
+        <is>
+          <t>Задвижка №r.2.2 (резерв).Сработала муфта</t>
+        </is>
+      </c>
+      <c r="C304" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D304" s="15" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E304" s="16" t="inlineStr">
+        <is>
+          <t>DI20</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="12" t="inlineStr">
+        <is>
+          <t>OPCr.2.2</t>
+        </is>
+      </c>
+      <c r="B305" s="13" t="inlineStr">
+        <is>
+          <t>Задвижка №r.2.2 (резерв).Авария привода</t>
+        </is>
+      </c>
+      <c r="C305" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D305" s="15" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E305" s="16" t="inlineStr">
+        <is>
+          <t>DI21</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25.5" r="306" s="6">
+      <c r="A306" s="12" t="inlineStr">
+        <is>
+          <t>ECr.2.2</t>
+        </is>
+      </c>
+      <c r="B306" s="13" t="inlineStr">
+        <is>
+          <t>Задвижка №r.2.2 (резерв).Контроль наличия напряжения</t>
+        </is>
+      </c>
+      <c r="C306" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D306" s="15" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E306" s="16" t="inlineStr">
+        <is>
+          <t>DI22</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25.5" r="307" s="6">
+      <c r="A307" s="12" t="inlineStr">
+        <is>
+          <t>OFCr.2.2</t>
+        </is>
+      </c>
+      <c r="B307" s="13" t="inlineStr">
+        <is>
+          <t>Задвижка №r.2.2 (резерв).Исправность цепи открытия</t>
+        </is>
+      </c>
+      <c r="C307" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D307" s="15" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E307" s="16" t="inlineStr">
+        <is>
+          <t>DI23</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25.5" r="308" s="6">
+      <c r="A308" s="12" t="inlineStr">
+        <is>
+          <t>CFCr.2.2</t>
+        </is>
+      </c>
+      <c r="B308" s="13" t="inlineStr">
+        <is>
+          <t>Задвижка №r.2.2 (резерв).Исправность цепи закрытия</t>
+        </is>
+      </c>
+      <c r="C308" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D308" s="15" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E308" s="16" t="inlineStr">
+        <is>
+          <t>DI24</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="76.5" r="309" s="6">
+      <c r="A309" s="12" t="inlineStr">
+        <is>
+          <t>_ЗРУ, КТП (214).Аппаратная НПС-2_Шкаф ПТ-2.УСО.1_0X1_15</t>
+        </is>
+      </c>
+      <c r="B309" s="13" t="inlineStr">
+        <is>
+          <t>Резерв</t>
+        </is>
+      </c>
+      <c r="C309" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D309" s="15" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E309" s="16" t="inlineStr">
+        <is>
+          <t>DI25</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="76.5" r="310" s="6">
+      <c r="A310" s="12" t="inlineStr">
+        <is>
+          <t>_ЗРУ, КТП (214).Аппаратная НПС-2_Шкаф ПТ-2.УСО.1_0X1_16</t>
+        </is>
+      </c>
+      <c r="B310" s="13" t="inlineStr">
+        <is>
+          <t>Резерв</t>
+        </is>
+      </c>
+      <c r="C310" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D310" s="15" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E310" s="16" t="inlineStr">
+        <is>
+          <t>DI26</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="76.5" r="311" s="6">
+      <c r="A311" s="12" t="inlineStr">
+        <is>
+          <t>_ЗРУ, КТП (214).Аппаратная НПС-2_Шкаф ПТ-2.УСО.1_0X1_17</t>
+        </is>
+      </c>
+      <c r="B311" s="13" t="inlineStr">
+        <is>
+          <t>Резерв</t>
+        </is>
+      </c>
+      <c r="C311" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D311" s="15" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E311" s="16" t="inlineStr">
+        <is>
+          <t>DI27</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="76.5" r="312" s="6">
+      <c r="A312" s="12" t="inlineStr">
+        <is>
+          <t>_ЗРУ, КТП (214).Аппаратная НПС-2_Шкаф ПТ-2.УСО.1_0X1_18</t>
+        </is>
+      </c>
+      <c r="B312" s="13" t="inlineStr">
+        <is>
+          <t>Резерв</t>
+        </is>
+      </c>
+      <c r="C312" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D312" s="15" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E312" s="16" t="inlineStr">
+        <is>
+          <t>DI28</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="76.5" r="313" s="6">
+      <c r="A313" s="12" t="inlineStr">
+        <is>
+          <t>_ЗРУ, КТП (214).Аппаратная НПС-2_Шкаф ПТ-2.УСО.1_0X1_19</t>
+        </is>
+      </c>
+      <c r="B313" s="13" t="inlineStr">
+        <is>
+          <t>Резерв</t>
+        </is>
+      </c>
+      <c r="C313" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D313" s="15" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E313" s="16" t="inlineStr">
+        <is>
+          <t>DI29</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="76.5" r="314" s="6">
+      <c r="A314" s="12" t="inlineStr">
+        <is>
+          <t>_ЗРУ, КТП (214).Аппаратная НПС-2_Шкаф ПТ-2.УСО.1_0X1_20</t>
+        </is>
+      </c>
+      <c r="B314" s="13" t="inlineStr">
+        <is>
+          <t>Резерв</t>
+        </is>
+      </c>
+      <c r="C314" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D314" s="15" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E314" s="16" t="inlineStr">
+        <is>
+          <t>DI30</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="76.5" r="315" s="6">
+      <c r="A315" s="12" t="inlineStr">
+        <is>
+          <t>_ЗРУ, КТП (214).Аппаратная НПС-2_Шкаф ПТ-2.УСО.1_0X1_21</t>
+        </is>
+      </c>
+      <c r="B315" s="13" t="inlineStr">
+        <is>
+          <t>Резерв</t>
+        </is>
+      </c>
+      <c r="C315" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D315" s="15" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E315" s="16" t="inlineStr">
+        <is>
+          <t>DI31</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="76.5" r="316" s="6">
+      <c r="A316" s="12" t="inlineStr">
+        <is>
+          <t>_ЗРУ, КТП (214).Аппаратная НПС-2_Шкаф ПТ-2.УСО.1_0X1_22</t>
+        </is>
+      </c>
+      <c r="B316" s="13" t="inlineStr">
+        <is>
+          <t>Резерв</t>
+        </is>
+      </c>
+      <c r="C316" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D316" s="15" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E316" s="16" t="inlineStr">
+        <is>
+          <t>DI32</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25.5" r="317" s="6">
+      <c r="A317" s="12" t="inlineStr">
+        <is>
+          <t>BB703.2</t>
+        </is>
+      </c>
+      <c r="B317" s="13" t="inlineStr">
+        <is>
+          <t>Сброс шлейфа "Пожар". Электрозал здания магистральной насосной (003). Шлейф 2</t>
+        </is>
+      </c>
+      <c r="C317" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D317" s="15" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E317" s="16" t="inlineStr">
+        <is>
+          <t>D026</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="12" t="n"/>
+      <c r="B318" s="13" t="inlineStr">
+        <is>
+          <t>Резерв</t>
+        </is>
+      </c>
+      <c r="C318" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D318" s="15" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E318" s="16" t="inlineStr">
+        <is>
+          <t>D027</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25.5" r="319" s="6">
+      <c r="A319" s="12" t="inlineStr">
+        <is>
+          <t>BB703.4</t>
+        </is>
+      </c>
+      <c r="B319" s="13" t="inlineStr">
+        <is>
+          <t>Сброс шлейфа "Пожар". Электрозал здания магистральной насосной (003). Шлейф 4</t>
+        </is>
+      </c>
+      <c r="C319" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D319" s="15" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E319" s="16" t="inlineStr">
+        <is>
+          <t>D030</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25.5" r="320" s="6">
+      <c r="A320" s="12" t="inlineStr">
+        <is>
+          <t>BB7014.2</t>
+        </is>
+      </c>
+      <c r="B320" s="13" t="inlineStr">
+        <is>
+          <t>Сирена "Пожар" N2 в насосном зале здания магистральной насосной (003) - включить</t>
+        </is>
+      </c>
+      <c r="C320" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D320" s="15" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E320" s="16" t="inlineStr">
+        <is>
+          <t>DO1</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="38.25" r="321" s="6">
+      <c r="A321" s="12" t="inlineStr">
+        <is>
+          <t>BB7011.2</t>
+        </is>
+      </c>
+      <c r="B321" s="13" t="inlineStr">
+        <is>
+          <t>Табло "Пена-не входить!" N2 в насосном зале здания магистральной насосной (003) - включить</t>
+        </is>
+      </c>
+      <c r="C321" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D321" s="15" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E321" s="16" t="inlineStr">
+        <is>
+          <t>DO2</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="38.25" r="322" s="6">
+      <c r="A322" s="12" t="inlineStr">
+        <is>
+          <t>BB7012.2</t>
+        </is>
+      </c>
+      <c r="B322" s="13" t="inlineStr">
+        <is>
+          <t>Табло "Автоматическое пожаротушение отключено" N2 в насосном зале здания магистральной насосной (003) - включить</t>
+        </is>
+      </c>
+      <c r="C322" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D322" s="15" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E322" s="16" t="inlineStr">
+        <is>
+          <t>DO3</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25.5" r="323" s="6">
+      <c r="A323" s="12" t="inlineStr">
+        <is>
+          <t>BB7014.4</t>
+        </is>
+      </c>
+      <c r="B323" s="13" t="inlineStr">
+        <is>
+          <t>Сирена "Пожар" N4 в насосном зале здания магистральной насосной (003) - включить</t>
+        </is>
+      </c>
+      <c r="C323" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D323" s="15" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E323" s="16" t="inlineStr">
+        <is>
+          <t>DO4</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="38.25" r="324" s="6">
+      <c r="A324" s="12" t="inlineStr">
+        <is>
+          <t>BB7013.2</t>
+        </is>
+      </c>
+      <c r="B324" s="13" t="inlineStr">
+        <is>
+          <t>Табло "Пена-уходи!" N2 в насосном зале здания магистральной насосной (003) - включить</t>
+        </is>
+      </c>
+      <c r="C324" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D324" s="15" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E324" s="16" t="inlineStr">
+        <is>
+          <t>DO5</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25.5" r="325" s="6">
+      <c r="A325" s="12" t="inlineStr">
+        <is>
+          <t>BB7034.2</t>
+        </is>
+      </c>
+      <c r="B325" s="13" t="inlineStr">
+        <is>
+          <t>Сирена "Пожар" N2 в электрозале магистральной насосной (003) - включить</t>
+        </is>
+      </c>
+      <c r="C325" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D325" s="15" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E325" s="16" t="inlineStr">
+        <is>
+          <t>DO6</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25.5" r="326" s="6">
+      <c r="A326" s="12" t="inlineStr">
+        <is>
+          <t>BB7031.2</t>
+        </is>
+      </c>
+      <c r="B326" s="13" t="inlineStr">
+        <is>
+          <t>Табло "Пожар!" N2 в электрозале магистральной насосной (003) - включить</t>
+        </is>
+      </c>
+      <c r="C326" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D326" s="15" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E326" s="16" t="inlineStr">
+        <is>
+          <t>DO7</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25.5" r="327" s="6">
+      <c r="A327" s="12" t="inlineStr">
+        <is>
+          <t>BB7034.4</t>
+        </is>
+      </c>
+      <c r="B327" s="13" t="inlineStr">
+        <is>
+          <t>Сирена "Пожар" N4 в электрозале магистральной насосной (003) - включить</t>
+        </is>
+      </c>
+      <c r="C327" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D327" s="15" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E327" s="16" t="inlineStr">
+        <is>
+          <t>DO8</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25.5" r="328" s="6">
+      <c r="A328" s="12" t="inlineStr">
+        <is>
+          <t>BB7031.4</t>
+        </is>
+      </c>
+      <c r="B328" s="13" t="inlineStr">
+        <is>
+          <t>Табло "Пожар!" N4 в электрозале магистральной насосной (003) - включить</t>
+        </is>
+      </c>
+      <c r="C328" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D328" s="15" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E328" s="16" t="inlineStr">
+        <is>
+          <t>DO9</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="12" t="n"/>
+      <c r="B329" s="13" t="inlineStr">
+        <is>
+          <t>Резерв</t>
+        </is>
+      </c>
+      <c r="C329" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D329" s="15" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E329" s="16" t="inlineStr">
+        <is>
+          <t>DO10</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="12" t="n"/>
+      <c r="B330" s="13" t="inlineStr">
+        <is>
+          <t>Резерв</t>
+        </is>
+      </c>
+      <c r="C330" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D330" s="15" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E330" s="16" t="inlineStr">
+        <is>
+          <t>DO11</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25.5" r="331" s="6">
+      <c r="A331" s="12" t="inlineStr">
+        <is>
+          <t>BB7084.5</t>
+        </is>
+      </c>
+      <c r="B331" s="13" t="inlineStr">
+        <is>
+          <t>Сирена "Пожар" N5 в помещении ЗРУ (214) - включить</t>
+        </is>
+      </c>
+      <c r="C331" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D331" s="15" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E331" s="16" t="inlineStr">
+        <is>
+          <t>DO12</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25.5" r="332" s="6">
+      <c r="A332" s="12" t="inlineStr">
+        <is>
+          <t>BB7081.5</t>
+        </is>
+      </c>
+      <c r="B332" s="13" t="inlineStr">
+        <is>
+          <t>Табло "Пожар!" N5 в помещении ЗРУ (214) - включить</t>
+        </is>
+      </c>
+      <c r="C332" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D332" s="15" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E332" s="16" t="inlineStr">
+        <is>
+          <t>DO13</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25.5" r="333" s="6">
+      <c r="A333" s="12" t="inlineStr">
+        <is>
+          <t>BB7084.3</t>
+        </is>
+      </c>
+      <c r="B333" s="13" t="inlineStr">
+        <is>
+          <t>Сирена "Пожар" N3 в помещении ЗРУ (214) - включить</t>
+        </is>
+      </c>
+      <c r="C333" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D333" s="15" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E333" s="16" t="inlineStr">
+        <is>
+          <t>DO14</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25.5" r="334" s="6">
+      <c r="A334" s="12" t="inlineStr">
+        <is>
+          <t>BB7081.3</t>
+        </is>
+      </c>
+      <c r="B334" s="13" t="inlineStr">
+        <is>
+          <t>Табло "Пожар!" N3 в помещении ЗРУ (214) - включить</t>
+        </is>
+      </c>
+      <c r="C334" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D334" s="15" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E334" s="16" t="inlineStr">
+        <is>
+          <t>DO15</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="12" t="n"/>
+      <c r="B335" s="13" t="inlineStr">
+        <is>
+          <t>Резерв</t>
+        </is>
+      </c>
+      <c r="C335" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D335" s="15" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E335" s="16" t="inlineStr">
+        <is>
+          <t>DO16</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="12" t="n"/>
+      <c r="B336" s="13" t="inlineStr">
+        <is>
+          <t>Резерв</t>
+        </is>
+      </c>
+      <c r="C336" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D336" s="15" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E336" s="16" t="inlineStr">
+        <is>
+          <t>DO17</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25.5" r="337" s="6">
+      <c r="A337" s="12" t="inlineStr">
+        <is>
+          <t>BB7044.2</t>
+        </is>
+      </c>
+      <c r="B337" s="13" t="inlineStr">
+        <is>
+          <t>Сирена "Пожар" N2 на площадке подпорной насосной станции (004) - включить</t>
+        </is>
+      </c>
+      <c r="C337" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D337" s="15" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E337" s="16" t="inlineStr">
+        <is>
+          <t>DO18</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="12" t="n"/>
+      <c r="B338" s="13" t="inlineStr">
+        <is>
+          <t>Резерв</t>
+        </is>
+      </c>
+      <c r="C338" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D338" s="15" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E338" s="16" t="inlineStr">
+        <is>
+          <t>DO19</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="12" t="inlineStr">
+        <is>
+          <t>DOB67</t>
+        </is>
+      </c>
+      <c r="B339" s="13" t="inlineStr">
+        <is>
+          <t>Задвижка №67.Команда на открытие</t>
+        </is>
+      </c>
+      <c r="C339" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D339" s="15" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E339" s="16" t="inlineStr">
+        <is>
+          <t>DO20</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="12" t="inlineStr">
+        <is>
+          <t>DKB67</t>
+        </is>
+      </c>
+      <c r="B340" s="13" t="inlineStr">
+        <is>
+          <t>Задвижка №67.Команда на закрытие</t>
+        </is>
+      </c>
+      <c r="C340" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D340" s="15" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E340" s="16" t="inlineStr">
+        <is>
+          <t>DO21</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="12" t="inlineStr">
+        <is>
+          <t>DCB67</t>
+        </is>
+      </c>
+      <c r="B341" s="13" t="inlineStr">
+        <is>
+          <t>Задвижка №67.Команда на остановку</t>
+        </is>
+      </c>
+      <c r="C341" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D341" s="15" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E341" s="16" t="inlineStr">
+        <is>
+          <t>DO22</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25.5" r="342" s="6">
+      <c r="A342" s="12" t="inlineStr">
+        <is>
+          <t>DOBr.2.2</t>
+        </is>
+      </c>
+      <c r="B342" s="13" t="inlineStr">
+        <is>
+          <t>Задвижка №r.2.2 (резерв).Команда на открытие</t>
+        </is>
+      </c>
+      <c r="C342" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D342" s="15" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E342" s="16" t="inlineStr">
+        <is>
+          <t>DO23</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25.5" r="343" s="6">
+      <c r="A343" s="12" t="inlineStr">
+        <is>
+          <t>DKBr.2.2</t>
+        </is>
+      </c>
+      <c r="B343" s="13" t="inlineStr">
+        <is>
+          <t>Задвижка №r.2.2 (резерв).Команда на закрытие</t>
+        </is>
+      </c>
+      <c r="C343" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D343" s="15" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E343" s="16" t="inlineStr">
+        <is>
+          <t>DO24</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25.5" r="344" s="6">
+      <c r="A344" s="12" t="inlineStr">
+        <is>
+          <t>DCBr.2.2</t>
+        </is>
+      </c>
+      <c r="B344" s="13" t="inlineStr">
+        <is>
+          <t>Задвижка №r.2.2 (резерв).Команда на остановку</t>
+        </is>
+      </c>
+      <c r="C344" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D344" s="15" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E344" s="16" t="inlineStr">
+        <is>
+          <t>DO25</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25.5" r="345" s="6">
+      <c r="A345" s="12" t="inlineStr">
+        <is>
+          <t>BB708.2</t>
+        </is>
+      </c>
+      <c r="B345" s="13" t="inlineStr">
+        <is>
+          <t>Сброс шлейфа "Пожар". Помещение ЗРУ (214). Шлейф 2</t>
+        </is>
+      </c>
+      <c r="C345" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D345" s="15" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E345" s="16" t="inlineStr">
+        <is>
+          <t>DO28</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="12" t="n"/>
+      <c r="B346" s="13" t="inlineStr">
+        <is>
+          <t>Резерв</t>
+        </is>
+      </c>
+      <c r="C346" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D346" s="15" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E346" s="16" t="inlineStr">
+        <is>
+          <t>DO29</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25.5" r="347" s="6">
+      <c r="A347" s="12" t="inlineStr">
+        <is>
+          <t>BB708.4</t>
+        </is>
+      </c>
+      <c r="B347" s="13" t="inlineStr">
+        <is>
+          <t>Сброс шлейфа "Пожар". Помещение ЗРУ (214). Шлейф 4</t>
+        </is>
+      </c>
+      <c r="C347" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D347" s="15" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E347" s="16" t="inlineStr">
+        <is>
+          <t>DO31</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="76.5" r="348" s="6">
+      <c r="A348" s="12" t="inlineStr">
+        <is>
+          <t>_ЗРУ, КТП (214).Аппаратная НПС-2_Шкаф ПТ-2.УСО.1_0X2_29</t>
+        </is>
+      </c>
+      <c r="B348" s="13" t="inlineStr">
+        <is>
+          <t>Резерв</t>
+        </is>
+      </c>
+      <c r="C348" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D348" s="15" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E348" s="16" t="inlineStr">
+        <is>
+          <t>DO32</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="12" t="n"/>
+      <c r="B349" s="13" t="inlineStr">
+        <is>
+          <t>Обмен данными с насосным залом. Шлейф 2</t>
+        </is>
+      </c>
+      <c r="C349" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D349" s="15" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E349" s="16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25.5" r="350" s="6">
+      <c r="A350" s="12" t="n"/>
+      <c r="B350" s="13" t="inlineStr">
+        <is>
+          <t>Обмен данными с маслоприямком МНС. Шлейф 2</t>
+        </is>
+      </c>
+      <c r="C350" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D350" s="15" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E350" s="16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="25.5" r="351" s="6">
+      <c r="A351" s="12" t="n"/>
+      <c r="B351" s="13" t="inlineStr">
+        <is>
+          <t>Обмен по интерфейсу с подпорной насосной станцией (004). Шлейф №2</t>
+        </is>
+      </c>
+      <c r="C351" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D351" s="15" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E351" s="16" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="E74" s="16" t="inlineStr">
-        <is>
-          <t>DI26</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="12" t="n"/>
-      <c r="B75" s="13" t="inlineStr">
-        <is>
-          <t>Резерв</t>
-        </is>
-      </c>
-      <c r="C75" s="14" t="inlineStr">
-        <is>
-          <t>A4</t>
-        </is>
-      </c>
-      <c r="D75" s="15" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E75" s="16" t="inlineStr">
-        <is>
-          <t>DI27</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="12" t="n"/>
-      <c r="B76" s="13" t="inlineStr">
-        <is>
-          <t>Резерв</t>
-        </is>
-      </c>
-      <c r="C76" s="14" t="inlineStr">
-        <is>
-          <t>A4</t>
-        </is>
-      </c>
-      <c r="D76" s="15" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E76" s="16" t="inlineStr">
-        <is>
-          <t>DI28</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="12" t="n"/>
-      <c r="B77" s="13" t="inlineStr">
-        <is>
-          <t>Резерв</t>
-        </is>
-      </c>
-      <c r="C77" s="14" t="inlineStr">
-        <is>
-          <t>A4</t>
-        </is>
-      </c>
-      <c r="D77" s="15" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E77" s="16" t="inlineStr">
-        <is>
-          <t>DI29</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="63.75" r="78" s="6">
-      <c r="A78" s="12" t="inlineStr">
-        <is>
-          <t>_ЗРУ, КТП (214).Аппаратная НПС-2_Шкаф ПТ-2.КЦ_0X1_5</t>
-        </is>
-      </c>
-      <c r="B78" s="13" t="inlineStr">
-        <is>
-          <t>Резерв</t>
-        </is>
-      </c>
-      <c r="C78" s="14" t="inlineStr">
-        <is>
-          <t>A4</t>
-        </is>
-      </c>
-      <c r="D78" s="15" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E78" s="16" t="inlineStr">
-        <is>
-          <t>DI30</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="63.75" r="79" s="6">
-      <c r="A79" s="12" t="inlineStr">
-        <is>
-          <t>_ЗРУ, КТП (214).Аппаратная НПС-2_Шкаф ПТ-2.КЦ_0X1_6</t>
-        </is>
-      </c>
-      <c r="B79" s="13" t="inlineStr">
-        <is>
-          <t>Резерв</t>
-        </is>
-      </c>
-      <c r="C79" s="14" t="inlineStr">
-        <is>
-          <t>A4</t>
-        </is>
-      </c>
-      <c r="D79" s="15" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E79" s="16" t="inlineStr">
-        <is>
-          <t>DI31</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="63.75" r="80" s="6">
-      <c r="A80" s="12" t="inlineStr">
-        <is>
-          <t>_ЗРУ, КТП (214).Аппаратная НПС-2_Шкаф ПТ-2.КЦ_0X1_7</t>
-        </is>
-      </c>
-      <c r="B80" s="13" t="inlineStr">
-        <is>
-          <t>Резерв</t>
-        </is>
-      </c>
-      <c r="C80" s="14" t="inlineStr">
-        <is>
-          <t>A4</t>
-        </is>
-      </c>
-      <c r="D80" s="15" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E80" s="16" t="inlineStr">
-        <is>
-          <t>DI32</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="76.5" r="81" s="6">
-      <c r="A81" s="12" t="inlineStr">
-        <is>
-          <t>_ЗРУ, КТП (214).Аппаратная НПС-2_Шкаф ПТ-2.КЦ_7XT5_1</t>
-        </is>
-      </c>
-      <c r="B81" s="13" t="inlineStr">
-        <is>
-          <t>Резерв</t>
-        </is>
-      </c>
-      <c r="C81" s="14" t="inlineStr">
-        <is>
-          <t>A4</t>
-        </is>
-      </c>
-      <c r="D81" s="15" t="inlineStr">
+    </row>
+    <row r="352">
+      <c r="A352" s="12" t="n"/>
+      <c r="B352" s="13" t="inlineStr">
+        <is>
+          <t>Резерв</t>
+        </is>
+      </c>
+      <c r="C352" s="14" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D352" s="15" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E352" s="16" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E81" s="16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="76.5" r="82" s="6">
-      <c r="A82" s="12" t="inlineStr">
-        <is>
-          <t>_ЗРУ, КТП (214).Аппаратная НПС-2_Шкаф ПТ-2.КЦ_7XT6_1</t>
-        </is>
-      </c>
-      <c r="B82" s="13" t="inlineStr">
-        <is>
-          <t>Обмен информацией между шкафами ПТ-2.КЦ и ЦК НПС-1 и РП УСО4.1</t>
-        </is>
-      </c>
-      <c r="C82" s="14" t="inlineStr">
-        <is>
-          <t>A4</t>
-        </is>
-      </c>
-      <c r="D82" s="15" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E82" s="16" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="76.5" r="83" s="6">
-      <c r="A83" s="12" t="inlineStr">
-        <is>
-          <t>_ЗРУ, КТП (214).Аппаратная НПС-2_Шкаф ПТ-2.КЦ_7XT7_1</t>
-        </is>
-      </c>
-      <c r="B83" s="13" t="inlineStr">
-        <is>
-          <t>Резерв</t>
-        </is>
-      </c>
-      <c r="C83" s="14" t="inlineStr">
-        <is>
-          <t>A4</t>
-        </is>
-      </c>
-      <c r="D83" s="15" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E83" s="16" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="76.5" r="84" s="6">
-      <c r="A84" s="12" t="inlineStr">
-        <is>
-          <t>_ЗРУ, КТП (214).Аппаратная НПС-2_Шкаф ПТ-2.КЦ_7XT8_1</t>
-        </is>
-      </c>
-      <c r="B84" s="13" t="inlineStr">
-        <is>
-          <t>Резерв</t>
-        </is>
-      </c>
-      <c r="C84" s="14" t="inlineStr">
-        <is>
-          <t>A4</t>
-        </is>
-      </c>
-      <c r="D84" s="15" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E84" s="16" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="3" t="n"/>
-      <c r="B85" s="3" t="n"/>
-      <c r="C85" s="3" t="n"/>
-      <c r="D85" s="3" t="n"/>
-      <c r="E85" s="3" t="n"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="3" t="n"/>
-      <c r="B86" s="3" t="n"/>
-      <c r="C86" s="3" t="n"/>
-      <c r="D86" s="3" t="n"/>
-      <c r="E86" s="3" t="n"/>
-      <c r="F86" s="3" t="n"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="3" t="n"/>
-      <c r="B87" s="3" t="n"/>
-      <c r="C87" s="3" t="n"/>
-      <c r="D87" s="3" t="n"/>
-      <c r="E87" s="3" t="n"/>
-      <c r="F87" s="3" t="n"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="3" t="n"/>
-      <c r="B88" s="3" t="n"/>
-      <c r="C88" s="3" t="n"/>
-      <c r="D88" s="3" t="n"/>
-      <c r="E88" s="3" t="n"/>
-      <c r="F88" s="3" t="n"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="3" t="n"/>
-      <c r="B89" s="3" t="n"/>
-      <c r="C89" s="3" t="n"/>
-      <c r="D89" s="3" t="n"/>
-      <c r="E89" s="3" t="n"/>
-      <c r="F89" s="3" t="n"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="3" t="n"/>
-      <c r="B90" s="3" t="n"/>
-      <c r="C90" s="3" t="n"/>
-      <c r="D90" s="3" t="n"/>
-      <c r="E90" s="3" t="n"/>
-      <c r="F90" s="3" t="n"/>
+    </row>
+    <row r="353">
+      <c r="A353" s="3" t="n"/>
+      <c r="B353" s="3" t="n"/>
+      <c r="C353" s="3" t="n"/>
+      <c r="D353" s="3" t="n"/>
+      <c r="E353" s="3" t="n"/>
+    </row>
+    <row r="354">
+      <c r="A354" s="3" t="n"/>
+      <c r="B354" s="3" t="n"/>
+      <c r="C354" s="3" t="n"/>
+      <c r="D354" s="3" t="n"/>
+      <c r="E354" s="3" t="n"/>
+      <c r="F354" s="3" t="n"/>
+    </row>
+    <row r="355">
+      <c r="A355" s="3" t="n"/>
+      <c r="B355" s="3" t="n"/>
+      <c r="C355" s="3" t="n"/>
+      <c r="D355" s="3" t="n"/>
+      <c r="E355" s="3" t="n"/>
+      <c r="F355" s="3" t="n"/>
+    </row>
+    <row r="356">
+      <c r="A356" s="3" t="n"/>
+      <c r="B356" s="3" t="n"/>
+      <c r="C356" s="3" t="n"/>
+      <c r="D356" s="3" t="n"/>
+      <c r="E356" s="3" t="n"/>
+      <c r="F356" s="3" t="n"/>
+    </row>
+    <row r="357">
+      <c r="A357" s="3" t="n"/>
+      <c r="B357" s="3" t="n"/>
+      <c r="C357" s="3" t="n"/>
+      <c r="D357" s="3" t="n"/>
+      <c r="E357" s="3" t="n"/>
+      <c r="F357" s="3" t="n"/>
+    </row>
+    <row r="358">
+      <c r="A358" s="3" t="n"/>
+      <c r="B358" s="3" t="n"/>
+      <c r="C358" s="3" t="n"/>
+      <c r="D358" s="3" t="n"/>
+      <c r="E358" s="3" t="n"/>
+      <c r="F358" s="3" t="n"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D5 D2 C3 D85:D1048576">
+  <conditionalFormatting sqref="D5 D2 C3 D353:D1048576">
     <cfRule dxfId="0" operator="equal" priority="2" stopIfTrue="1" type="cellIs">
       <formula>"PE"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D6:D84">
+  <conditionalFormatting sqref="D6:D352">
     <cfRule dxfId="0" operator="equal" priority="1" stopIfTrue="1" type="cellIs">
       <formula>"PE"</formula>
     </cfRule>
